--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -279,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -355,6 +355,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -369,40 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,23 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,25 +437,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,8 +466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +485,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +561,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,7 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,37 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +639,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,19 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,19 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,17 +1069,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,16 +1087,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1134,15 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1161,8 +1146,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,34 +1186,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,101 +1222,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,6 +1419,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1455,6 +1464,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,6 +1522,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1902,8 +1920,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1916,299 +1934,308 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="72"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="59">
+      <c r="A3" s="63">
         <v>12</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="64">
         <v>51</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="65">
         <v>4</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="66">
         <v>2</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="66">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="63">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="67">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="84">
         <v>0</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="85">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="86">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="81">
+      <c r="L3" s="87">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="88">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64">
         <v>52</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="65">
         <v>4</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="66">
         <v>2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="66">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="63">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="67">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="84">
         <v>0</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="85">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="86">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="87">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="88">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="59">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="65">
         <v>3</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="66">
         <v>0</v>
       </c>
-      <c r="E5" s="62">
-        <v>0</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63">
+      <c r="E5" s="66">
+        <v>3</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="67">
         <f t="shared" ref="H4:H8" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="84">
         <v>0</v>
       </c>
-      <c r="J5" s="79" t="e">
+      <c r="J5" s="85" t="e">
         <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="86">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="87">
         <f t="shared" ref="L4:L8" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="88">
         <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62">
+      <c r="A6" s="70"/>
+      <c r="B6" s="64">
+        <v>2</v>
+      </c>
+      <c r="C6" s="65">
+        <v>3</v>
+      </c>
+      <c r="D6" s="66">
+        <v>0</v>
+      </c>
+      <c r="E6" s="66">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="63">
+        <v>3</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79" t="e">
+      <c r="I6" s="84">
+        <v>0</v>
+      </c>
+      <c r="J6" s="85" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="86">
         <f t="shared" ref="K4:K8" si="5">C6+G6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="81">
+        <v>3</v>
+      </c>
+      <c r="L6" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="82" t="e">
+      <c r="M6" s="88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="71"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="88" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62">
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63">
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79" t="e">
+      <c r="I8" s="89"/>
+      <c r="J8" s="90" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K8" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L8" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="82" t="e">
+      <c r="M8" s="93" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="86">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="87" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2222,13 +2249,13 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
@@ -2241,50 +2268,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2328,7 +2355,7 @@
       <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="52">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2373,7 +2400,7 @@
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="53">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2384,7 +2411,7 @@
       <c r="A4" s="31">
         <v>52</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2429,7 +2456,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2476,7 +2503,7 @@
       <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="1"/>
@@ -2494,8 +2521,12 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="49">
+        <v>2</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -7494,7 +7525,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B6:B1048576" listDataValidation="1"/>
+    <ignoredError sqref="B6 B8:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7505,7 +7536,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7739,31 +7770,73 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="33"/>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="34">
+        <v>2</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43094</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="16">
+        <v>43459</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="23"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="33"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23"/>
       <c r="D14" s="32"/>
       <c r="E14" s="1"/>
@@ -7771,71 +7844,71 @@
       <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="D15" s="32"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="D16" s="32"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="D17" s="32"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="D18" s="32"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="D19" s="32"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="D20" s="32"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="23"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="34"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="23"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="23"/>
       <c r="D23" s="32"/>
       <c r="E23" s="1"/>
@@ -7843,7 +7916,7 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="23"/>
       <c r="D24" s="32"/>
       <c r="E24" s="1"/>
@@ -7851,7 +7924,7 @@
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="23"/>
       <c r="D25" s="32"/>
       <c r="E25" s="1"/>
@@ -7859,7 +7932,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="23"/>
       <c r="D26" s="32"/>
       <c r="E26" s="1"/>
@@ -7867,7 +7940,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="23"/>
       <c r="D27" s="32"/>
       <c r="E27" s="1"/>
@@ -7875,7 +7948,7 @@
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="23"/>
       <c r="D28" s="32"/>
       <c r="E28" s="1"/>
@@ -7883,55 +7956,55 @@
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="34"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="23"/>
       <c r="D35" s="32"/>
       <c r="E35" s="1"/>
@@ -7940,31 +8013,31 @@
     </row>
     <row r="36" ht="14.25" spans="2:7">
       <c r="B36" s="23"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" ht="14.25" spans="2:7">
       <c r="B37" s="23"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" ht="14.25" spans="2:7">
       <c r="B38" s="23"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" ht="14.25" spans="2:7">
       <c r="B39" s="23"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="23"/>
@@ -8024,31 +8097,31 @@
     </row>
     <row r="48" ht="14.25" spans="2:7">
       <c r="B48" s="23"/>
-      <c r="D48" s="36"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="37"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
       <c r="B49" s="23"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="38"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
       <c r="B50" s="23"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="38"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" ht="14.25" spans="2:7">
       <c r="B51" s="23"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="23"/>
@@ -8108,17 +8181,17 @@
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="23"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="38"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" ht="14.25" spans="2:7">
       <c r="B61" s="23"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="38"/>
+      <c r="G61" s="41"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="23"/>
@@ -8177,21 +8250,22 @@
       <c r="G69" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A36:A47"/>
     <mergeCell ref="A48:A59"/>
     <mergeCell ref="A60:A69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E2:E3 E6:E7 E8:E9 E10:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E2:E3 E6:E7 E8:E9 E11:E12 E14:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F2:F3 F6:F7 F8:F9 F10:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F2:F3 F6:F7 F8:F9 F11:F12 F14:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8206,8 +8280,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8219,7 +8293,7 @@
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>沈芳芳</t>
+  </si>
+  <si>
+    <t>小小河边鱼马鞍山店</t>
+  </si>
+  <si>
+    <t>SAAS+微信</t>
+  </si>
+  <si>
+    <t>戴真兵</t>
   </si>
   <si>
     <t>姓名</t>
@@ -279,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -355,42 +364,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -405,9 +378,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,8 +424,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -437,14 +456,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -452,31 +463,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,9 +493,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,19 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +630,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,31 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,37 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,11 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,16 +1102,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1128,6 +1143,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1146,23 +1170,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,34 +1195,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,101 +1231,101 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,12 +1437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,6 +1534,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,8 +1932,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1952,10 +1964,10 @@
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
-      <c r="J1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="56"/>
       <c r="L1" s="56"/>
-      <c r="M1" s="78"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="57" t="s">
@@ -1982,19 +1994,19 @@
       <c r="H2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2021,22 +2033,22 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="84">
+      <c r="I3" s="85">
         <v>0</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="86">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="87">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="87">
+      <c r="L3" s="88">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="89">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
@@ -2062,22 +2074,22 @@
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="85">
         <v>0</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="86">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="87">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="88">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="88">
+      <c r="M4" s="89">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
@@ -2104,22 +2116,22 @@
         <f t="shared" ref="H4:H8" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="85">
         <v>0</v>
       </c>
-      <c r="J5" s="85" t="e">
+      <c r="J5" s="86" t="e">
         <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="87">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="88">
         <f t="shared" ref="L4:L8" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="88">
+      <c r="M5" s="89">
         <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
@@ -2145,34 +2157,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="84">
+      <c r="I6" s="85">
         <v>0</v>
       </c>
-      <c r="J6" s="85" t="e">
+      <c r="J6" s="86" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="87">
         <f t="shared" ref="K4:K8" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="71"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="B7" s="64">
+        <v>3</v>
+      </c>
+      <c r="C7" s="65">
+        <v>4</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0</v>
+      </c>
       <c r="E7" s="66">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="68"/>
@@ -2180,53 +2198,53 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85" t="e">
+      <c r="I7" s="85"/>
+      <c r="J7" s="86" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="87">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:13">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L8" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="88" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="93" t="e">
+      <c r="M8" s="94" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2235,7 +2253,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2249,7 +2267,7 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2521,10 +2539,10 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="49">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="1"/>
@@ -2542,8 +2560,12 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="49">
+        <v>3</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -7525,7 +7547,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B8:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B9:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7536,13 +7558,13 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
@@ -7771,7 +7793,7 @@
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="34">
+      <c r="A11" s="30">
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -7794,7 +7816,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="35"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="23" t="s">
         <v>67</v>
       </c>
@@ -7815,7 +7837,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="23" t="s">
         <v>68</v>
       </c>
@@ -7835,64 +7857,118 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="23"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="33"/>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="34">
+        <v>3</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="16">
+        <v>43094</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="16">
+        <v>43459</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="16">
+        <v>43116</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
       <c r="D18" s="32"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="D19" s="32"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
       <c r="D20" s="32"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="23"/>
       <c r="D21" s="39"/>
       <c r="E21" s="1"/>
@@ -7900,7 +7976,7 @@
       <c r="G21" s="40"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="23"/>
       <c r="D22" s="39"/>
       <c r="E22" s="1"/>
@@ -7908,7 +7984,7 @@
       <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="23"/>
       <c r="D23" s="32"/>
       <c r="E23" s="1"/>
@@ -7916,7 +7992,7 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="23"/>
       <c r="D24" s="32"/>
       <c r="E24" s="1"/>
@@ -7924,7 +8000,7 @@
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="23"/>
       <c r="D25" s="32"/>
       <c r="E25" s="1"/>
@@ -7932,7 +8008,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="23"/>
       <c r="D26" s="32"/>
       <c r="E26" s="1"/>
@@ -7940,7 +8016,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="23"/>
       <c r="D27" s="32"/>
       <c r="E27" s="1"/>
@@ -7948,7 +8024,7 @@
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="23"/>
       <c r="D28" s="32"/>
       <c r="E28" s="1"/>
@@ -7956,55 +8032,55 @@
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
       <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
       <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
       <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="23"/>
       <c r="D35" s="32"/>
       <c r="E35" s="1"/>
@@ -8250,22 +8326,23 @@
       <c r="G69" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A36:A47"/>
     <mergeCell ref="A48:A59"/>
     <mergeCell ref="A60:A69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E2:E3 E6:E7 E8:E9 E11:E12 E14:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E17:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F2:F3 F6:F7 F8:F9 F11:F12 F14:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F17:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8280,7 +8357,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8298,67 +8375,67 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -288,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -485,9 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,8 +499,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,13 +576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,13 +618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,13 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,13 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,137 +1195,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,15 +1428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1471,12 +1462,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1946,305 +1931,305 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="63">
+      <c r="A3" s="58">
         <v>12</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="59">
         <v>51</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="60">
         <v>4</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="61">
         <v>2</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="61">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="67">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="80">
         <v>0</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="81">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="82">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="83">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="84">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59">
         <v>52</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="60">
         <v>4</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="61">
         <v>2</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="61">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="67">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="80">
         <v>0</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="81">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="82">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="88">
+      <c r="L4" s="83">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="84">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="69">
+      <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="60">
         <v>3</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="61">
         <v>0</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="61">
         <v>3</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="67">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62">
         <f t="shared" ref="H4:H8" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="80">
         <v>0</v>
       </c>
-      <c r="J5" s="86" t="e">
+      <c r="J5" s="81" t="e">
         <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5" s="82">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="88">
+      <c r="L5" s="83">
         <f t="shared" ref="L4:L8" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="84">
         <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
-      <c r="B6" s="64">
+      <c r="A6" s="65"/>
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="60">
         <v>3</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="61">
         <v>0</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="61">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="67">
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="80">
         <v>0</v>
       </c>
-      <c r="J6" s="86" t="e">
+      <c r="J6" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="82">
         <f t="shared" ref="K4:K8" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="71"/>
-      <c r="B7" s="64">
+      <c r="A7" s="66"/>
+      <c r="B7" s="59">
         <v>3</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="60">
         <v>4</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="61">
         <v>0</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="61">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="67">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86" t="e">
+      <c r="I7" s="80"/>
+      <c r="J7" s="81" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="82">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="76">
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91" t="e">
+      <c r="I8" s="85"/>
+      <c r="J8" s="86" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="94" t="e">
+      <c r="M8" s="89" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2273,7 +2258,7 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
@@ -2286,50 +2271,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2373,7 +2358,7 @@
       <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="47">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2418,7 +2403,7 @@
       <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="48">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2429,7 +2414,7 @@
       <c r="A4" s="31">
         <v>52</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2474,7 +2459,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2560,10 +2545,10 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="49">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1"/>
@@ -7547,7 +7532,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B9:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B6 B9:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7558,7 +7543,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7858,7 +7843,7 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="34">
+      <c r="A14" s="30">
         <v>3</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -7881,7 +7866,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
         <v>67</v>
       </c>
@@ -7902,7 +7887,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="23" t="s">
         <v>68</v>
       </c>
@@ -7923,8 +7908,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="16">
@@ -7944,47 +7929,47 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="34"/>
       <c r="D18" s="32"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="34"/>
       <c r="D19" s="32"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="38"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="D20" s="32"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="38"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="23"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="38"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="23"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="41"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="23"/>
       <c r="D23" s="32"/>
       <c r="E23" s="1"/>
@@ -7992,7 +7977,7 @@
       <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="38"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="23"/>
       <c r="D24" s="32"/>
       <c r="E24" s="1"/>
@@ -8000,7 +7985,7 @@
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="23"/>
       <c r="D25" s="32"/>
       <c r="E25" s="1"/>
@@ -8008,7 +7993,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="38"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="23"/>
       <c r="D26" s="32"/>
       <c r="E26" s="1"/>
@@ -8016,7 +8001,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="38"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="23"/>
       <c r="D27" s="32"/>
       <c r="E27" s="1"/>
@@ -8024,7 +8009,7 @@
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="38"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="23"/>
       <c r="D28" s="32"/>
       <c r="E28" s="1"/>
@@ -8032,55 +8017,55 @@
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="34"/>
       <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="34"/>
       <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="34"/>
       <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="38"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="34"/>
       <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="38"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
       <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="38"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="23"/>
       <c r="D35" s="32"/>
       <c r="E35" s="1"/>
@@ -8089,31 +8074,31 @@
     </row>
     <row r="36" ht="14.25" spans="2:7">
       <c r="B36" s="23"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="40"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" ht="14.25" spans="2:7">
       <c r="B37" s="23"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="41"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" ht="14.25" spans="2:7">
       <c r="B38" s="23"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="41"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" ht="14.25" spans="2:7">
       <c r="B39" s="23"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="41"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="23"/>
@@ -8173,31 +8158,31 @@
     </row>
     <row r="48" ht="14.25" spans="2:7">
       <c r="B48" s="23"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="40"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
       <c r="B49" s="23"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="41"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
       <c r="B50" s="23"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="41"/>
+      <c r="G50" s="38"/>
     </row>
     <row r="51" ht="14.25" spans="2:7">
       <c r="B51" s="23"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="41"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="23"/>
@@ -8257,17 +8242,17 @@
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="23"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="41"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" ht="14.25" spans="2:7">
       <c r="B61" s="23"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="41"/>
+      <c r="G61" s="38"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="23"/>
@@ -8357,7 +8342,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,10 +106,7 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>12月15号</t>
-  </si>
-  <si>
-    <t>Saas</t>
+    <t>SaaS</t>
   </si>
   <si>
     <t>来福家大食堂</t>
@@ -118,10 +115,7 @@
     <t>来福客中式快餐</t>
   </si>
   <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>南京分公司</t>
+    <t>南京</t>
   </si>
   <si>
     <t>陈乾维</t>
@@ -136,9 +130,6 @@
     <t>新品牌</t>
   </si>
   <si>
-    <t>12月17号</t>
-  </si>
-  <si>
     <t>南京鱼百吃餐饮管理有限公司</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>许总</t>
   </si>
   <si>
-    <t>12月23号</t>
-  </si>
-  <si>
     <t>茶阡陌</t>
   </si>
   <si>
@@ -172,6 +160,30 @@
     <t>无上线数据</t>
   </si>
   <si>
+    <t>江苏洋桥口餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>小小河边鱼马鞍山店</t>
+  </si>
+  <si>
+    <t>陆总</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>新疆阿西木烧烤店</t>
+  </si>
+  <si>
+    <t>阿西木烧烤</t>
+  </si>
+  <si>
+    <t>新疆阿西木烧烤</t>
+  </si>
+  <si>
+    <t>托总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -232,13 +244,22 @@
     <t>沈芳芳</t>
   </si>
   <si>
-    <t>小小河边鱼马鞍山店</t>
-  </si>
-  <si>
     <t>SAAS+微信</t>
   </si>
   <si>
     <t>戴真兵</t>
+  </si>
+  <si>
+    <t>传统牛肉面</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>川海风尚砂锅麻辣烫</t>
+  </si>
+  <si>
+    <t>元力小厨</t>
   </si>
   <si>
     <t>姓名</t>
@@ -288,9 +309,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -364,15 +385,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,9 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -424,16 +435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,9 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,6 +481,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -485,15 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +514,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,31 +591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +622,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,91 +723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,17 +1099,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,16 +1118,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,6 +1149,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1142,39 +1196,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1183,149 +1204,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,15 +1446,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,9 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,8 +1950,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1931,314 +1964,324 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="49" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="58">
+      <c r="A3" s="63">
         <v>12</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="64">
         <v>51</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="65">
         <v>4</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="66">
         <v>2</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="66">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="67">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="84">
         <v>0</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="85">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="86">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="83">
+      <c r="L3" s="87">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="88">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64">
         <v>52</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="65">
         <v>4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="66">
         <v>2</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="66">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="67">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="84">
         <v>0</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="85">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="86">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="87">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="88">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="64">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="65">
         <v>3</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="66">
         <v>0</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="66">
         <v>3</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62">
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="67">
         <f t="shared" ref="H4:H8" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="84">
         <v>0</v>
       </c>
-      <c r="J5" s="81" t="e">
+      <c r="J5" s="85" t="e">
         <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="86">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="87">
         <f t="shared" ref="L4:L8" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="88">
         <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="59">
+      <c r="A6" s="70"/>
+      <c r="B6" s="64">
         <v>2</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="65">
         <v>3</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="66">
         <v>0</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="66">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="62">
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="84">
         <v>0</v>
       </c>
-      <c r="J6" s="81" t="e">
+      <c r="J6" s="85" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="86">
         <f t="shared" ref="K4:K8" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="66"/>
-      <c r="B7" s="59">
+      <c r="A7" s="70"/>
+      <c r="B7" s="64">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="65">
         <v>4</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="66">
         <v>0</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="66">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="62">
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81" t="e">
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="85" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="86">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="88">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72">
+        <v>4</v>
+      </c>
+      <c r="C8" s="73">
+        <v>8</v>
+      </c>
+      <c r="D8" s="74">
+        <v>2</v>
+      </c>
+      <c r="E8" s="74">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="71">
+        <v>6</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86" t="e">
+      <c r="I8" s="89">
+        <v>0</v>
+      </c>
+      <c r="J8" s="90">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="87">
+        <v>0</v>
+      </c>
+      <c r="K8" s="91">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="88">
+        <v>8</v>
+      </c>
+      <c r="L8" s="92">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="89" t="e">
+        <v>2</v>
+      </c>
+      <c r="M8" s="93">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2251,14 +2294,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="45" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
@@ -2271,50 +2314,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="44" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2322,184 +2365,184 @@
       <c r="A2" s="30">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="14">
+        <v>43449</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="1">
         <v>76116790</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>17551039639</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="52">
+        <v>13851823460</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="47">
-        <v>13851823460</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10"/>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
+      <c r="B3" s="14">
+        <v>43451</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>76108278</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>17551039639</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="48">
+        <v>35</v>
+      </c>
+      <c r="N3" s="53">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="31">
         <v>52</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>43</v>
+      <c r="B4" s="50">
+        <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>76112662</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>17551039639</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1">
         <v>18260050589</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="45" t="s">
-        <v>43</v>
+      <c r="B5" s="50">
+        <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>76117065</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1">
         <v>17551039639</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1">
         <v>18726666788</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2507,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2528,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2549,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2566,38 +2609,96 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="36">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76125388</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>13770545888</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="14">
+        <v>43124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76118589</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13235887287</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
@@ -7513,9 +7614,10 @@
       <c r="O299" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7532,7 +7634,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B9:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B11:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7543,7 +7645,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7565,19 +7667,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -7585,43 +7687,43 @@
         <v>50</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="16">
         <v>43049</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
       <c r="A3" s="13"/>
       <c r="B3" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="16">
         <v>43073</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -7629,43 +7731,43 @@
         <v>51</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="16">
         <v>43084</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
       <c r="A5" s="13"/>
       <c r="B5" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="16">
         <v>43073</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -7673,43 +7775,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C6" s="16">
         <v>43094</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" s="16">
         <v>43459</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -7717,64 +7819,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="16">
         <v>43094</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9" s="16">
         <v>43459</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10"/>
       <c r="B10" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" s="16">
         <v>43102</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>70</v>
+      <c r="F10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -7782,64 +7884,64 @@
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="16">
         <v>43094</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31"/>
       <c r="B12" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16">
         <v>43459</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
       <c r="B13" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16">
         <v>43102</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>70</v>
+      <c r="F13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -7847,487 +7949,568 @@
         <v>3</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" s="16">
         <v>43094</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16">
         <v>43459</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="31"/>
       <c r="B16" s="23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" s="16">
         <v>43102</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>70</v>
+      <c r="F16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
-      <c r="B17" s="34" t="s">
-        <v>71</v>
+      <c r="B17" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="16">
         <v>43116</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="16">
+        <v>43094</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="37"/>
+      <c r="B19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="16">
+        <v>43459</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="37"/>
+      <c r="B20" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="37"/>
+      <c r="B21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="16">
+        <v>43115</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="37"/>
+      <c r="B22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="16">
+        <v>43461</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="38"/>
+      <c r="B23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="16">
+        <v>43461</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="23"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="23"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="23"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="23"/>
       <c r="D24" s="32"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="23"/>
       <c r="D25" s="32"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="23"/>
       <c r="D26" s="32"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="23"/>
       <c r="D27" s="32"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="23"/>
       <c r="D28" s="32"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="35"/>
       <c r="D29" s="32"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="35"/>
       <c r="D30" s="32"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="35"/>
       <c r="D31" s="32"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="35"/>
       <c r="D32" s="32"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="35"/>
       <c r="D33" s="32"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="35"/>
       <c r="D34" s="32"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="23"/>
       <c r="D35" s="32"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" ht="14.25" spans="2:7">
       <c r="B36" s="23"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="42"/>
     </row>
     <row r="37" ht="14.25" spans="2:7">
       <c r="B37" s="23"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" ht="14.25" spans="2:7">
       <c r="B38" s="23"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" ht="14.25" spans="2:7">
       <c r="B39" s="23"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="23"/>
       <c r="D40" s="32"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="23"/>
       <c r="D41" s="32"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="33"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="23"/>
       <c r="D42" s="32"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="23"/>
       <c r="D43" s="32"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="33"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="23"/>
       <c r="D44" s="32"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="40"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="23"/>
       <c r="D45" s="32"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="33"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="23"/>
       <c r="D46" s="32"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="23"/>
       <c r="D47" s="32"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="33"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" ht="14.25" spans="2:7">
       <c r="B48" s="23"/>
-      <c r="D48" s="36"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="37"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
       <c r="B49" s="23"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="38"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
       <c r="B50" s="23"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="38"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" ht="14.25" spans="2:7">
       <c r="B51" s="23"/>
-      <c r="D51" s="36"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="23"/>
       <c r="D52" s="32"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="23"/>
       <c r="D53" s="32"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="23"/>
       <c r="D54" s="32"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="40"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="23"/>
       <c r="D55" s="32"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="33"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="23"/>
       <c r="D56" s="32"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="23"/>
       <c r="D57" s="32"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="33"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="23"/>
       <c r="D58" s="32"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="23"/>
       <c r="D59" s="32"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="33"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="23"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="41"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="38"/>
+      <c r="G60" s="43"/>
     </row>
     <row r="61" ht="14.25" spans="2:7">
       <c r="B61" s="23"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="38"/>
+      <c r="G61" s="43"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="23"/>
       <c r="D62" s="32"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="23"/>
       <c r="D63" s="32"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="33"/>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="23"/>
       <c r="D64" s="32"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="23"/>
       <c r="D65" s="32"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="33"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="23"/>
       <c r="D66" s="32"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="33"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="23"/>
       <c r="D67" s="32"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="33"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="23"/>
       <c r="D68" s="32"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="33"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="23"/>
       <c r="D69" s="32"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="33"/>
+      <c r="G69" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A23"/>
     <mergeCell ref="A36:A47"/>
     <mergeCell ref="A48:A59"/>
     <mergeCell ref="A60:A69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E17:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E20:E23 E24:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F17:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8360,67 +8543,67 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -106,10 +106,7 @@
     <t>新老品牌</t>
   </si>
   <si>
-    <t>12月15号</t>
-  </si>
-  <si>
-    <t>Saas</t>
+    <t>SaaS</t>
   </si>
   <si>
     <t>来福家大食堂</t>
@@ -118,10 +115,7 @@
     <t>来福客中式快餐</t>
   </si>
   <si>
-    <t>南京市</t>
-  </si>
-  <si>
-    <t>南京分公司</t>
+    <t>南京</t>
   </si>
   <si>
     <t>陈乾维</t>
@@ -136,9 +130,6 @@
     <t>新品牌</t>
   </si>
   <si>
-    <t>12月17号</t>
-  </si>
-  <si>
     <t>南京鱼百吃餐饮管理有限公司</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>许总</t>
   </si>
   <si>
-    <t>12月23号</t>
-  </si>
-  <si>
     <t>茶阡陌</t>
   </si>
   <si>
@@ -172,6 +160,42 @@
     <t>无上线数据</t>
   </si>
   <si>
+    <t>江苏洋桥口餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>马鞍山</t>
+  </si>
+  <si>
+    <t>小小河边鱼马鞍山店</t>
+  </si>
+  <si>
+    <t>陆总</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>新疆阿西木烧烤店</t>
+  </si>
+  <si>
+    <t>阿西木烧烤</t>
+  </si>
+  <si>
+    <t>新疆阿西木烧烤</t>
+  </si>
+  <si>
+    <t>阿木提</t>
+  </si>
+  <si>
+    <t>蛙爵记</t>
+  </si>
+  <si>
+    <t>鱼见幸福</t>
+  </si>
+  <si>
+    <t>店长</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -223,24 +247,36 @@
     <t>滋食奇果-果汁</t>
   </si>
   <si>
-    <t>鱼见幸福</t>
-  </si>
-  <si>
     <t>SAAS+微信+供应链</t>
   </si>
   <si>
     <t>沈芳芳</t>
   </si>
   <si>
-    <t>小小河边鱼马鞍山店</t>
-  </si>
-  <si>
     <t>SAAS+微信</t>
   </si>
   <si>
     <t>戴真兵</t>
   </si>
   <si>
+    <t>等待商场开业</t>
+  </si>
+  <si>
+    <t>川海丰尚砂锅麻辣烫</t>
+  </si>
+  <si>
+    <t>安装时间待定</t>
+  </si>
+  <si>
+    <t>武耀</t>
+  </si>
+  <si>
+    <t>元力小厨</t>
+  </si>
+  <si>
+    <t>传统牛肉面</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -256,9 +292,6 @@
     <t>11月</t>
   </si>
   <si>
-    <t>2017年11月25号</t>
-  </si>
-  <si>
     <t>安徽天长市醉锦春食品管理有限公司</t>
   </si>
   <si>
@@ -268,19 +301,22 @@
     <t>12月</t>
   </si>
   <si>
-    <t>2017年12月16号</t>
-  </si>
-  <si>
     <t>南京市六合区广东猪肚鸡店铺</t>
   </si>
   <si>
     <t>前往六合区与丁万能到广东猪肚鸡店铺实施</t>
   </si>
   <si>
-    <t>2017年12月23号</t>
-  </si>
-  <si>
     <t>前往茶阡陌培训驻店</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>新街口/鱼见幸福</t>
+  </si>
+  <si>
+    <t>驻店培训</t>
   </si>
 </sst>
 </file>
@@ -288,10 +324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -364,7 +400,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,21 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -401,39 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,30 +506,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,8 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +606,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,31 +672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +702,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,73 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,12 +750,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -925,7 +961,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -937,21 +973,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -963,26 +1003,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1004,19 +1055,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1030,11 +1068,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1047,19 +1089,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1071,9 +1104,41 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,38 +1161,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,25 +1197,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,145 +1218,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,29 +1409,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1408,7 +1449,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1425,11 +1466,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1437,15 +1490,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1464,6 +1514,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1488,26 +1550,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,31 +1568,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,49 +1595,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1915,13 +1950,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
@@ -1931,314 +1966,517 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="49" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="58" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="74"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="77"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="81" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="58">
+      <c r="A3" s="65">
         <v>12</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="66">
         <v>51</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="67">
         <v>4</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="67">
         <v>2</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="67">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="82">
         <v>0</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="83">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="84">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="83">
+      <c r="L3" s="84">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="85">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66">
         <v>52</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="67">
         <v>4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="67">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62">
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="82">
         <v>0</v>
       </c>
-      <c r="J4" s="81">
+      <c r="J4" s="83">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="84">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="84">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="85">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="64">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="67">
         <v>3</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="67">
         <v>0</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="67">
         <v>3</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68">
         <f t="shared" ref="H4:H8" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="82">
         <v>0</v>
       </c>
-      <c r="J5" s="81" t="e">
+      <c r="J5" s="83" t="e">
         <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="84">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="83">
+      <c r="L5" s="84">
         <f t="shared" ref="L4:L8" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="85">
         <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="59">
+      <c r="A6" s="69"/>
+      <c r="B6" s="66">
         <v>2</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="67">
         <v>3</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="67">
         <v>0</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="67">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="62">
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="82">
         <v>0</v>
       </c>
-      <c r="J6" s="81" t="e">
+      <c r="J6" s="83" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="84">
         <f t="shared" ref="K4:K8" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="83">
+      <c r="L6" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="66"/>
-      <c r="B7" s="59">
+      <c r="A7" s="69"/>
+      <c r="B7" s="66">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="67">
         <v>4</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="67">
         <v>0</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="67">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="62">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81" t="e">
+      <c r="I7" s="82">
+        <v>0</v>
+      </c>
+      <c r="J7" s="83" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="84">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70">
+    <row r="8" spans="1:13">
+      <c r="A8" s="69"/>
+      <c r="B8" s="66">
+        <v>4</v>
+      </c>
+      <c r="C8" s="67">
+        <v>8</v>
+      </c>
+      <c r="D8" s="67">
+        <v>2</v>
+      </c>
+      <c r="E8" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="71">
+        <v>6</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86" t="e">
+      <c r="I8" s="82">
+        <v>0</v>
+      </c>
+      <c r="J8" s="83">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="84">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L8" s="84">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="85">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="69"/>
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="67">
+        <v>6</v>
+      </c>
+      <c r="D9" s="67">
+        <v>1</v>
+      </c>
+      <c r="E9" s="67">
+        <v>5</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="82">
+        <v>0</v>
+      </c>
+      <c r="J9" s="83">
+        <f>I9/L9*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="84">
+        <f>C9+G9</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="84">
+        <f>D9+G9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="85">
+        <f>L9/K9*100%</f>
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67">
+        <v>0</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68">
+        <f>F10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="82">
+        <v>0</v>
+      </c>
+      <c r="J10" s="83" t="e">
+        <f>I10/L10*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="87">
-        <f t="shared" si="5"/>
+      <c r="K10" s="84">
+        <f>C10+G10</f>
         <v>0</v>
       </c>
-      <c r="L8" s="88">
-        <f t="shared" si="2"/>
+      <c r="L10" s="84">
+        <f>D10+G10</f>
         <v>0</v>
       </c>
-      <c r="M8" s="89" t="e">
-        <f t="shared" si="3"/>
+      <c r="M10" s="85" t="e">
+        <f>L10/K10*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68">
+        <f>F11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="82">
+        <v>0</v>
+      </c>
+      <c r="J11" s="83" t="e">
+        <f>I11/L11*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="84">
+        <f>C11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="84">
+        <f>D11+G11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="85" t="e">
+        <f>L11/K11*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="71"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67">
+        <v>0</v>
+      </c>
+      <c r="D12" s="67">
+        <v>0</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0</v>
+      </c>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68">
+        <f>F12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="82">
+        <v>0</v>
+      </c>
+      <c r="J12" s="83" t="e">
+        <f>I12/L12*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="84">
+        <f>C12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="84">
+        <f>D12+G12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="85" t="e">
+        <f>L12/K12*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74">
+        <v>0</v>
+      </c>
+      <c r="D13" s="74">
+        <v>0</v>
+      </c>
+      <c r="E13" s="74">
+        <v>0</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75">
+        <f>F13-G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="86">
+        <v>0</v>
+      </c>
+      <c r="J13" s="87" t="e">
+        <f>I13/L13*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="88">
+        <f>C13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="88">
+        <f>D13+G13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="89" t="e">
+        <f>L13/K13*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2252,16 +2490,17 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="12.8416666666667" style="44" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="45" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
     <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
@@ -2271,235 +2510,235 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="43" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="30">
+      <c r="A2" s="32">
         <v>51</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="14">
+        <v>43449</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="1">
         <v>76116790</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>17551039639</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="56">
+        <v>13851823460</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="47">
-        <v>13851823460</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10"/>
-      <c r="B3" s="14" t="s">
-        <v>39</v>
+      <c r="B3" s="14">
+        <v>43451</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>76108278</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>17551039639</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="48">
+        <v>35</v>
+      </c>
+      <c r="N3" s="57">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="31">
+      <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>43</v>
+      <c r="B4" s="50">
+        <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>76112662</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1">
         <v>17551039639</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1">
         <v>18260050589</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="45" t="s">
-        <v>43</v>
+      <c r="B5" s="50">
+        <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>76117065</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1">
         <v>17551039639</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1">
         <v>18726666788</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2507,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2528,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2549,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2566,58 +2805,146 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="51">
+        <v>4</v>
+      </c>
+      <c r="B9" s="52">
+        <v>43119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76125388</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>13770545888</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="52">
+        <v>43124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76118589</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1">
+        <v>13399795778</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="54">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52">
+        <v>43128</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76125078</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="1">
+        <v>18655551580</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2634,7 +2961,7 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2651,7 +2978,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2668,7 +2995,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2685,7 +3012,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2702,7 +3029,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2719,7 +3046,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2736,7 +3063,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2753,7 +3080,7 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2770,7 +3097,7 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2787,7 +3114,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2804,7 +3131,7 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2821,7 +3148,7 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2838,7 +3165,7 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2855,7 +3182,7 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2872,7 +3199,7 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2889,7 +3216,7 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2906,7 +3233,7 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2923,7 +3250,7 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2940,7 +3267,7 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2957,7 +3284,7 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2974,7 +3301,7 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2991,7 +3318,7 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3008,7 +3335,7 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3025,7 +3352,7 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3042,7 +3369,7 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3059,7 +3386,7 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3076,7 +3403,7 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3093,7 +3420,7 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="1"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3110,7 +3437,7 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3127,7 +3454,7 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3144,7 +3471,7 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3161,7 +3488,7 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3178,7 +3505,7 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3195,7 +3522,7 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3212,7 +3539,7 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3229,7 +3556,7 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3246,7 +3573,7 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="1"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3263,7 +3590,7 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="1"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3280,7 +3607,7 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="1"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3297,7 +3624,7 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="1"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3314,7 +3641,7 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="1"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3331,7 +3658,7 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="1"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3348,7 +3675,7 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="1"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3365,7 +3692,7 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="1"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3382,7 +3709,7 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="1"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3399,7 +3726,7 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="1"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3416,7 +3743,7 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="1"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3433,7 +3760,7 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3450,7 +3777,7 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3467,7 +3794,7 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="1"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3484,7 +3811,7 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="1"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3501,7 +3828,7 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="1"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3518,7 +3845,7 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="1"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3535,7 +3862,7 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="1"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3552,7 +3879,7 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="1"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3569,7 +3896,7 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="1"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3586,7 +3913,7 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="1"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3603,7 +3930,7 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="1"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3620,7 +3947,7 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="1"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3637,7 +3964,7 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="1"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3654,7 +3981,7 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="1"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3671,7 +3998,7 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="1"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3688,7 +4015,7 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="1"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3705,7 +4032,7 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="1"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3722,7 +4049,7 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="1"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3739,7 +4066,7 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="1"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3756,7 +4083,7 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="1"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3773,7 +4100,7 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="1"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3790,7 +4117,7 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="1"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3807,7 +4134,7 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="1"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3824,7 +4151,7 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="1"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3841,7 +4168,7 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="1"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3858,7 +4185,7 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="1"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3875,7 +4202,7 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="1"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3892,7 +4219,7 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="1"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3909,7 +4236,7 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="1"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3926,7 +4253,7 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="1"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3943,7 +4270,7 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="1"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3960,7 +4287,7 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="1"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3977,7 +4304,7 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="1"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3994,7 +4321,7 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="1"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4011,7 +4338,7 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="1"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4028,7 +4355,7 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="1"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4045,7 +4372,7 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="1"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4062,7 +4389,7 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="1"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4079,7 +4406,7 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="1"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4096,7 +4423,7 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="1"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4113,7 +4440,7 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="1"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4130,7 +4457,7 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="1"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4147,7 +4474,7 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="1"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4164,7 +4491,7 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="1"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4181,7 +4508,7 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="1"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4198,7 +4525,7 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="1"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4215,7 +4542,7 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="1"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4232,7 +4559,7 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="1"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4249,7 +4576,7 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="1"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4266,7 +4593,7 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="1"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4283,7 +4610,7 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="1"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4300,7 +4627,7 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="1"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4317,7 +4644,7 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="1"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4334,7 +4661,7 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="1"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4351,7 +4678,7 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="1"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4368,7 +4695,7 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="1"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4385,7 +4712,7 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="1"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4402,7 +4729,7 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="1"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4419,7 +4746,7 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="1"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4436,7 +4763,7 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="1"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4453,7 +4780,7 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="1"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4470,7 +4797,7 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="1"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4487,7 +4814,7 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="1"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4504,7 +4831,7 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="1"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4521,7 +4848,7 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="1"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4538,7 +4865,7 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="1"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4555,7 +4882,7 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="1"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4572,7 +4899,7 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="1"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4589,7 +4916,7 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="1"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4606,7 +4933,7 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="1"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4623,7 +4950,7 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="1"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4640,7 +4967,7 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="1"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4657,7 +4984,7 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="1"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4674,7 +5001,7 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="1"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4691,7 +5018,7 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="1"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4708,7 +5035,7 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="1"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4725,7 +5052,7 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="1"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4742,7 +5069,7 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="1"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4759,7 +5086,7 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="1"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4776,7 +5103,7 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="1"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4793,7 +5120,7 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="1"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4810,7 +5137,7 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="1"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4827,7 +5154,7 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="1"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4844,7 +5171,7 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="1"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4861,7 +5188,7 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="1"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4878,7 +5205,7 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="1"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4895,7 +5222,7 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="1"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4912,7 +5239,7 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="1"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4929,7 +5256,7 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="1"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4946,7 +5273,7 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="1"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4963,7 +5290,7 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="1"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4980,7 +5307,7 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="1"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4997,7 +5324,7 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="1"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5014,7 +5341,7 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="1"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5031,7 +5358,7 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="1"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5048,7 +5375,7 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="1"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5065,7 +5392,7 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="1"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5082,7 +5409,7 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="1"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5099,7 +5426,7 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="1"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5116,7 +5443,7 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="1"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5133,7 +5460,7 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="1"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5150,7 +5477,7 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="1"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5167,7 +5494,7 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="1"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5184,7 +5511,7 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="1"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5201,7 +5528,7 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="1"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5218,7 +5545,7 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="1"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5235,7 +5562,7 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="1"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5252,7 +5579,7 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="1"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5269,7 +5596,7 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="1"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5286,7 +5613,7 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="1"/>
+      <c r="A169" s="54"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5303,7 +5630,7 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="1"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5320,7 +5647,7 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="1"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5337,7 +5664,7 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="1"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5354,7 +5681,7 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="1"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5371,7 +5698,7 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="1"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5388,7 +5715,7 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="1"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5405,7 +5732,7 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="1"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5422,7 +5749,7 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="1"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5439,7 +5766,7 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="1"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5456,7 +5783,7 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="1"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5473,7 +5800,7 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="1"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5490,7 +5817,7 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="1"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5507,7 +5834,7 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="1"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5524,7 +5851,7 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="1"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5541,7 +5868,7 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="1"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5558,7 +5885,7 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="1"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5575,7 +5902,7 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="1"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5592,7 +5919,7 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="1"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5609,7 +5936,7 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="1"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5626,7 +5953,7 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="1"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5643,7 +5970,7 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="1"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5660,7 +5987,7 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="1"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5677,7 +6004,7 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="1"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5694,7 +6021,7 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="1"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5711,7 +6038,7 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="1"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5728,7 +6055,7 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="1"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5745,7 +6072,7 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="1"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5762,7 +6089,7 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="1"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5779,7 +6106,7 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="1"/>
+      <c r="A198" s="54"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5796,7 +6123,7 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="1"/>
+      <c r="A199" s="54"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5813,7 +6140,7 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="1"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5830,7 +6157,7 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="1"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5847,7 +6174,7 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="1"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5864,7 +6191,7 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="1"/>
+      <c r="A203" s="54"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5881,7 +6208,7 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="1"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5898,7 +6225,7 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="1"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -5915,7 +6242,7 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="1"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -5932,7 +6259,7 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="1"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5949,7 +6276,7 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="1"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5966,7 +6293,7 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="1"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5983,7 +6310,7 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="1"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6000,7 +6327,7 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="1"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6017,7 +6344,7 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="1"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6034,7 +6361,7 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="1"/>
+      <c r="A213" s="54"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6051,7 +6378,7 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="1"/>
+      <c r="A214" s="54"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6068,7 +6395,7 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="1"/>
+      <c r="A215" s="54"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6085,7 +6412,7 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="1"/>
+      <c r="A216" s="54"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6102,7 +6429,7 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="1"/>
+      <c r="A217" s="54"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6119,7 +6446,7 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="1"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6136,7 +6463,7 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="1"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6153,7 +6480,7 @@
       <c r="O219" s="1"/>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="1"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -6170,7 +6497,7 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="1"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -6187,7 +6514,7 @@
       <c r="O221" s="1"/>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="1"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -6204,7 +6531,7 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="1"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -6221,7 +6548,7 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="1"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -6238,7 +6565,7 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="1"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -6255,7 +6582,7 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="1"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -6272,7 +6599,7 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="1"/>
+      <c r="A227" s="54"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -6289,7 +6616,7 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="1"/>
+      <c r="A228" s="54"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -6306,7 +6633,7 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="1"/>
+      <c r="A229" s="54"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -6323,7 +6650,7 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="1"/>
+      <c r="A230" s="54"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -6340,7 +6667,7 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="1"/>
+      <c r="A231" s="54"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -6357,7 +6684,7 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" spans="1:15">
-      <c r="A232" s="1"/>
+      <c r="A232" s="54"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -6374,7 +6701,7 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="1"/>
+      <c r="A233" s="54"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -6391,7 +6718,7 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" spans="1:15">
-      <c r="A234" s="1"/>
+      <c r="A234" s="54"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -6408,7 +6735,7 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="1"/>
+      <c r="A235" s="54"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -6425,7 +6752,7 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="1"/>
+      <c r="A236" s="54"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -6442,7 +6769,7 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="1"/>
+      <c r="A237" s="54"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -6459,7 +6786,7 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" spans="1:15">
-      <c r="A238" s="1"/>
+      <c r="A238" s="54"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -6476,7 +6803,7 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="1"/>
+      <c r="A239" s="54"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -6493,7 +6820,7 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="1"/>
+      <c r="A240" s="54"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -6510,7 +6837,7 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="1"/>
+      <c r="A241" s="54"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -6527,7 +6854,7 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="1"/>
+      <c r="A242" s="54"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -6544,7 +6871,7 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="1"/>
+      <c r="A243" s="54"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -6561,7 +6888,7 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="1"/>
+      <c r="A244" s="54"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -6578,7 +6905,7 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="1"/>
+      <c r="A245" s="54"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -6595,7 +6922,7 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="1"/>
+      <c r="A246" s="54"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -6612,7 +6939,7 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="1"/>
+      <c r="A247" s="54"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -6629,7 +6956,7 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" spans="1:15">
-      <c r="A248" s="1"/>
+      <c r="A248" s="54"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -6646,7 +6973,7 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="1"/>
+      <c r="A249" s="54"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -6663,7 +6990,7 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" spans="1:15">
-      <c r="A250" s="1"/>
+      <c r="A250" s="54"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -6680,7 +7007,7 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="1"/>
+      <c r="A251" s="54"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -6697,7 +7024,7 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="1"/>
+      <c r="A252" s="54"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -6714,7 +7041,7 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="1"/>
+      <c r="A253" s="54"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -6731,7 +7058,7 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="1"/>
+      <c r="A254" s="54"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -6748,7 +7075,7 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="1"/>
+      <c r="A255" s="54"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -6765,7 +7092,7 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="1"/>
+      <c r="A256" s="54"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -6782,7 +7109,7 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="1"/>
+      <c r="A257" s="54"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -6799,7 +7126,7 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="1"/>
+      <c r="A258" s="54"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -6816,7 +7143,7 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="1"/>
+      <c r="A259" s="54"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -6833,7 +7160,7 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="1"/>
+      <c r="A260" s="54"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -6850,7 +7177,7 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="1"/>
+      <c r="A261" s="54"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -6867,7 +7194,7 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="1"/>
+      <c r="A262" s="54"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -6884,7 +7211,7 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="1"/>
+      <c r="A263" s="54"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -6901,7 +7228,7 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="1"/>
+      <c r="A264" s="54"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -6918,7 +7245,7 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="1"/>
+      <c r="A265" s="54"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -6935,7 +7262,7 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="1"/>
+      <c r="A266" s="54"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -6952,7 +7279,7 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="1"/>
+      <c r="A267" s="54"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -6969,7 +7296,7 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="1"/>
+      <c r="A268" s="54"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -6986,7 +7313,7 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="1"/>
+      <c r="A269" s="54"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -7003,7 +7330,7 @@
       <c r="O269" s="1"/>
     </row>
     <row r="270" spans="1:15">
-      <c r="A270" s="1"/>
+      <c r="A270" s="54"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -7020,7 +7347,7 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" spans="1:15">
-      <c r="A271" s="1"/>
+      <c r="A271" s="54"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -7037,7 +7364,7 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="1"/>
+      <c r="A272" s="54"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -7054,7 +7381,7 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" spans="1:15">
-      <c r="A273" s="1"/>
+      <c r="A273" s="54"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -7071,7 +7398,7 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="1"/>
+      <c r="A274" s="54"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -7088,7 +7415,7 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" spans="1:15">
-      <c r="A275" s="1"/>
+      <c r="A275" s="54"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -7105,7 +7432,7 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="1"/>
+      <c r="A276" s="54"/>
       <c r="B276" s="2"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -7122,7 +7449,7 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" spans="1:15">
-      <c r="A277" s="1"/>
+      <c r="A277" s="54"/>
       <c r="B277" s="2"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -7139,7 +7466,7 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="1"/>
+      <c r="A278" s="54"/>
       <c r="B278" s="2"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -7156,7 +7483,7 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="1"/>
+      <c r="A279" s="54"/>
       <c r="B279" s="2"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -7173,7 +7500,7 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="1"/>
+      <c r="A280" s="54"/>
       <c r="B280" s="2"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -7190,7 +7517,7 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="1"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="2"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -7207,7 +7534,7 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="1"/>
+      <c r="A282" s="54"/>
       <c r="B282" s="2"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -7224,7 +7551,7 @@
       <c r="O282" s="1"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="1"/>
+      <c r="A283" s="54"/>
       <c r="B283" s="2"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -7241,7 +7568,7 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="1"/>
+      <c r="A284" s="54"/>
       <c r="B284" s="2"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -7258,7 +7585,7 @@
       <c r="O284" s="1"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="1"/>
+      <c r="A285" s="54"/>
       <c r="B285" s="2"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -7275,7 +7602,7 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="1"/>
+      <c r="A286" s="54"/>
       <c r="B286" s="2"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -7292,7 +7619,7 @@
       <c r="O286" s="1"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="1"/>
+      <c r="A287" s="54"/>
       <c r="B287" s="2"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -7309,7 +7636,7 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="1"/>
+      <c r="A288" s="54"/>
       <c r="B288" s="2"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -7326,7 +7653,7 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15">
-      <c r="A289" s="1"/>
+      <c r="A289" s="54"/>
       <c r="B289" s="2"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -7343,7 +7670,7 @@
       <c r="O289" s="1"/>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="1"/>
+      <c r="A290" s="54"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -7360,7 +7687,7 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="1"/>
+      <c r="A291" s="54"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -7377,7 +7704,7 @@
       <c r="O291" s="1"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="1"/>
+      <c r="A292" s="54"/>
       <c r="B292" s="2"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -7394,7 +7721,7 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="1"/>
+      <c r="A293" s="54"/>
       <c r="B293" s="2"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -7411,7 +7738,7 @@
       <c r="O293" s="1"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="1"/>
+      <c r="A294" s="54"/>
       <c r="B294" s="2"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -7428,7 +7755,7 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="1"/>
+      <c r="A295" s="54"/>
       <c r="B295" s="2"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -7445,7 +7772,7 @@
       <c r="O295" s="1"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="1"/>
+      <c r="A296" s="54"/>
       <c r="B296" s="2"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -7462,7 +7789,7 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" spans="1:15">
-      <c r="A297" s="1"/>
+      <c r="A297" s="54"/>
       <c r="B297" s="2"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -7479,7 +7806,7 @@
       <c r="O297" s="1"/>
     </row>
     <row r="298" spans="1:15">
-      <c r="A298" s="1"/>
+      <c r="A298" s="54"/>
       <c r="B298" s="2"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -7496,7 +7823,7 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15">
-      <c r="A299" s="1"/>
+      <c r="A299" s="54"/>
       <c r="B299" s="2"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -7513,9 +7840,10 @@
       <c r="O299" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -7532,7 +7860,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B9:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B12:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7540,794 +7868,935 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="B24:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>55</v>
+      <c r="C1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
       <c r="A2" s="13">
         <v>50</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17">
         <v>43049</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>59</v>
+      <c r="D2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
       <c r="A3" s="13"/>
-      <c r="B3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17">
         <v>43073</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>61</v>
+      <c r="D3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
       <c r="A4" s="13">
         <v>51</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="17">
         <v>43084</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>59</v>
+      <c r="D4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
       <c r="A5" s="13"/>
-      <c r="B5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17">
         <v>43073</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>61</v>
+      <c r="D5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
       <c r="A6" s="13">
         <v>52</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="17">
         <v>43094</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="28" t="s">
+      <c r="D6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>66</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
-      <c r="B7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="B7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="17">
         <v>43459</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="D7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>66</v>
       </c>
+      <c r="G7" s="31" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="30">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17">
         <v>43094</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="28" t="s">
+      <c r="D8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>66</v>
       </c>
+      <c r="G8" s="30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31"/>
-      <c r="B9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="A9" s="33"/>
+      <c r="B9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="17">
         <v>43459</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="D9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>66</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10"/>
-      <c r="B10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17">
         <v>43102</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>63</v>
+      <c r="D10" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="30">
+      <c r="A11" s="32">
         <v>2</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="17">
         <v>43094</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="D11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>66</v>
       </c>
+      <c r="G11" s="30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31"/>
-      <c r="B12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="17">
         <v>43459</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="D12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>66</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
-      <c r="B13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="16">
+      <c r="B13" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="17">
         <v>43102</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>63</v>
+      <c r="D13" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="32">
+        <v>3</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="33"/>
+      <c r="B15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="33"/>
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="30">
-        <v>3</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="16">
-        <v>43094</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C16" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="16">
-        <v>43459</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="16">
-        <v>43102</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>70</v>
+      <c r="F16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43116</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="16">
-        <v>43116</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="38">
+        <v>4</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="39"/>
+      <c r="B19" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="39"/>
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="39"/>
+      <c r="B21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="39"/>
+      <c r="B22" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40"/>
+      <c r="B23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="38">
+        <v>5</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="C24" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="34"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="23"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="23"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="23"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
-      <c r="B24" s="23"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="33"/>
+      <c r="F24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
-      <c r="B25" s="23"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="23"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="23"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="23"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="33"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="33"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="34"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="33"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="34"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="37"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="33"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="23"/>
-      <c r="D35" s="32"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" ht="14.25" spans="2:7">
+      <c r="B35" s="25"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="33"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="23"/>
-      <c r="D36" s="36"/>
+      <c r="B36" s="25"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="37"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" ht="14.25" spans="2:7">
-      <c r="B37" s="23"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="25"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="38"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="2:7">
-      <c r="B38" s="23"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="25"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" ht="14.25" spans="2:7">
-      <c r="B39" s="23"/>
-      <c r="D39" s="36"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="25"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="38"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="23"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="25"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="33"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="23"/>
-      <c r="D41" s="32"/>
+      <c r="B41" s="25"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="23"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="25"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="23"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="25"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="33"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="23"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="25"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="33"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="23"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="25"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="33"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="23"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="25"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="23"/>
-      <c r="D47" s="32"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" ht="14.25" spans="2:7">
+      <c r="B47" s="25"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="33"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" ht="14.25" spans="2:7">
-      <c r="B48" s="23"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="25"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="37"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
-      <c r="B49" s="23"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="25"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="38"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
-      <c r="B50" s="23"/>
-      <c r="D50" s="36"/>
+      <c r="B50" s="25"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="38"/>
-    </row>
-    <row r="51" ht="14.25" spans="2:7">
-      <c r="B51" s="23"/>
-      <c r="D51" s="36"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="25"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="38"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="23"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="25"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="33"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="23"/>
-      <c r="D53" s="32"/>
+      <c r="B53" s="25"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="33"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="23"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="25"/>
+      <c r="D54" s="34"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="33"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="23"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="25"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="33"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="B56" s="25"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="33"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="23"/>
-      <c r="D57" s="32"/>
+      <c r="B57" s="25"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="33"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="23"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="25"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="23"/>
-      <c r="D59" s="32"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" ht="14.25" spans="2:7">
+      <c r="B59" s="25"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="33"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="28"/>
     </row>
     <row r="60" ht="14.25" spans="2:7">
-      <c r="B60" s="23"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="25"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="38"/>
-    </row>
-    <row r="61" ht="14.25" spans="2:7">
-      <c r="B61" s="23"/>
-      <c r="D61" s="36"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="25"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="38"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="23"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="25"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="33"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="23"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="25"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="33"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="23"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="25"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="33"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="23"/>
-      <c r="D65" s="32"/>
+      <c r="B65" s="25"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="33"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="23"/>
-      <c r="D66" s="32"/>
+      <c r="B66" s="25"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="33"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="23"/>
-      <c r="D67" s="32"/>
+      <c r="B67" s="25"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="33"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="23"/>
-      <c r="D68" s="32"/>
+      <c r="B68" s="25"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="33"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="23"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="33"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A59:A68"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E17:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F17:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8342,8 +8811,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8355,79 +8824,90 @@
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43092</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="14">
+        <v>43128</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="13"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -196,6 +196,12 @@
     <t>店长</t>
   </si>
   <si>
+    <t>SaaS+微信</t>
+  </si>
+  <si>
+    <t>蛙爵记(国金店)</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -275,6 +281,12 @@
   </si>
   <si>
     <t>传统牛肉面</t>
+  </si>
+  <si>
+    <t>乌龙煎</t>
+  </si>
+  <si>
+    <t>明天安装</t>
   </si>
   <si>
     <t>姓名</t>
@@ -324,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -400,29 +412,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,22 +435,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,8 +457,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,22 +481,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,15 +504,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,9 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,19 +618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,85 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +684,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,13 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,36 +1125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,17 +1143,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,16 +1200,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,137 +1242,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,38 +1478,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,18 +1505,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1566,9 +1545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1952,8 +1928,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1966,508 +1942,512 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="77"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="65">
+      <c r="A3" s="54">
         <v>12</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="55">
         <v>51</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="56">
         <v>4</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="56">
         <v>2</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="56">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="82">
+      <c r="I3" s="70">
         <v>0</v>
       </c>
-      <c r="J3" s="83">
+      <c r="J3" s="71">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="72">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="72">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="73">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55">
         <v>52</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="56">
         <v>4</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="56">
         <v>2</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="56">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="82">
+      <c r="I4" s="70">
         <v>0</v>
       </c>
-      <c r="J4" s="83">
+      <c r="J4" s="71">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="84">
+      <c r="K4" s="72">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="72">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="73">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="69">
+      <c r="A5" s="54">
         <v>1</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="55">
         <v>1</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="56">
         <v>3</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="56">
         <v>0</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="56">
         <v>3</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68">
-        <f t="shared" ref="H4:H8" si="0">F5-G5</f>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57">
+        <f t="shared" ref="H4:H13" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="70">
         <v>0</v>
       </c>
-      <c r="J5" s="83" t="e">
-        <f t="shared" ref="J5:J8" si="1">I5/L5*100%</f>
+      <c r="J5" s="71" t="e">
+        <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="72">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="84">
-        <f t="shared" ref="L4:L8" si="2">D5+G5</f>
+      <c r="L5" s="72">
+        <f t="shared" ref="L4:L13" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="85">
-        <f t="shared" ref="M4:M8" si="3">L5/K5*100%</f>
+      <c r="M5" s="73">
+        <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="69"/>
-      <c r="B6" s="66">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55">
         <v>2</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="56">
         <v>3</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="56">
         <v>0</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="56">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="70">
         <v>0</v>
       </c>
-      <c r="J6" s="83" t="e">
+      <c r="J6" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="84">
-        <f t="shared" ref="K4:K8" si="5">C6+G6</f>
+      <c r="K6" s="72">
+        <f t="shared" ref="K4:K13" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="69"/>
-      <c r="B7" s="66">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55">
         <v>3</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="56">
         <v>4</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="56">
         <v>0</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="56">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="70">
         <v>0</v>
       </c>
-      <c r="J7" s="83" t="e">
+      <c r="J7" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="72">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="69"/>
-      <c r="B8" s="66">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55">
         <v>4</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="56">
         <v>8</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="56">
         <v>2</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="56">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="70">
         <v>0</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="72">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="72">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="73">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="69"/>
-      <c r="B9" s="66">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55">
         <v>5</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="56">
         <v>6</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="56">
         <v>1</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="56">
         <v>5</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68">
-        <f>F9-G9</f>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="70">
         <v>0</v>
       </c>
-      <c r="J9" s="83">
-        <f>I9/L9*100%</f>
+      <c r="J9" s="71">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="84">
-        <f>C9+G9</f>
+      <c r="K9" s="72">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L9" s="84">
-        <f>D9+G9</f>
+      <c r="L9" s="72">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="85">
-        <f>L9/K9*100%</f>
+      <c r="M9" s="73">
+        <f t="shared" si="3"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67">
+      <c r="A10" s="58">
+        <v>2</v>
+      </c>
+      <c r="B10" s="55">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56">
+        <v>7</v>
+      </c>
+      <c r="D10" s="56">
+        <v>1</v>
+      </c>
+      <c r="E10" s="56">
+        <v>6</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="67">
+      <c r="I10" s="70">
         <v>0</v>
       </c>
-      <c r="E10" s="67">
+      <c r="J10" s="71">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68">
-        <f>F10-G10</f>
+      <c r="K10" s="72">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="L10" s="72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="73">
+        <f t="shared" si="3"/>
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56">
         <v>0</v>
       </c>
-      <c r="I10" s="82">
+      <c r="D11" s="56">
         <v>0</v>
       </c>
-      <c r="J10" s="83" t="e">
-        <f>I10/L10*100%</f>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="70">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="84">
-        <f>C10+G10</f>
+      <c r="K11" s="72">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="84">
-        <f>D10+G10</f>
+      <c r="L11" s="72">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="85" t="e">
-        <f>L10/K10*100%</f>
+      <c r="M11" s="73" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="71"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67">
+    <row r="12" spans="1:13">
+      <c r="A12" s="59"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56">
         <v>0</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D12" s="56">
         <v>0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E12" s="56">
         <v>0</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68">
-        <f>F11-G11</f>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I12" s="70">
         <v>0</v>
       </c>
-      <c r="J11" s="83" t="e">
-        <f>I11/L11*100%</f>
+      <c r="J12" s="71" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="84">
-        <f>C11+G11</f>
+      <c r="K12" s="72">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="84">
-        <f>D11+G11</f>
+      <c r="L12" s="72">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="85" t="e">
-        <f>L11/K11*100%</f>
+      <c r="M12" s="73" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="71"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67">
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62">
         <v>0</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D13" s="62">
         <v>0</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E13" s="62">
         <v>0</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68">
-        <f>F12-G12</f>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I13" s="74">
         <v>0</v>
       </c>
-      <c r="J12" s="83" t="e">
-        <f>I12/L12*100%</f>
+      <c r="J13" s="75" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="84">
-        <f>C12+G12</f>
+      <c r="K13" s="76">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="84">
-        <f>D12+G12</f>
+      <c r="L13" s="76">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="85" t="e">
-        <f>L12/K12*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74">
-        <v>0</v>
-      </c>
-      <c r="D13" s="74">
-        <v>0</v>
-      </c>
-      <c r="E13" s="74">
-        <v>0</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75">
-        <f>F13-G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="86">
-        <v>0</v>
-      </c>
-      <c r="J13" s="87" t="e">
-        <f>I13/L13*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="88">
-        <f>C13+G13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="88">
-        <f>D13+G13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="89" t="e">
-        <f>L13/K13*100%</f>
+      <c r="M13" s="77" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2490,13 +2470,13 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="38" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2510,50 +2490,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2597,7 +2577,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="56">
+      <c r="N2" s="45">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2642,7 +2622,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="46">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2653,7 +2633,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="43">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2698,7 +2678,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="50">
+      <c r="B5" s="43">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2805,10 +2785,10 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="51">
+      <c r="A9" s="32">
         <v>4</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="14">
         <v>43119</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2852,8 +2832,8 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="52">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14">
         <v>43124</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2897,10 +2877,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="54">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="14">
         <v>43128</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2944,25 +2924,55 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43138</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1">
+        <v>76121670</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15821227798</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2978,8 +2988,8 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2995,8 +3005,8 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3012,8 +3022,8 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3029,8 +3039,8 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3046,8 +3056,8 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3063,8 +3073,8 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3080,8 +3090,8 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3097,8 +3107,8 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3114,8 +3124,8 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3131,8 +3141,8 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="54"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3148,8 +3158,8 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3165,8 +3175,8 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="54"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3182,8 +3192,8 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="54"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3199,8 +3209,8 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3216,8 +3226,8 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="54"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3233,8 +3243,8 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="54"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3250,8 +3260,8 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3267,8 +3277,8 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3284,8 +3294,8 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="54"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3301,8 +3311,8 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3318,8 +3328,8 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="54"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3335,8 +3345,8 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3352,8 +3362,8 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="54"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3369,8 +3379,8 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="54"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3386,8 +3396,8 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="54"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3403,8 +3413,8 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="54"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3420,8 +3430,8 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="54"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3437,8 +3447,8 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="54"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3454,8 +3464,8 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="54"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3471,8 +3481,8 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="54"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3488,8 +3498,8 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="54"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3505,8 +3515,8 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="54"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3522,8 +3532,8 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="54"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3539,8 +3549,8 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="54"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3556,8 +3566,8 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="54"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3573,8 +3583,8 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="54"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3590,8 +3600,8 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="54"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3607,8 +3617,8 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="54"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3624,8 +3634,8 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="54"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3641,8 +3651,8 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="54"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3658,8 +3668,8 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="54"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3675,8 +3685,8 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="54"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3692,8 +3702,8 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="54"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -3709,8 +3719,8 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="54"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3726,8 +3736,8 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="54"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -3743,8 +3753,8 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="54"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3760,8 +3770,8 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="54"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3777,8 +3787,8 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="54"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3794,8 +3804,8 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -3811,8 +3821,8 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="54"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -3828,8 +3838,8 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="54"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3845,8 +3855,8 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="54"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3862,8 +3872,8 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="54"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3879,8 +3889,8 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="54"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3896,8 +3906,8 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="54"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3913,8 +3923,8 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="54"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3930,8 +3940,8 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="54"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3947,8 +3957,8 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="54"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3964,8 +3974,8 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="54"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3981,8 +3991,8 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="54"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3998,8 +4008,8 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="54"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4015,8 +4025,8 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="54"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4032,8 +4042,8 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="54"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4049,8 +4059,8 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="54"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4066,8 +4076,8 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="54"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4083,8 +4093,8 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="54"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4100,8 +4110,8 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="54"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4117,8 +4127,8 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="54"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4134,8 +4144,8 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="54"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4151,8 +4161,8 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -4168,8 +4178,8 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="54"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -4185,8 +4195,8 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="54"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -4202,8 +4212,8 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="54"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4219,8 +4229,8 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="54"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4236,8 +4246,8 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="54"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -4253,8 +4263,8 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="54"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4270,8 +4280,8 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="54"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -4287,8 +4297,8 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="54"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -4304,8 +4314,8 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="54"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -4321,8 +4331,8 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="54"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -4338,8 +4348,8 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="54"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -4355,8 +4365,8 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="54"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -4372,8 +4382,8 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="54"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4389,8 +4399,8 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="54"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4406,8 +4416,8 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="54"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4423,8 +4433,8 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="54"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4440,8 +4450,8 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="54"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4457,8 +4467,8 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="54"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4474,8 +4484,8 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="54"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4491,8 +4501,8 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="54"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4508,8 +4518,8 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="54"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4525,8 +4535,8 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="54"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4542,8 +4552,8 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="54"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -4559,8 +4569,8 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="54"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -4576,8 +4586,8 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="54"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -4593,8 +4603,8 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="54"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -4610,8 +4620,8 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="54"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -4627,8 +4637,8 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="54"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4644,8 +4654,8 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="54"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4661,8 +4671,8 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="54"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4678,8 +4688,8 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="54"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4695,8 +4705,8 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="54"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4712,8 +4722,8 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="54"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4729,8 +4739,8 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="54"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4746,8 +4756,8 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="54"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4763,8 +4773,8 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4780,8 +4790,8 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="54"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4797,8 +4807,8 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="54"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4814,8 +4824,8 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="54"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4831,8 +4841,8 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="54"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4848,8 +4858,8 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="54"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4865,8 +4875,8 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="54"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4882,8 +4892,8 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="54"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4899,8 +4909,8 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="54"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4916,8 +4926,8 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="54"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4933,8 +4943,8 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="54"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4950,8 +4960,8 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="54"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4967,8 +4977,8 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="54"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4984,8 +4994,8 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="54"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -5001,8 +5011,8 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="54"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -5018,8 +5028,8 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="54"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -5035,8 +5045,8 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="54"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -5052,8 +5062,8 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="54"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -5069,8 +5079,8 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="54"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -5086,8 +5096,8 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="54"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5103,8 +5113,8 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="54"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5120,8 +5130,8 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="54"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5137,8 +5147,8 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="54"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5154,8 +5164,8 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="54"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5171,8 +5181,8 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="54"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5188,8 +5198,8 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="54"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5205,8 +5215,8 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="54"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -5222,8 +5232,8 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="54"/>
-      <c r="B146" s="2"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -5239,8 +5249,8 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="54"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -5256,8 +5266,8 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="54"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -5273,8 +5283,8 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="54"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -5290,8 +5300,8 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="54"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -5307,8 +5317,8 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="54"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="14"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -5324,8 +5334,8 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="54"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -5341,8 +5351,8 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="54"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5358,8 +5368,8 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="54"/>
-      <c r="B154" s="2"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5375,8 +5385,8 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="54"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5392,8 +5402,8 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="54"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5409,8 +5419,8 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="54"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5426,8 +5436,8 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="54"/>
-      <c r="B158" s="2"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5443,8 +5453,8 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="54"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5460,8 +5470,8 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="54"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5477,8 +5487,8 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="54"/>
-      <c r="B161" s="2"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5494,8 +5504,8 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="54"/>
-      <c r="B162" s="2"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5511,8 +5521,8 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="54"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5528,8 +5538,8 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="54"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5545,8 +5555,8 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="54"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5562,8 +5572,8 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="54"/>
-      <c r="B166" s="2"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5579,8 +5589,8 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="54"/>
-      <c r="B167" s="2"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5596,8 +5606,8 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="54"/>
-      <c r="B168" s="2"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5613,8 +5623,8 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="54"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5630,8 +5640,8 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="54"/>
-      <c r="B170" s="2"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5647,8 +5657,8 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="54"/>
-      <c r="B171" s="2"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5664,8 +5674,8 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="54"/>
-      <c r="B172" s="2"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5681,8 +5691,8 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="54"/>
-      <c r="B173" s="2"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5698,8 +5708,8 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="54"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5715,8 +5725,8 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="54"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5732,8 +5742,8 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="54"/>
-      <c r="B176" s="2"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5749,8 +5759,8 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="54"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5766,8 +5776,8 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="54"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5783,8 +5793,8 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="54"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5800,8 +5810,8 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="54"/>
-      <c r="B180" s="2"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5817,8 +5827,8 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="54"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5834,8 +5844,8 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="54"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5851,8 +5861,8 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="54"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="14"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5868,8 +5878,8 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="54"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5885,8 +5895,8 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="54"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5902,8 +5912,8 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="54"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5919,8 +5929,8 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="54"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5936,8 +5946,8 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="54"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="14"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5953,8 +5963,8 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="54"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5970,8 +5980,8 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="54"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5987,8 +5997,8 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="54"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="14"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -6004,8 +6014,8 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="54"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -6021,8 +6031,8 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="54"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="13"/>
+      <c r="B193" s="14"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -6038,8 +6048,8 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="54"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="13"/>
+      <c r="B194" s="14"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6055,8 +6065,8 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="54"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="13"/>
+      <c r="B195" s="14"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6072,8 +6082,8 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="54"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="13"/>
+      <c r="B196" s="14"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6089,8 +6099,8 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="54"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="14"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6106,8 +6116,8 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="54"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="14"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6123,8 +6133,8 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="54"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="14"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6140,8 +6150,8 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="54"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="14"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6157,8 +6167,8 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="54"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6174,8 +6184,8 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="54"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="14"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6191,8 +6201,8 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="54"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="14"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6208,8 +6218,8 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="54"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="14"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6225,8 +6235,8 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="54"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6242,8 +6252,8 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="54"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="14"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6259,8 +6269,8 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="54"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="14"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6276,8 +6286,8 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15">
-      <c r="A208" s="54"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="14"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6293,8 +6303,8 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="54"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="13"/>
+      <c r="B209" s="14"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6310,8 +6320,8 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="54"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="14"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6327,8 +6337,8 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="54"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="14"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6344,8 +6354,8 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="54"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6361,8 +6371,8 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="54"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6378,8 +6388,8 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="54"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="13"/>
+      <c r="B214" s="14"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6395,8 +6405,8 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="54"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="13"/>
+      <c r="B215" s="14"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6412,8 +6422,8 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="54"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="13"/>
+      <c r="B216" s="14"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6429,8 +6439,8 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="54"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="14"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6446,8 +6456,8 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="54"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="14"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6463,8 +6473,8 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="54"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="13"/>
+      <c r="B219" s="14"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6480,8 +6490,8 @@
       <c r="O219" s="1"/>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="54"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="14"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6497,8 +6507,8 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="54"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="14"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6514,8 +6524,8 @@
       <c r="O221" s="1"/>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="54"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="14"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6531,8 +6541,8 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="54"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="14"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6548,8 +6558,8 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15">
-      <c r="A224" s="54"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="13"/>
+      <c r="B224" s="14"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6565,8 +6575,8 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="54"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="14"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6582,8 +6592,8 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="54"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6599,8 +6609,8 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="54"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="13"/>
+      <c r="B227" s="14"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6616,8 +6626,8 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" spans="1:15">
-      <c r="A228" s="54"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="14"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6633,8 +6643,8 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="54"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="13"/>
+      <c r="B229" s="14"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6650,8 +6660,8 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="54"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="14"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6667,8 +6677,8 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="54"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="13"/>
+      <c r="B231" s="14"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6684,8 +6694,8 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" spans="1:15">
-      <c r="A232" s="54"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="13"/>
+      <c r="B232" s="14"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6701,8 +6711,8 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="54"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6718,8 +6728,8 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" spans="1:15">
-      <c r="A234" s="54"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="13"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6735,8 +6745,8 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="54"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="13"/>
+      <c r="B235" s="14"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6752,8 +6762,8 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="54"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="13"/>
+      <c r="B236" s="14"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -6769,8 +6779,8 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="54"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="13"/>
+      <c r="B237" s="14"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -6786,8 +6796,8 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" spans="1:15">
-      <c r="A238" s="54"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="13"/>
+      <c r="B238" s="14"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -6803,8 +6813,8 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="54"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="13"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -6820,8 +6830,8 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="54"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="13"/>
+      <c r="B240" s="14"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -6837,8 +6847,8 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="54"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="13"/>
+      <c r="B241" s="14"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -6854,8 +6864,8 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="54"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="13"/>
+      <c r="B242" s="14"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -6871,8 +6881,8 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="54"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="14"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -6888,8 +6898,8 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" spans="1:15">
-      <c r="A244" s="54"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="13"/>
+      <c r="B244" s="14"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -6905,8 +6915,8 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="54"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -6922,8 +6932,8 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="54"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -6939,8 +6949,8 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="54"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -6956,8 +6966,8 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" spans="1:15">
-      <c r="A248" s="54"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="13"/>
+      <c r="B248" s="14"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -6973,8 +6983,8 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="54"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -6990,8 +7000,8 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" spans="1:15">
-      <c r="A250" s="54"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="13"/>
+      <c r="B250" s="14"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7007,8 +7017,8 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="54"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7024,8 +7034,8 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="54"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7041,8 +7051,8 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="54"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7058,8 +7068,8 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="54"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7075,8 +7085,8 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="54"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="13"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7092,8 +7102,8 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="54"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="14"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7109,8 +7119,8 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="54"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7126,8 +7136,8 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="54"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7143,8 +7153,8 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="54"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7160,8 +7170,8 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="54"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7177,8 +7187,8 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="54"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="13"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7194,8 +7204,8 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="54"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="13"/>
+      <c r="B262" s="14"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7211,8 +7221,8 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="54"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7228,8 +7238,8 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="54"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7245,8 +7255,8 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="54"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7262,8 +7272,8 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15">
-      <c r="A266" s="54"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="13"/>
+      <c r="B266" s="14"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7279,8 +7289,8 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="54"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7296,8 +7306,8 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="54"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7313,8 +7323,8 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="54"/>
-      <c r="B269" s="2"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="14"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7330,8 +7340,8 @@
       <c r="O269" s="1"/>
     </row>
     <row r="270" spans="1:15">
-      <c r="A270" s="54"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7347,8 +7357,8 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" spans="1:15">
-      <c r="A271" s="54"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="13"/>
+      <c r="B271" s="14"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7364,8 +7374,8 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="1:15">
-      <c r="A272" s="54"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7381,8 +7391,8 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" spans="1:15">
-      <c r="A273" s="54"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7398,8 +7408,8 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15">
-      <c r="A274" s="54"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7415,8 +7425,8 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" spans="1:15">
-      <c r="A275" s="54"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7432,8 +7442,8 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="54"/>
-      <c r="B276" s="2"/>
+      <c r="A276" s="13"/>
+      <c r="B276" s="14"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7449,8 +7459,8 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" spans="1:15">
-      <c r="A277" s="54"/>
-      <c r="B277" s="2"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="14"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7466,8 +7476,8 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="54"/>
-      <c r="B278" s="2"/>
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -7483,8 +7493,8 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="54"/>
-      <c r="B279" s="2"/>
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -7500,8 +7510,8 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="54"/>
-      <c r="B280" s="2"/>
+      <c r="A280" s="13"/>
+      <c r="B280" s="14"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -7517,8 +7527,8 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="54"/>
-      <c r="B281" s="2"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="14"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -7534,8 +7544,8 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="54"/>
-      <c r="B282" s="2"/>
+      <c r="A282" s="13"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -7551,8 +7561,8 @@
       <c r="O282" s="1"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="54"/>
-      <c r="B283" s="2"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="14"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -7568,8 +7578,8 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="54"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="13"/>
+      <c r="B284" s="14"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -7585,8 +7595,8 @@
       <c r="O284" s="1"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="54"/>
-      <c r="B285" s="2"/>
+      <c r="A285" s="13"/>
+      <c r="B285" s="14"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -7602,8 +7612,8 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="54"/>
-      <c r="B286" s="2"/>
+      <c r="A286" s="13"/>
+      <c r="B286" s="14"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -7619,8 +7629,8 @@
       <c r="O286" s="1"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="54"/>
-      <c r="B287" s="2"/>
+      <c r="A287" s="13"/>
+      <c r="B287" s="14"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -7636,8 +7646,8 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="54"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="13"/>
+      <c r="B288" s="14"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -7653,8 +7663,8 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15">
-      <c r="A289" s="54"/>
-      <c r="B289" s="2"/>
+      <c r="A289" s="13"/>
+      <c r="B289" s="14"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -7670,8 +7680,8 @@
       <c r="O289" s="1"/>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="54"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="13"/>
+      <c r="B290" s="14"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -7687,8 +7697,8 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="54"/>
-      <c r="B291" s="2"/>
+      <c r="A291" s="13"/>
+      <c r="B291" s="14"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -7704,8 +7714,8 @@
       <c r="O291" s="1"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="54"/>
-      <c r="B292" s="2"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="14"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -7721,8 +7731,8 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="54"/>
-      <c r="B293" s="2"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="14"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -7738,8 +7748,8 @@
       <c r="O293" s="1"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="54"/>
-      <c r="B294" s="2"/>
+      <c r="A294" s="13"/>
+      <c r="B294" s="14"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -7755,8 +7765,8 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="54"/>
-      <c r="B295" s="2"/>
+      <c r="A295" s="13"/>
+      <c r="B295" s="14"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -7772,8 +7782,8 @@
       <c r="O295" s="1"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="54"/>
-      <c r="B296" s="2"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="14"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -7789,8 +7799,8 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" spans="1:15">
-      <c r="A297" s="54"/>
-      <c r="B297" s="2"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -7806,8 +7816,8 @@
       <c r="O297" s="1"/>
     </row>
     <row r="298" spans="1:15">
-      <c r="A298" s="54"/>
-      <c r="B298" s="2"/>
+      <c r="A298" s="13"/>
+      <c r="B298" s="14"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -7823,8 +7833,8 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15">
-      <c r="A299" s="54"/>
-      <c r="B299" s="2"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="14"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -7860,7 +7870,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B12:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B1 B13:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7870,8 +7880,8 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="B24:G28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7893,19 +7903,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -7919,16 +7929,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -7940,16 +7950,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -7957,22 +7967,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -7984,16 +7994,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8001,43 +8011,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="17">
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17">
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8045,43 +8055,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="17">
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="17">
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8093,16 +8103,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8110,43 +8120,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="17">
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="17">
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8158,16 +8168,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8175,43 +8185,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="17">
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="17">
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8223,85 +8233,85 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="17">
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="38">
+      <c r="A18" s="32">
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="17">
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" s="17">
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="25" t="s">
         <v>57</v>
       </c>
@@ -8309,476 +8319,556 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39"/>
-      <c r="B22" s="35" t="s">
-        <v>84</v>
+      <c r="A22" s="33"/>
+      <c r="B22" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="38">
+      <c r="A24" s="32">
         <v>5</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="17">
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25" s="17">
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="39"/>
-      <c r="B27" s="35" t="s">
-        <v>84</v>
+      <c r="A27" s="33"/>
+      <c r="B27" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="40"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="32">
+        <v>6</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="31" t="s">
+      <c r="E29" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="33"/>
+      <c r="B30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="33"/>
+      <c r="B31" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="41"/>
-      <c r="B30" s="37"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="41"/>
-      <c r="B31" s="37"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="C31" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="41"/>
-      <c r="B32" s="37"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="41"/>
-      <c r="B33" s="37"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="41"/>
-      <c r="B34" s="25"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="17">
+        <v>43131</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="35" ht="14.25" spans="2:7">
       <c r="B35" s="25"/>
-      <c r="D35" s="42"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="35"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="31"/>
     </row>
     <row r="36" ht="14.25" spans="2:7">
       <c r="B36" s="25"/>
-      <c r="D36" s="42"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="35"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="28"/>
     </row>
     <row r="37" ht="14.25" spans="2:7">
       <c r="B37" s="25"/>
-      <c r="D37" s="42"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="35"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="28"/>
     </row>
     <row r="38" ht="14.25" spans="2:7">
       <c r="B38" s="25"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="35"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="28"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="25"/>
       <c r="D39" s="34"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="25"/>
       <c r="D40" s="34"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="25"/>
       <c r="D41" s="34"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="25"/>
       <c r="D42" s="34"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="25"/>
       <c r="D43" s="34"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="25"/>
       <c r="D44" s="34"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="25"/>
       <c r="D45" s="34"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="25"/>
       <c r="D46" s="34"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" ht="14.25" spans="2:7">
       <c r="B47" s="25"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="35"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="31"/>
     </row>
     <row r="48" ht="14.25" spans="2:7">
       <c r="B48" s="25"/>
-      <c r="D48" s="42"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="35"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
       <c r="B49" s="25"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="35"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="28"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
       <c r="B50" s="25"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="28"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="25"/>
       <c r="D51" s="34"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="25"/>
       <c r="D52" s="34"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="25"/>
       <c r="D53" s="34"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="25"/>
       <c r="D54" s="34"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="25"/>
       <c r="D55" s="34"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="25"/>
       <c r="D56" s="34"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="25"/>
       <c r="D57" s="34"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="25"/>
       <c r="D58" s="34"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
     </row>
     <row r="59" ht="14.25" spans="2:7">
       <c r="B59" s="25"/>
-      <c r="D59" s="42"/>
+      <c r="D59" s="36"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="35"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="28"/>
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="25"/>
-      <c r="D60" s="42"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="35"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="28"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="25"/>
       <c r="D61" s="34"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="25"/>
       <c r="D62" s="34"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="25"/>
       <c r="D63" s="34"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="36"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="25"/>
       <c r="D64" s="34"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="36"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="25"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="36"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="25"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="36"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="25"/>
       <c r="D67" s="34"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="25"/>
       <c r="D68" s="34"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="36"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -8787,16 +8877,17 @@
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A46"/>
     <mergeCell ref="A47:A58"/>
     <mergeCell ref="A59:A68"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8811,8 +8902,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8824,26 +8915,26 @@
     <col min="5" max="5" width="65" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -8852,15 +8943,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -8869,15 +8960,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -8889,12 +8980,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -8903,10 +8994,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -286,7 +286,25 @@
     <t>乌龙煎</t>
   </si>
   <si>
-    <t>明天安装</t>
+    <t>等待开业</t>
+  </si>
+  <si>
+    <t>星火E方大食堂</t>
+  </si>
+  <si>
+    <t>3月1安装</t>
+  </si>
+  <si>
+    <t>李雪磊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金啡泰茶 </t>
+  </si>
+  <si>
+    <t>暂时未定</t>
+  </si>
+  <si>
+    <t>汪冰洋</t>
   </si>
   <si>
     <t>姓名</t>
@@ -336,11 +354,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1372,7 +1390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,6 +1498,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1942,511 +1972,513 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="47" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="54">
+      <c r="A3" s="58">
         <v>12</v>
       </c>
-      <c r="B3" s="55">
+      <c r="B3" s="59">
         <v>51</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="60">
         <v>4</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="60">
         <v>2</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="60">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="74">
         <v>0</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="75">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="76">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="76">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="77">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59">
         <v>52</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="60">
         <v>4</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="60">
         <v>2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="60">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="74">
         <v>0</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="75">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="76">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="76">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="77">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="54">
+      <c r="A5" s="58">
         <v>1</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="60">
         <v>3</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="60">
         <v>0</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="60">
         <v>3</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61">
         <f t="shared" ref="H4:H13" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="74">
         <v>0</v>
       </c>
-      <c r="J5" s="71" t="e">
+      <c r="J5" s="75" t="e">
         <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="76">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="76">
         <f t="shared" ref="L4:L13" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="77">
         <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="60">
         <v>3</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="60">
         <v>0</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="60">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="74">
         <v>0</v>
       </c>
-      <c r="J6" s="71" t="e">
+      <c r="J6" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="76">
         <f t="shared" ref="K4:K13" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59">
         <v>3</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="60">
         <v>4</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="60">
         <v>0</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="60">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="74">
         <v>0</v>
       </c>
-      <c r="J7" s="71" t="e">
+      <c r="J7" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="76">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59">
         <v>4</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="60">
         <v>8</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="60">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="74">
         <v>0</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="76">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="76">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="77">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59">
         <v>5</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="60">
         <v>6</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="60">
         <v>1</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="60">
         <v>5</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="74">
         <v>0</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="76">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="76">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="77">
         <f t="shared" si="3"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="58">
+      <c r="A10" s="62">
         <v>2</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="59">
         <v>6</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="60">
         <v>7</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="60">
         <v>1</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="60">
         <v>6</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57">
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="74">
         <v>0</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="76">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="76">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="77">
         <f t="shared" si="3"/>
         <v>0.142857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="59"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56">
+      <c r="A11" s="63"/>
+      <c r="B11" s="59">
+        <v>9</v>
+      </c>
+      <c r="C11" s="60">
+        <v>8</v>
+      </c>
+      <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="D11" s="56">
+      <c r="E11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="74">
         <v>0</v>
       </c>
-      <c r="J11" s="71" t="e">
+      <c r="J11" s="75" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="76">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L11" s="76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="63"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60">
+        <v>0</v>
+      </c>
+      <c r="D12" s="60">
+        <v>0</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="74">
+        <v>0</v>
+      </c>
+      <c r="J12" s="75" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L12" s="76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="73" t="e">
+      <c r="M12" s="77" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56">
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66">
         <v>0</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D13" s="66">
         <v>0</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E13" s="66">
         <v>0</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57">
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I13" s="78">
         <v>0</v>
       </c>
-      <c r="J12" s="71" t="e">
+      <c r="J13" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K13" s="80">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L13" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62">
-        <v>0</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="74">
-        <v>0</v>
-      </c>
-      <c r="J13" s="75" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="77" t="e">
+      <c r="M13" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2470,13 +2502,13 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="42" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2490,50 +2522,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="39" t="s">
+    <row r="1" s="41" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2577,7 +2609,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="49">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2622,7 +2654,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="50">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2633,7 +2665,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="47">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2678,7 +2710,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="43">
+      <c r="B5" s="47">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2971,8 +3003,12 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -7870,7 +7906,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B13:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B6 B14:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7880,8 +7916,8 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8629,84 +8665,202 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="2:7">
-      <c r="B35" s="25"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" ht="14.25" spans="2:7">
-      <c r="B36" s="25"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" ht="14.25" spans="2:7">
-      <c r="B37" s="25"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" ht="14.25" spans="2:7">
-      <c r="B38" s="25"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="25"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="25"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="25"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="25"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-    </row>
-    <row r="43" spans="2:7">
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="36">
+        <v>9</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="37"/>
+      <c r="B36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="37"/>
+      <c r="B37" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="37"/>
+      <c r="B38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37"/>
+      <c r="B39" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="37"/>
+      <c r="B40" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="17">
+        <v>43131</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37"/>
+      <c r="B41" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="38"/>
+      <c r="B42" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="39"/>
       <c r="B43" s="25"/>
       <c r="D43" s="34"/>
       <c r="E43" s="1"/>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7">
+      <c r="A44" s="39"/>
       <c r="B44" s="25"/>
       <c r="D44" s="34"/>
       <c r="E44" s="1"/>
       <c r="F44" s="27"/>
       <c r="G44" s="28"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
+      <c r="A45" s="39"/>
       <c r="B45" s="25"/>
       <c r="D45" s="34"/>
       <c r="E45" s="1"/>
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="1:7">
+      <c r="A46" s="39"/>
       <c r="B46" s="25"/>
       <c r="D46" s="34"/>
       <c r="E46" s="1"/>
@@ -8715,28 +8869,28 @@
     </row>
     <row r="47" ht="14.25" spans="2:7">
       <c r="B47" s="25"/>
-      <c r="D47" s="36"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="1"/>
       <c r="F47" s="27"/>
       <c r="G47" s="31"/>
     </row>
     <row r="48" ht="14.25" spans="2:7">
       <c r="B48" s="25"/>
-      <c r="D48" s="36"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="1"/>
       <c r="F48" s="27"/>
       <c r="G48" s="28"/>
     </row>
     <row r="49" ht="14.25" spans="2:7">
       <c r="B49" s="25"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="1"/>
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
     </row>
     <row r="50" ht="14.25" spans="2:7">
       <c r="B50" s="25"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="1"/>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
@@ -8799,14 +8953,14 @@
     </row>
     <row r="59" ht="14.25" spans="2:7">
       <c r="B59" s="25"/>
-      <c r="D59" s="36"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="1"/>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="25"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="1"/>
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
@@ -8878,16 +9032,16 @@
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="A47:A58"/>
     <mergeCell ref="A59:A68"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8920,21 +9074,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -8943,15 +9097,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -8960,15 +9114,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -8980,12 +9134,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -8994,10 +9148,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -354,11 +354,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -436,29 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -513,6 +490,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,27 +553,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,30 +636,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,12 +690,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -751,6 +721,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,16 +1143,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1168,21 +1168,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1193,6 +1178,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,21 +1232,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1248,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,91 +1260,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,41 +1356,41 @@
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,15 +1498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1958,8 +1949,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1972,513 +1963,515 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="48" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="58">
+      <c r="A3" s="55">
         <v>12</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <v>51</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="57">
         <v>4</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="57">
         <v>2</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="57">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="71">
         <v>0</v>
       </c>
-      <c r="J3" s="75">
+      <c r="J3" s="72">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="76">
+      <c r="K3" s="73">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="76">
+      <c r="L3" s="73">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="77">
+      <c r="M3" s="74">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56">
         <v>52</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="57">
         <v>4</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="57">
         <v>2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="57">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="71">
         <v>0</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="72">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="73">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="76">
+      <c r="L4" s="73">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="77">
+      <c r="M4" s="74">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="58">
+      <c r="A5" s="55">
         <v>1</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="56">
         <v>1</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="57">
         <v>3</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="57">
         <v>0</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="57">
         <v>3</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58">
         <f t="shared" ref="H4:H13" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="71">
         <v>0</v>
       </c>
-      <c r="J5" s="75" t="e">
+      <c r="J5" s="72" t="e">
         <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="76">
+      <c r="K5" s="73">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="73">
         <f t="shared" ref="L4:L13" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="77">
+      <c r="M5" s="74">
         <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56">
         <v>2</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="57">
         <v>3</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="57">
         <v>0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="57">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="71">
         <v>0</v>
       </c>
-      <c r="J6" s="75" t="e">
+      <c r="J6" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="76">
+      <c r="K6" s="73">
         <f t="shared" ref="K4:K13" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="77">
+      <c r="M6" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56">
         <v>3</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="57">
         <v>4</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="57">
         <v>0</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="57">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="71">
         <v>0</v>
       </c>
-      <c r="J7" s="75" t="e">
+      <c r="J7" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="76">
+      <c r="K7" s="73">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56">
         <v>4</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="57">
         <v>8</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="57">
         <v>2</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="57">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="71">
         <v>0</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="73">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="73">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="74">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56">
         <v>5</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="57">
         <v>6</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="57">
         <v>1</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="57">
         <v>5</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="71">
         <v>0</v>
       </c>
-      <c r="J9" s="75">
+      <c r="J9" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="73">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="74">
         <f t="shared" si="3"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="62">
+      <c r="A10" s="59">
         <v>2</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="56">
         <v>6</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="57">
         <v>7</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="57">
         <v>1</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="57">
         <v>6</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61">
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="71">
         <v>0</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="73">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="73">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="74">
         <f t="shared" si="3"/>
         <v>0.142857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="63"/>
-      <c r="B11" s="59">
+      <c r="A11" s="60"/>
+      <c r="B11" s="56">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="57">
         <v>8</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="57">
         <v>0</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="57">
         <v>0</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="71">
         <v>0</v>
       </c>
-      <c r="J11" s="75" t="e">
+      <c r="J11" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="73">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60">
+      <c r="A12" s="60"/>
+      <c r="B12" s="56">
+        <v>10</v>
+      </c>
+      <c r="C12" s="57">
+        <v>8</v>
+      </c>
+      <c r="D12" s="57">
         <v>0</v>
       </c>
-      <c r="D12" s="60">
+      <c r="E12" s="57">
         <v>0</v>
       </c>
-      <c r="E12" s="60">
-        <v>0</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="71">
         <v>0</v>
       </c>
-      <c r="J12" s="75" t="e">
+      <c r="J12" s="72" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="73">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63">
+        <v>0</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="75">
+        <v>0</v>
+      </c>
+      <c r="J13" s="76" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L13" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="77" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66">
-        <v>0</v>
-      </c>
-      <c r="D13" s="66">
-        <v>0</v>
-      </c>
-      <c r="E13" s="66">
-        <v>0</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="78">
-        <v>0</v>
-      </c>
-      <c r="J13" s="79" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="81" t="e">
+      <c r="M13" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -2502,13 +2495,13 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="39" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2522,50 +2515,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="38" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2609,7 +2602,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="46">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2654,7 +2647,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="47">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2665,7 +2658,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="44">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2710,7 +2703,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="47">
+      <c r="B5" s="44">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3024,8 +3017,12 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -7906,7 +7903,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B14:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B15:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7916,8 +7913,8 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8666,7 +8663,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="36">
+      <c r="A35" s="32">
         <v>9</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -8689,7 +8686,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
         <v>77</v>
       </c>
@@ -8710,7 +8707,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="37"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
         <v>83</v>
       </c>
@@ -8731,7 +8728,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="37"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
         <v>86</v>
       </c>
@@ -8752,7 +8749,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="37"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
         <v>87</v>
       </c>
@@ -8773,7 +8770,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="37"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="25" t="s">
         <v>88</v>
       </c>
@@ -8794,7 +8791,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="37"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
         <v>90</v>
       </c>
@@ -8815,7 +8812,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="38"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
         <v>93</v>
       </c>
@@ -8835,116 +8832,234 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="39"/>
-      <c r="B43" s="25"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="32">
+        <v>10</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="39"/>
-      <c r="B44" s="25"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="39"/>
-      <c r="B45" s="25"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="39"/>
-      <c r="B46" s="25"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" ht="14.25" spans="2:7">
-      <c r="B47" s="25"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" ht="14.25" spans="2:7">
-      <c r="B48" s="25"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" ht="14.25" spans="2:7">
-      <c r="B49" s="25"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-    </row>
-    <row r="50" ht="14.25" spans="2:7">
-      <c r="B50" s="25"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="A46" s="33"/>
+      <c r="B46" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="33"/>
+      <c r="B47" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="33"/>
+      <c r="B48" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="17">
+        <v>43131</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="33"/>
+      <c r="B49" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="10"/>
+      <c r="B50" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="36"/>
       <c r="B51" s="25"/>
       <c r="D51" s="34"/>
       <c r="E51" s="1"/>
       <c r="F51" s="27"/>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
+      <c r="A52" s="36"/>
       <c r="B52" s="25"/>
       <c r="D52" s="34"/>
       <c r="E52" s="1"/>
       <c r="F52" s="27"/>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
+      <c r="A53" s="36"/>
       <c r="B53" s="25"/>
       <c r="D53" s="34"/>
       <c r="E53" s="1"/>
       <c r="F53" s="27"/>
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
+      <c r="A54" s="36"/>
       <c r="B54" s="25"/>
       <c r="D54" s="34"/>
       <c r="E54" s="1"/>
       <c r="F54" s="27"/>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
+      <c r="A55" s="36"/>
       <c r="B55" s="25"/>
       <c r="D55" s="34"/>
       <c r="E55" s="1"/>
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="1:7">
+      <c r="A56" s="36"/>
       <c r="B56" s="25"/>
       <c r="D56" s="34"/>
       <c r="E56" s="1"/>
       <c r="F56" s="27"/>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="1:7">
+      <c r="A57" s="36"/>
       <c r="B57" s="25"/>
       <c r="D57" s="34"/>
       <c r="E57" s="1"/>
       <c r="F57" s="27"/>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
+      <c r="A58" s="36"/>
       <c r="B58" s="25"/>
       <c r="D58" s="34"/>
       <c r="E58" s="1"/>
@@ -8953,14 +9068,14 @@
     </row>
     <row r="59" ht="14.25" spans="2:7">
       <c r="B59" s="25"/>
-      <c r="D59" s="40"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="1"/>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
     </row>
     <row r="60" ht="14.25" spans="2:7">
       <c r="B60" s="25"/>
-      <c r="D60" s="40"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="1"/>
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
@@ -9033,15 +9148,15 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A43:A50"/>
     <mergeCell ref="A59:A68"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -202,6 +202,18 @@
     <t>蛙爵记(国金店)</t>
   </si>
   <si>
+    <t>广州味驰餐饮管理服务有限公司</t>
+  </si>
+  <si>
+    <t>乌龙煎</t>
+  </si>
+  <si>
+    <t>乌龙煎（河西万达店）</t>
+  </si>
+  <si>
+    <t>程飞</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -283,9 +295,6 @@
     <t>传统牛肉面</t>
   </si>
   <si>
-    <t>乌龙煎</t>
-  </si>
-  <si>
     <t>等待开业</t>
   </si>
   <si>
@@ -305,6 +314,21 @@
   </si>
   <si>
     <t>汪冰洋</t>
+  </si>
+  <si>
+    <t>转给高阳</t>
+  </si>
+  <si>
+    <t>土呷呷老鸭汤粉丝</t>
+  </si>
+  <si>
+    <t>机器老板已领走，远程协助装机</t>
+  </si>
+  <si>
+    <t>久鲜面馆</t>
+  </si>
+  <si>
+    <t>刘萌</t>
   </si>
   <si>
     <t>姓名</t>
@@ -354,11 +378,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -430,7 +454,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,14 +520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -461,14 +529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +537,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,15 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,52 +583,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -567,7 +591,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +696,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,133 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,30 +1168,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1197,21 +1197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1227,7 +1212,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1225,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1248,10 +1272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,137 +1284,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1522,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1949,8 +1994,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1963,517 +2008,519 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="55" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="55">
+      <c r="A3" s="62">
         <v>12</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="63">
         <v>51</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="64">
         <v>4</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="64">
         <v>2</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="64">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="78">
         <v>0</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="79">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="80">
         <f>C3+G3</f>
         <v>4</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="80">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="81">
         <f>L3/K3*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63">
         <v>52</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="64">
         <v>4</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="64">
         <v>2</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="64">
         <f>C4-D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58">
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="78">
         <v>0</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="79">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="80">
         <f>C4+G4</f>
         <v>4</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="80">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="81">
         <f>L4/K4*100%</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="55">
+      <c r="A5" s="62">
         <v>1</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="63">
         <v>1</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="64">
         <v>3</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="64">
         <v>0</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="64">
         <v>3</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65">
         <f t="shared" ref="H4:H13" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="78">
         <v>0</v>
       </c>
-      <c r="J5" s="72" t="e">
+      <c r="J5" s="79" t="e">
         <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="80">
         <f>C5+G5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="80">
         <f t="shared" ref="L4:L13" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="81">
         <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63">
         <v>2</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="64">
         <v>3</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="64">
         <v>0</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="64">
         <f t="shared" ref="E3:E8" si="4">C6-D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58">
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="78">
         <v>0</v>
       </c>
-      <c r="J6" s="72" t="e">
+      <c r="J6" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="80">
         <f t="shared" ref="K4:K13" si="5">C6+G6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63">
         <v>3</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="64">
         <v>4</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="64">
         <v>0</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="64">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="78">
         <v>0</v>
       </c>
-      <c r="J7" s="72" t="e">
+      <c r="J7" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="80">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L7" s="73">
+      <c r="L7" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="64">
         <v>8</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="64">
         <v>2</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="64">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="78">
         <v>0</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="80">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L8" s="73">
+      <c r="L8" s="80">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="81">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63">
         <v>5</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="64">
         <v>6</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="64">
         <v>1</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="64">
         <v>5</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="78">
         <v>0</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="80">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="81">
         <f t="shared" si="3"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="59">
+      <c r="A10" s="66">
         <v>2</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="63">
         <v>6</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="64">
         <v>7</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="64">
         <v>1</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="64">
         <v>6</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="78">
         <v>0</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="80">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="74">
+      <c r="M10" s="81">
         <f t="shared" si="3"/>
         <v>0.142857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="60"/>
-      <c r="B11" s="56">
+      <c r="A11" s="67"/>
+      <c r="B11" s="63">
         <v>9</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="64">
         <v>8</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="64">
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="64">
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="78">
         <v>0</v>
       </c>
-      <c r="J11" s="72" t="e">
+      <c r="J11" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="80">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="74">
+      <c r="M11" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="60"/>
-      <c r="B12" s="56">
+      <c r="A12" s="67"/>
+      <c r="B12" s="63">
         <v>10</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="64">
         <v>8</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="64">
         <v>0</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="64">
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="78">
         <v>0</v>
       </c>
-      <c r="J12" s="72" t="e">
+      <c r="J12" s="79" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="80">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="L12" s="73">
+      <c r="L12" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="74">
+      <c r="M12" s="81">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63">
-        <v>0</v>
-      </c>
-      <c r="D13" s="63">
-        <v>0</v>
-      </c>
-      <c r="E13" s="63">
-        <v>0</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69">
+        <v>11</v>
+      </c>
+      <c r="C13" s="70">
+        <v>8</v>
+      </c>
+      <c r="D13" s="70">
+        <v>1</v>
+      </c>
+      <c r="E13" s="70">
+        <v>7</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="82">
         <v>0</v>
       </c>
-      <c r="J13" s="76" t="e">
+      <c r="J13" s="83">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="77">
+        <v>0</v>
+      </c>
+      <c r="K13" s="84">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="77">
+        <v>8</v>
+      </c>
+      <c r="L13" s="84">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="78" t="e">
+        <v>1</v>
+      </c>
+      <c r="M13" s="85">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -2495,13 +2542,13 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="46" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2515,50 +2562,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="45" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2602,7 +2649,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="53">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2647,7 +2694,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="54">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2658,7 +2705,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="51">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2703,7 +2750,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="44">
+      <c r="B5" s="51">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3038,21 +3085,51 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43168</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76130229</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="1">
+        <v>18994050367</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="13"/>
@@ -7895,7 +7972,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15 O2:O14 O16:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7903,7 +7980,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B15:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B1 B16:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7911,10 +7988,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7936,19 +8013,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -7962,16 +8039,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -7983,16 +8060,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8000,22 +8077,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8027,16 +8104,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8044,43 +8121,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C6" s="17">
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C7" s="17">
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8088,43 +8165,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" s="17">
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C9" s="17">
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8136,16 +8213,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8153,43 +8230,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11" s="17">
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C12" s="17">
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8201,16 +8278,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8218,43 +8295,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" s="17">
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" s="17">
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8266,16 +8343,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8287,16 +8364,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8304,43 +8381,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" s="17">
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="17">
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8352,79 +8429,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8432,106 +8509,106 @@
         <v>5</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C24" s="17">
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33"/>
       <c r="B25" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C25" s="17">
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8539,127 +8616,127 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C29" s="17">
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="33"/>
       <c r="B30" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C30" s="17">
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10"/>
       <c r="B34" s="25" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C34" s="17">
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8667,169 +8744,169 @@
         <v>9</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C35" s="17">
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C36" s="17">
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="33"/>
       <c r="B40" s="25" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C40" s="17">
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -8837,304 +8914,391 @@
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C43" s="17">
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" s="17">
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="33"/>
       <c r="B48" s="25" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C48" s="17">
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:7">
+      <c r="A51" s="36">
+        <v>11</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="39"/>
+      <c r="B52" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="39"/>
+      <c r="B53" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="28" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="39"/>
+      <c r="B54" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="36"/>
-      <c r="B51" s="25"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="36"/>
-      <c r="B52" s="25"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="36"/>
-      <c r="B53" s="25"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="36"/>
-      <c r="B54" s="25"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-    </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="36"/>
-      <c r="B55" s="25"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="36"/>
-      <c r="B56" s="25"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="40">
+        <v>43172</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="36"/>
-      <c r="B57" s="25"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="36"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="17">
+        <v>43171</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="43"/>
       <c r="B58" s="25"/>
-      <c r="D58" s="34"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="1"/>
       <c r="F58" s="27"/>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" ht="14.25" spans="2:7">
+    <row r="59" spans="1:7">
+      <c r="A59" s="43"/>
       <c r="B59" s="25"/>
-      <c r="D59" s="37"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="1"/>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" ht="14.25" spans="2:7">
+    <row r="60" spans="1:7">
+      <c r="A60" s="43"/>
       <c r="B60" s="25"/>
-      <c r="D60" s="37"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="1"/>
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="1:7">
+      <c r="A61" s="43"/>
       <c r="B61" s="25"/>
       <c r="D61" s="34"/>
       <c r="E61" s="1"/>
       <c r="F61" s="27"/>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
+      <c r="A62" s="43"/>
       <c r="B62" s="25"/>
       <c r="D62" s="34"/>
       <c r="E62" s="1"/>
       <c r="F62" s="27"/>
       <c r="G62" s="28"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="1:7">
+      <c r="A63" s="43"/>
       <c r="B63" s="25"/>
       <c r="D63" s="34"/>
       <c r="E63" s="1"/>
       <c r="F63" s="27"/>
       <c r="G63" s="28"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="1:7">
+      <c r="A64" s="43"/>
       <c r="B64" s="25"/>
       <c r="D64" s="34"/>
       <c r="E64" s="1"/>
       <c r="F64" s="27"/>
       <c r="G64" s="28"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="1:7">
+      <c r="A65" s="43"/>
       <c r="B65" s="25"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="1:7">
+      <c r="A66" s="43"/>
       <c r="B66" s="25"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="25"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="28"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="25"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -9149,14 +9313,14 @@
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="A51:A57"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E57:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F57:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9172,7 +9336,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9189,21 +9353,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -9212,15 +9376,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -9229,15 +9393,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -9249,12 +9413,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -9263,10 +9427,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -454,21 +454,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -477,67 +462,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +477,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +539,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,7 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -591,7 +591,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,13 +660,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,79 +756,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,13 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,24 +792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -811,6 +799,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,6 +1167,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1178,6 +1217,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,68 +1258,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,10 +1272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1284,133 +1284,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,32 +1523,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1994,8 +1994,8 @@
   <sheetPr/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -7980,7 +7980,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B16:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B6 B16:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7988,10 +7988,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9080,10 +9080,10 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="36">
+      <c r="A51" s="32">
         <v>11</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C51" s="17">
@@ -9098,12 +9098,12 @@
       <c r="F51" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="39"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="31" t="s">
         <v>81</v>
       </c>
@@ -9124,7 +9124,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="39"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
         <v>90</v>
       </c>
@@ -9145,7 +9145,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="39"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
         <v>93</v>
       </c>
@@ -9166,7 +9166,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="39"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
         <v>96</v>
       </c>
@@ -9187,11 +9187,11 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="39"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="38">
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
@@ -9203,12 +9203,12 @@
       <c r="F56" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="41" t="s">
+      <c r="G56" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="42"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="25" t="s">
         <v>102</v>
       </c>
@@ -9229,15 +9229,15 @@
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="43"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="25"/>
-      <c r="D58" s="44"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="1"/>
       <c r="F58" s="27"/>
       <c r="G58" s="28"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="43"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="25"/>
       <c r="D59" s="34"/>
       <c r="E59" s="1"/>
@@ -9245,7 +9245,7 @@
       <c r="G59" s="28"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="43"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="25"/>
       <c r="D60" s="34"/>
       <c r="E60" s="1"/>
@@ -9253,7 +9253,7 @@
       <c r="G60" s="28"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="43"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="25"/>
       <c r="D61" s="34"/>
       <c r="E61" s="1"/>
@@ -9261,7 +9261,7 @@
       <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="43"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="25"/>
       <c r="D62" s="34"/>
       <c r="E62" s="1"/>
@@ -9269,7 +9269,7 @@
       <c r="G62" s="28"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="43"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="25"/>
       <c r="D63" s="34"/>
       <c r="E63" s="1"/>
@@ -9277,7 +9277,7 @@
       <c r="G63" s="28"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="43"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="25"/>
       <c r="D64" s="34"/>
       <c r="E64" s="1"/>
@@ -9285,20 +9285,913 @@
       <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="43"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="43"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="31"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="44"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="44"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="44"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="44"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="44"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="44"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="44"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="44"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="44"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="44"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="44"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="44"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="44"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="44"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="44"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="44"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="44"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="44"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="44"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="44"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="41"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="44"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="41"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="44"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="44"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="44"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="41"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="44"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="41"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="44"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="44"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="41"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="44"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="41"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="44"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="41"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="44"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="41"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="44"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="41"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="44"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="44"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="44"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="44"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="41"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="44"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="44"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="41"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="44"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="41"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="44"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="41"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="44"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="41"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="44"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="41"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="44"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="41"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="44"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="41"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="44"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="41"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="44"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="41"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="44"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="41"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="44"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="41"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="44"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="41"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="44"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="41"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="44"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="41"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="44"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="41"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="44"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="41"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="44"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="41"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="44"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="41"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="44"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="41"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="44"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="41"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="44"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="41"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="44"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="41"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="44"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="41"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="44"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="41"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="44"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="41"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="44"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="41"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="44"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="41"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="44"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="41"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="44"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="41"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="41"/>
+      <c r="G132" s="44"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="41"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="44"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="41"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="44"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="41"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="44"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="41"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="44"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="41"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="44"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="41"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="44"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="41"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="44"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="41"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="44"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="41"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="44"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="41"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="44"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="41"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="44"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="41"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="44"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="41"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="44"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="41"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="44"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="41"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="44"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="41"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="44"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="41"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="44"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="41"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="44"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="41"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="41"/>
+      <c r="G151" s="44"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="41"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="44"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="41"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="44"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="41"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="44"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="41"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="44"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="41"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="41"/>
+      <c r="G156" s="44"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="41"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="44"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="41"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="41"/>
+      <c r="G158" s="44"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="41"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="41"/>
+      <c r="G159" s="44"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="41"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="41"/>
+      <c r="G160" s="44"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="41"/>
+      <c r="D161" s="42"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="41"/>
+      <c r="G161" s="44"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="41"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="41"/>
+      <c r="G162" s="44"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="41"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="41"/>
+      <c r="G163" s="44"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="41"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="41"/>
+      <c r="G164" s="44"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="41"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="41"/>
+      <c r="G165" s="44"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="41"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="41"/>
+      <c r="G166" s="44"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="41"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="41"/>
+      <c r="G167" s="44"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="41"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="44"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="41"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="41"/>
+      <c r="G169" s="44"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="41"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="43"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="44"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="41"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="41"/>
+      <c r="G171" s="44"/>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="41"/>
+      <c r="D172" s="42"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="41"/>
+      <c r="G172" s="44"/>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="41"/>
+      <c r="D173" s="42"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="41"/>
+      <c r="G173" s="44"/>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="41"/>
+      <c r="D174" s="42"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="41"/>
+      <c r="G174" s="44"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="41"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="44"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="41"/>
+      <c r="D176" s="42"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="41"/>
+      <c r="G176" s="44"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="41"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="41"/>
+      <c r="G177" s="44"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="41"/>
+      <c r="D178" s="42"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="41"/>
+      <c r="G178" s="44"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="41"/>
+      <c r="D179" s="42"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="41"/>
+      <c r="G179" s="44"/>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="41"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="44"/>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="41"/>
+      <c r="D181" s="42"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="41"/>
+      <c r="G181" s="44"/>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="41"/>
+      <c r="D182" s="42"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="41"/>
+      <c r="G182" s="44"/>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="41"/>
+      <c r="D183" s="42"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="41"/>
+      <c r="G183" s="44"/>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="41"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="41"/>
+      <c r="G184" s="44"/>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="41"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="43"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="44"/>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="41"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="43"/>
+      <c r="F186" s="41"/>
+      <c r="G186" s="44"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="41"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="43"/>
+      <c r="F187" s="41"/>
+      <c r="G187" s="44"/>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="41"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="43"/>
+      <c r="F188" s="41"/>
+      <c r="G188" s="44"/>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="41"/>
+      <c r="D189" s="42"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="41"/>
+      <c r="G189" s="44"/>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="41"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="44"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="41"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="41"/>
+      <c r="G191" s="44"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="41"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="41"/>
+      <c r="G192" s="44"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="41"/>
+      <c r="D193" s="42"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="41"/>
+      <c r="G193" s="44"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="10"/>
+      <c r="C194" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -214,6 +214,12 @@
     <t>程飞</t>
   </si>
   <si>
+    <t>久鲜面馆</t>
+  </si>
+  <si>
+    <t>秦总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -319,16 +325,22 @@
     <t>转给高阳</t>
   </si>
   <si>
+    <t>门面转让，取消安装</t>
+  </si>
+  <si>
     <t>土呷呷老鸭汤粉丝</t>
   </si>
   <si>
     <t>机器老板已领走，远程协助装机</t>
   </si>
   <si>
-    <t>久鲜面馆</t>
-  </si>
-  <si>
     <t>刘萌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">制果家旗下-金啡泰茶宿迁店 </t>
+  </si>
+  <si>
+    <t>远程装机，等待开业</t>
   </si>
   <si>
     <t>姓名</t>
@@ -378,13 +390,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,13 +437,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -460,9 +465,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,17 +511,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,23 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,44 +574,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +589,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +665,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,19 +737,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,97 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,20 +819,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1057,37 +1062,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1167,45 +1148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1217,26 +1159,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,8 +1181,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,10 +1253,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1284,137 +1265,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,43 +1516,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1583,10 +1549,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,28 +1579,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,19 +1621,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1992,10 +1955,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2008,519 +1971,556 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="55" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="50" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="62">
+      <c r="A3" s="57">
         <v>12</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="58">
         <v>51</v>
       </c>
-      <c r="C3" s="64">
-        <v>4</v>
-      </c>
-      <c r="D3" s="64">
+      <c r="C3" s="59">
+        <v>1</v>
+      </c>
+      <c r="D3" s="59">
         <v>2</v>
       </c>
-      <c r="E3" s="64">
-        <f>C3-D3</f>
+      <c r="E3" s="59">
         <v>2</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65">
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="72">
         <v>0</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="73">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="74">
         <f>C3+G3</f>
-        <v>4</v>
-      </c>
-      <c r="L3" s="80">
+        <v>1</v>
+      </c>
+      <c r="L3" s="74">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="75">
         <f>L3/K3*100%</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58">
         <v>52</v>
       </c>
-      <c r="C4" s="64">
-        <v>4</v>
-      </c>
-      <c r="D4" s="64">
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59">
         <v>2</v>
       </c>
-      <c r="E4" s="64">
-        <f>C4-D4</f>
+      <c r="E4" s="59">
         <v>2</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="72">
         <v>0</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="73">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="74">
         <f>C4+G4</f>
-        <v>4</v>
-      </c>
-      <c r="L4" s="80">
+        <v>1</v>
+      </c>
+      <c r="L4" s="74">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="75">
         <f>L4/K4*100%</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="62">
+      <c r="A5" s="57">
         <v>1</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="58">
         <v>1</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="59">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59">
         <v>3</v>
       </c>
-      <c r="D5" s="64">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64">
-        <v>3</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60">
         <f t="shared" ref="H4:H13" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="72">
         <v>0</v>
       </c>
-      <c r="J5" s="79" t="e">
+      <c r="J5" s="73" t="e">
         <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="74">
         <f>C5+G5</f>
-        <v>3</v>
-      </c>
-      <c r="L5" s="80">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74">
         <f t="shared" ref="L4:L13" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="75">
         <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58">
         <v>2</v>
       </c>
-      <c r="C6" s="64">
-        <v>3</v>
-      </c>
-      <c r="D6" s="64">
+      <c r="C6" s="59">
+        <v>1</v>
+      </c>
+      <c r="D6" s="59">
         <v>0</v>
       </c>
-      <c r="E6" s="64">
-        <f t="shared" ref="E3:E8" si="4">C6-D6</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65">
+      <c r="E6" s="59">
+        <f>C6-D6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="72">
         <v>0</v>
       </c>
-      <c r="J6" s="79" t="e">
+      <c r="J6" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="80">
-        <f t="shared" ref="K4:K13" si="5">C6+G6</f>
-        <v>3</v>
-      </c>
-      <c r="L6" s="80">
+      <c r="K6" s="74">
+        <f t="shared" ref="K4:K13" si="4">C6+G6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58">
         <v>3</v>
       </c>
-      <c r="C7" s="64">
-        <v>4</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="C7" s="59">
         <v>0</v>
       </c>
-      <c r="E7" s="64">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65">
+      <c r="D7" s="59">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59">
+        <f>C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="72">
         <v>0</v>
       </c>
-      <c r="J7" s="79" t="e">
+      <c r="J7" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="80">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="80">
+      <c r="K7" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58">
+        <v>4</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0</v>
+      </c>
+      <c r="D8" s="59">
+        <v>2</v>
+      </c>
+      <c r="E8" s="59">
+        <v>2</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0</v>
+      </c>
+      <c r="J8" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="74">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58">
+        <v>5</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="59">
+        <v>1</v>
+      </c>
+      <c r="E9" s="59">
+        <v>5</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0</v>
+      </c>
+      <c r="J9" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="61">
+        <v>2</v>
+      </c>
+      <c r="B10" s="62">
+        <v>6</v>
+      </c>
+      <c r="C10" s="59">
+        <v>1</v>
+      </c>
+      <c r="D10" s="59">
+        <v>1</v>
+      </c>
+      <c r="E10" s="59">
+        <v>6</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="72">
+        <v>0</v>
+      </c>
+      <c r="J10" s="73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62">
+        <v>9</v>
+      </c>
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="72">
+        <v>0</v>
+      </c>
+      <c r="J11" s="73" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63">
-        <v>4</v>
-      </c>
-      <c r="C8" s="64">
-        <v>8</v>
-      </c>
-      <c r="D8" s="64">
-        <v>2</v>
-      </c>
-      <c r="E8" s="64">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65">
+    <row r="12" spans="1:13">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62">
+        <v>10</v>
+      </c>
+      <c r="C12" s="59">
+        <v>1</v>
+      </c>
+      <c r="D12" s="59">
+        <v>0</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I12" s="72">
         <v>0</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J12" s="73" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63">
+        <v>11</v>
+      </c>
+      <c r="C13" s="64">
+        <v>1</v>
+      </c>
+      <c r="D13" s="64">
+        <v>1</v>
+      </c>
+      <c r="E13" s="64">
+        <v>7</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="76">
+        <v>0</v>
+      </c>
+      <c r="J13" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="80">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L8" s="80">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="81">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63">
-        <v>5</v>
-      </c>
-      <c r="C9" s="64">
-        <v>6</v>
-      </c>
-      <c r="D9" s="64">
+      <c r="K13" s="78">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E9" s="64">
-        <v>5</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="78">
-        <v>0</v>
-      </c>
-      <c r="J9" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="80">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L9" s="80">
+      <c r="L13" s="78">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="81">
+      <c r="M13" s="79">
         <f t="shared" si="3"/>
-        <v>0.166666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="66">
-        <v>2</v>
-      </c>
-      <c r="B10" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:13">
+      <c r="A14" s="61"/>
+      <c r="B14" s="63">
+        <v>12</v>
+      </c>
+      <c r="C14" s="64">
+        <v>1</v>
+      </c>
+      <c r="D14" s="64">
+        <v>1</v>
+      </c>
+      <c r="E14" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="64">
-        <v>7</v>
-      </c>
-      <c r="D10" s="64">
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65">
+        <f>F14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="76">
+        <v>0</v>
+      </c>
+      <c r="J14" s="77">
+        <f>I14/L14*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="78">
+        <f>C14+G14</f>
         <v>1</v>
       </c>
-      <c r="E10" s="64">
-        <v>6</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="78">
-        <v>0</v>
-      </c>
-      <c r="J10" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="80">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="L10" s="80">
-        <f t="shared" si="2"/>
+      <c r="L14" s="78">
+        <f>D14+G14</f>
         <v>1</v>
       </c>
-      <c r="M10" s="81">
-        <f t="shared" si="3"/>
-        <v>0.142857142857143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="67"/>
-      <c r="B11" s="63">
-        <v>9</v>
-      </c>
-      <c r="C11" s="64">
-        <v>8</v>
-      </c>
-      <c r="D11" s="64">
-        <v>0</v>
-      </c>
-      <c r="E11" s="64">
-        <v>0</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="78">
-        <v>0</v>
-      </c>
-      <c r="J11" s="79" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="80">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L11" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="67"/>
-      <c r="B12" s="63">
-        <v>10</v>
-      </c>
-      <c r="C12" s="64">
-        <v>8</v>
-      </c>
-      <c r="D12" s="64">
-        <v>0</v>
-      </c>
-      <c r="E12" s="64">
-        <v>0</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="78">
-        <v>0</v>
-      </c>
-      <c r="J12" s="79" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="80">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L12" s="80">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69">
-        <v>11</v>
-      </c>
-      <c r="C13" s="70">
-        <v>8</v>
-      </c>
-      <c r="D13" s="70">
+      <c r="M14" s="79">
+        <f>L14/K14*100%</f>
         <v>1</v>
-      </c>
-      <c r="E13" s="70">
-        <v>7</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="82">
-        <v>0</v>
-      </c>
-      <c r="J13" s="83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="84">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="85">
-        <f t="shared" si="3"/>
-        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2528,7 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2541,14 +2541,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2562,50 +2562,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="47" t="s">
+    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="48">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2694,7 +2694,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="49">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2705,7 +2705,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="46">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2750,7 +2750,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="51">
+      <c r="B5" s="46">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3132,21 +3132,51 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14">
+        <v>43178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1">
+        <v>76136526</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1">
+        <v>18652060506</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="13"/>
@@ -7980,7 +8010,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B16:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B6 B17:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7988,16 +8018,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:G193"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="16" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="17" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
@@ -8013,19 +8043,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8039,16 +8069,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8060,16 +8090,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8077,22 +8107,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8104,16 +8134,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8121,43 +8151,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="17">
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="17">
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8165,43 +8195,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="17">
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="17">
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8213,16 +8243,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8230,43 +8260,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="17">
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="17">
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8278,16 +8308,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8295,43 +8325,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="17">
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="17">
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8343,16 +8373,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8364,16 +8394,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8381,43 +8411,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="17">
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="17">
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8429,79 +8459,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8509,106 +8539,106 @@
         <v>5</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="17">
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33"/>
       <c r="B25" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="17">
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8616,106 +8646,106 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" s="17">
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="33"/>
       <c r="B30" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="17">
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8727,16 +8757,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8744,106 +8774,106 @@
         <v>9</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="17">
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="17">
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8855,58 +8885,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -8914,106 +8944,106 @@
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" s="17">
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" s="17">
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9025,58 +9055,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9084,193 +9114,260 @@
         <v>11</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C51" s="17">
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="33"/>
       <c r="B52" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C52" s="17">
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="33"/>
       <c r="B56" s="16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C56" s="38">
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10"/>
       <c r="B57" s="25" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C57" s="17">
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="32">
+        <v>12</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="33"/>
+      <c r="B59" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="33"/>
+      <c r="B60" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="28" t="s">
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="33"/>
+      <c r="B61" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="33"/>
+      <c r="B62" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="39"/>
-      <c r="B58" s="25"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="39"/>
-      <c r="B59" s="25"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="39"/>
-      <c r="B60" s="25"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="39"/>
-      <c r="B61" s="25"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="39"/>
-      <c r="B62" s="25"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
+      <c r="C62" s="38">
+        <v>43172</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="39"/>
-      <c r="B63" s="25"/>
+      <c r="B63" s="31"/>
       <c r="D63" s="34"/>
       <c r="E63" s="1"/>
       <c r="F63" s="27"/>
@@ -9278,923 +9375,907 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="39"/>
-      <c r="B64" s="25"/>
+      <c r="B64" s="31"/>
       <c r="D64" s="34"/>
       <c r="E64" s="1"/>
       <c r="F64" s="27"/>
       <c r="G64" s="28"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="39"/>
-      <c r="B65" s="31"/>
+    <row r="65" spans="2:7">
+      <c r="B65" s="27"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="39"/>
-      <c r="B66" s="31"/>
+    <row r="66" spans="2:7">
+      <c r="B66" s="27"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="41"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="44"/>
+      <c r="B67" s="27"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="41"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="44"/>
+      <c r="B68" s="27"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="44"/>
+      <c r="B69" s="27"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="41"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="44"/>
+      <c r="B70" s="27"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="41"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="44"/>
+      <c r="B71" s="27"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="41"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="44"/>
+      <c r="B72" s="27"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="41"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="44"/>
+      <c r="B73" s="27"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="41"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="44"/>
+      <c r="B74" s="27"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="41"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="44"/>
+      <c r="B75" s="27"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="41"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="44"/>
+      <c r="B76" s="27"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="41"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="44"/>
+      <c r="B77" s="27"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="44"/>
+      <c r="B78" s="27"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="41"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="44"/>
+      <c r="B79" s="27"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="44"/>
+      <c r="B80" s="27"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="41"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="44"/>
+      <c r="B81" s="27"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="44"/>
+      <c r="B82" s="27"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="41"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="44"/>
+      <c r="B83" s="27"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="44"/>
+      <c r="B84" s="27"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="41"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="44"/>
+      <c r="B85" s="27"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="41"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="44"/>
+      <c r="B86" s="27"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="41"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="44"/>
+      <c r="B87" s="27"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="41"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="44"/>
+      <c r="B88" s="27"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="41"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="44"/>
+      <c r="B89" s="27"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="44"/>
+      <c r="B90" s="27"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="41"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="44"/>
+      <c r="B91" s="27"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="41"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="44"/>
+      <c r="B92" s="27"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="41"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="44"/>
+      <c r="B93" s="27"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="41"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="44"/>
+      <c r="B94" s="27"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="41"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="44"/>
+      <c r="B95" s="27"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="41"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="44"/>
+      <c r="B96" s="27"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="41"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="44"/>
+      <c r="B97" s="27"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="41"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="44"/>
+      <c r="B98" s="27"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="41"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="44"/>
+      <c r="B99" s="27"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="41"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="44"/>
+      <c r="B100" s="27"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="41"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="44"/>
+      <c r="B101" s="27"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="41"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="44"/>
+      <c r="B102" s="27"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="41"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="44"/>
+      <c r="B103" s="27"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="41"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="44"/>
+      <c r="B104" s="27"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="41"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="44"/>
+      <c r="B105" s="27"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="41"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="44"/>
+      <c r="B106" s="27"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="41"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="44"/>
+      <c r="B107" s="27"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="41"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="44"/>
+      <c r="B108" s="27"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="41"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="44"/>
+      <c r="B109" s="27"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="41"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="44"/>
+      <c r="B110" s="27"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="41"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="44"/>
+      <c r="B111" s="27"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="41"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="44"/>
+      <c r="B112" s="27"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="41"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="44"/>
+      <c r="B113" s="27"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="41"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="44"/>
+      <c r="B114" s="27"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="41"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="44"/>
+      <c r="B115" s="27"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="41"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="44"/>
+      <c r="B116" s="27"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="41"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="44"/>
+      <c r="B117" s="27"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="41"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="44"/>
+      <c r="B118" s="27"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="41"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="44"/>
+      <c r="B119" s="27"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="41"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="44"/>
+      <c r="B120" s="27"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="41"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="44"/>
+      <c r="B121" s="27"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="41"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="44"/>
+      <c r="B122" s="27"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="41"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="44"/>
+      <c r="B123" s="27"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="41"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="44"/>
+      <c r="B124" s="27"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="41"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="44"/>
+      <c r="B125" s="27"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="41"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="44"/>
+      <c r="B126" s="27"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="41"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="44"/>
+      <c r="B127" s="27"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="41"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="44"/>
+      <c r="B128" s="27"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="41"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="44"/>
+      <c r="B129" s="27"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="41"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="44"/>
+      <c r="B130" s="27"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="41"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="44"/>
+      <c r="B131" s="27"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="41"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="44"/>
+      <c r="B132" s="27"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="41"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="44"/>
+      <c r="B133" s="27"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="41"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="44"/>
+      <c r="B134" s="27"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="41"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="44"/>
+      <c r="B135" s="27"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="41"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="44"/>
+      <c r="B136" s="27"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="41"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="44"/>
+      <c r="B137" s="27"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="41"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="44"/>
+      <c r="B138" s="27"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="41"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="44"/>
+      <c r="B139" s="27"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="28"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="41"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="44"/>
+      <c r="B140" s="27"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="41"/>
-      <c r="D141" s="42"/>
-      <c r="E141" s="43"/>
-      <c r="F141" s="41"/>
-      <c r="G141" s="44"/>
+      <c r="B141" s="27"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="28"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="41"/>
-      <c r="D142" s="42"/>
-      <c r="E142" s="43"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="44"/>
+      <c r="B142" s="27"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="41"/>
-      <c r="D143" s="42"/>
-      <c r="E143" s="43"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="44"/>
+      <c r="B143" s="27"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="41"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="44"/>
+      <c r="B144" s="27"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="41"/>
-      <c r="D145" s="42"/>
-      <c r="E145" s="43"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="44"/>
+      <c r="B145" s="27"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="41"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="43"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="44"/>
+      <c r="B146" s="27"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="28"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="41"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="43"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="44"/>
+      <c r="B147" s="27"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="28"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="41"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="41"/>
-      <c r="G148" s="44"/>
+      <c r="B148" s="27"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="41"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="44"/>
+      <c r="B149" s="27"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="41"/>
-      <c r="D150" s="42"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="44"/>
+      <c r="B150" s="27"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="41"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="44"/>
+      <c r="B151" s="27"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="41"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="43"/>
-      <c r="F152" s="41"/>
-      <c r="G152" s="44"/>
+      <c r="B152" s="27"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="41"/>
-      <c r="D153" s="42"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="44"/>
+      <c r="B153" s="27"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="28"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="41"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="44"/>
+      <c r="B154" s="27"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="41"/>
-      <c r="D155" s="42"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="44"/>
+      <c r="B155" s="27"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="41"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="44"/>
+      <c r="B156" s="27"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="41"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="41"/>
-      <c r="G157" s="44"/>
+      <c r="B157" s="27"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="28"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="41"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="44"/>
+      <c r="B158" s="27"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="28"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="41"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="41"/>
-      <c r="G159" s="44"/>
+      <c r="B159" s="27"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="41"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="41"/>
-      <c r="G160" s="44"/>
+      <c r="B160" s="27"/>
+      <c r="D160" s="34"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="41"/>
-      <c r="D161" s="42"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="41"/>
-      <c r="G161" s="44"/>
+      <c r="B161" s="27"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="41"/>
-      <c r="D162" s="42"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="41"/>
-      <c r="G162" s="44"/>
+      <c r="B162" s="27"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="41"/>
-      <c r="D163" s="42"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="41"/>
-      <c r="G163" s="44"/>
+      <c r="B163" s="27"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="41"/>
-      <c r="D164" s="42"/>
-      <c r="E164" s="43"/>
-      <c r="F164" s="41"/>
-      <c r="G164" s="44"/>
+      <c r="B164" s="27"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="41"/>
-      <c r="D165" s="42"/>
-      <c r="E165" s="43"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="44"/>
+      <c r="B165" s="27"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="28"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="41"/>
-      <c r="D166" s="42"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="41"/>
-      <c r="G166" s="44"/>
+      <c r="B166" s="27"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="41"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="41"/>
-      <c r="G167" s="44"/>
+      <c r="B167" s="27"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="41"/>
-      <c r="D168" s="42"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="44"/>
+      <c r="B168" s="27"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="41"/>
-      <c r="D169" s="42"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="44"/>
+      <c r="B169" s="27"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="41"/>
-      <c r="D170" s="42"/>
-      <c r="E170" s="43"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="44"/>
+      <c r="B170" s="27"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="41"/>
-      <c r="D171" s="42"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="41"/>
-      <c r="G171" s="44"/>
+      <c r="B171" s="27"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="41"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="41"/>
-      <c r="G172" s="44"/>
+      <c r="B172" s="27"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="41"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="44"/>
+      <c r="B173" s="27"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="41"/>
-      <c r="D174" s="42"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="41"/>
-      <c r="G174" s="44"/>
+      <c r="B174" s="27"/>
+      <c r="D174" s="34"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="41"/>
-      <c r="D175" s="42"/>
-      <c r="E175" s="43"/>
-      <c r="F175" s="41"/>
-      <c r="G175" s="44"/>
+      <c r="B175" s="27"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="41"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="41"/>
-      <c r="G176" s="44"/>
+      <c r="B176" s="27"/>
+      <c r="D176" s="34"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="41"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="44"/>
+      <c r="B177" s="27"/>
+      <c r="D177" s="34"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="41"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="41"/>
-      <c r="G178" s="44"/>
+      <c r="B178" s="27"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="41"/>
-      <c r="D179" s="42"/>
-      <c r="E179" s="43"/>
-      <c r="F179" s="41"/>
-      <c r="G179" s="44"/>
+      <c r="B179" s="27"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="41"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="41"/>
-      <c r="G180" s="44"/>
+      <c r="B180" s="27"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="41"/>
-      <c r="D181" s="42"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="41"/>
-      <c r="G181" s="44"/>
+      <c r="B181" s="27"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="41"/>
-      <c r="D182" s="42"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="41"/>
-      <c r="G182" s="44"/>
+      <c r="B182" s="27"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="41"/>
-      <c r="D183" s="42"/>
-      <c r="E183" s="43"/>
-      <c r="F183" s="41"/>
-      <c r="G183" s="44"/>
+      <c r="B183" s="27"/>
+      <c r="D183" s="34"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="28"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="41"/>
-      <c r="D184" s="42"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="44"/>
+      <c r="B184" s="27"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="41"/>
-      <c r="D185" s="42"/>
-      <c r="E185" s="43"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="44"/>
+      <c r="B185" s="27"/>
+      <c r="D185" s="34"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="41"/>
-      <c r="D186" s="42"/>
-      <c r="E186" s="43"/>
-      <c r="F186" s="41"/>
-      <c r="G186" s="44"/>
+      <c r="B186" s="27"/>
+      <c r="D186" s="34"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="41"/>
-      <c r="D187" s="42"/>
-      <c r="E187" s="43"/>
-      <c r="F187" s="41"/>
-      <c r="G187" s="44"/>
+      <c r="B187" s="27"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="41"/>
-      <c r="D188" s="42"/>
-      <c r="E188" s="43"/>
-      <c r="F188" s="41"/>
-      <c r="G188" s="44"/>
+      <c r="B188" s="27"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="41"/>
-      <c r="D189" s="42"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="41"/>
-      <c r="G189" s="44"/>
+      <c r="B189" s="27"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="41"/>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="41"/>
-      <c r="G190" s="44"/>
+      <c r="B190" s="27"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="41"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="43"/>
-      <c r="F191" s="41"/>
-      <c r="G191" s="44"/>
-    </row>
-    <row r="192" spans="2:7">
-      <c r="B192" s="41"/>
-      <c r="D192" s="42"/>
-      <c r="E192" s="43"/>
-      <c r="F192" s="41"/>
-      <c r="G192" s="44"/>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="B193" s="41"/>
-      <c r="D193" s="42"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="41"/>
-      <c r="G193" s="44"/>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="10"/>
-      <c r="C194" s="38"/>
+      <c r="B191" s="27"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="28"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="10"/>
+      <c r="C192" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10207,13 +10288,14 @@
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A62"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E57:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E57 E60 E61 E62 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E58:E59 E63:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F57:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F57 F60 F61 F62 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F58:F59 F63:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10246,21 +10328,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10269,15 +10351,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10286,15 +10368,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10306,12 +10388,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10320,10 +10402,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -220,6 +220,30 @@
     <t>秦总</t>
   </si>
   <si>
+    <t>牛杯杯饮品</t>
+  </si>
+  <si>
+    <t>牛杯杯</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>土呷呷老鸭汤粉丝</t>
+  </si>
+  <si>
+    <t>南京制果家餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>金啡泰茶</t>
+  </si>
+  <si>
+    <t>宿州</t>
+  </si>
+  <si>
+    <t>金啡泰茶（宿州店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -326,9 +350,6 @@
   </si>
   <si>
     <t>门面转让，取消安装</t>
-  </si>
-  <si>
-    <t>土呷呷老鸭汤粉丝</t>
   </si>
   <si>
     <t>机器老板已领走，远程协助装机</t>
@@ -390,11 +411,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -465,38 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,17 +503,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,24 +533,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +565,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,14 +611,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,7 +686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,85 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,19 +800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,18 +830,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1063,34 +1084,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1133,17 +1126,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1176,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,67 +1218,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,149 +1231,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,30 +1491,42 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1585,19 +1575,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,19 +1602,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1955,10 +1927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1971,564 +1943,602 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="57">
+      <c r="A3" s="61">
         <v>12</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="62">
         <v>51</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="63">
         <v>1</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="63">
         <v>2</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="63">
         <v>2</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="73">
         <v>0</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="74">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="75">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="75">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="76">
         <f>L3/K3*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62">
         <v>52</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="63">
         <v>1</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="63">
         <v>2</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="63">
         <v>2</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60">
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="73">
         <v>0</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="74">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="75">
         <f>C4+G4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="75">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="76">
         <f>L4/K4*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="57">
+      <c r="A5" s="65">
         <v>1</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="63">
         <v>1</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="63">
         <v>3</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60">
-        <f t="shared" ref="H4:H13" si="0">F5-G5</f>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64">
+        <f t="shared" ref="H4:H14" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="73">
         <v>0</v>
       </c>
-      <c r="J5" s="73" t="e">
-        <f t="shared" ref="J5:J13" si="1">I5/L5*100%</f>
+      <c r="J5" s="74" t="e">
+        <f t="shared" ref="J5:J14" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="75">
         <f>C5+G5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="74">
-        <f t="shared" ref="L4:L13" si="2">D5+G5</f>
+      <c r="L5" s="75">
+        <f t="shared" ref="L4:L14" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="75">
-        <f t="shared" ref="M4:M13" si="3">L5/K5*100%</f>
+      <c r="M5" s="76">
+        <f t="shared" ref="M4:M14" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66">
         <v>2</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="63">
         <v>0</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="63">
         <f>C6-D6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="73">
         <v>0</v>
       </c>
-      <c r="J6" s="73" t="e">
+      <c r="J6" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="74">
-        <f t="shared" ref="K4:K13" si="4">C6+G6</f>
+      <c r="K6" s="75">
+        <f t="shared" ref="K4:K14" si="4">C6+G6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="75">
+      <c r="M6" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66">
         <v>3</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="63">
         <v>0</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="63">
         <v>0</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="63">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="73">
         <v>0</v>
       </c>
-      <c r="J7" s="73" t="e">
+      <c r="J7" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="75" t="e">
+      <c r="M7" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58">
+      <c r="A8" s="65">
+        <v>2</v>
+      </c>
+      <c r="B8" s="66">
         <v>4</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="63">
         <v>0</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="63">
         <v>2</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="73">
         <v>0</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="75">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="75" t="e">
+      <c r="M8" s="76" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66">
         <v>5</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="63">
         <v>1</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="63">
         <v>1</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="63">
         <v>5</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60">
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="73">
         <v>0</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="75">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="61">
-        <v>2</v>
-      </c>
-      <c r="B10" s="62">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66">
         <v>6</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="63">
         <v>1</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="63">
         <v>1</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="63">
         <v>6</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60">
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="73">
         <v>0</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="75">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66">
         <v>9</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="63">
         <v>1</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="63">
         <v>0</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="63">
         <v>0</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60">
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="73">
         <v>0</v>
       </c>
-      <c r="J11" s="73" t="e">
+      <c r="J11" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="61"/>
+      <c r="A12" s="65">
+        <v>3</v>
+      </c>
       <c r="B12" s="62">
         <v>10</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="63">
         <v>1</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="63">
         <v>0</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="63">
         <v>0</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60">
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="73">
         <v>0</v>
       </c>
-      <c r="J12" s="73" t="e">
+      <c r="J12" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63">
+    <row r="13" spans="1:13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="62">
         <v>11</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <v>1</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>1</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>7</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65">
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="73">
         <v>0</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="74">
+        <f>I13/L13*100%</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="65"/>
+      <c r="B14" s="62">
+        <v>12</v>
+      </c>
+      <c r="C14" s="63">
+        <v>1</v>
+      </c>
+      <c r="D14" s="63">
+        <v>1</v>
+      </c>
+      <c r="E14" s="63">
+        <v>6</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="73">
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K14" s="75">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L14" s="75">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="79">
+      <c r="M14" s="77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="61"/>
-      <c r="B14" s="63">
-        <v>12</v>
-      </c>
-      <c r="C14" s="64">
+    <row r="15" spans="1:13">
+      <c r="A15" s="65"/>
+      <c r="B15" s="49">
+        <v>13</v>
+      </c>
+      <c r="C15" s="63">
+        <v>3</v>
+      </c>
+      <c r="D15" s="63">
+        <v>2</v>
+      </c>
+      <c r="E15" s="63">
+        <v>3</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="73">
+        <v>2</v>
+      </c>
+      <c r="J15" s="74">
+        <f>I15/L15*100%</f>
         <v>1</v>
       </c>
-      <c r="D14" s="64">
-        <v>1</v>
-      </c>
-      <c r="E14" s="64">
-        <v>6</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65">
-        <f>F14-G14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="76">
-        <v>0</v>
-      </c>
-      <c r="J14" s="77">
-        <f>I14/L14*100%</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="78">
-        <f>C14+G14</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="78">
-        <f>D14+G14</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="79">
-        <f>L14/K14*100%</f>
-        <v>1</v>
+      <c r="K15" s="75">
+        <v>5</v>
+      </c>
+      <c r="L15" s="75">
+        <v>2</v>
+      </c>
+      <c r="M15" s="77">
+        <f>L15/K15*100%</f>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2541,14 +2551,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2562,50 +2572,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2649,7 +2659,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="52">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2694,7 +2704,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="53">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2705,7 +2715,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2750,7 +2760,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3179,41 +3189,99 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="49">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14">
+        <v>43183</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1">
+        <v>76136910</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" s="1">
+        <v>13665212229</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="14">
+        <v>43185</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1">
+        <v>76138656</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1">
+        <v>13855700368</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="13"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="14"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7990,10 +8058,11 @@
       <c r="O299" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8010,7 +8079,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B17:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B19:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8021,7 +8090,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8043,19 +8112,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8069,16 +8138,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8090,16 +8159,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8107,22 +8176,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8134,16 +8203,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8151,43 +8220,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C6" s="17">
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C7" s="17">
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8195,43 +8264,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C8" s="17">
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C9" s="17">
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8243,16 +8312,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8260,43 +8329,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C11" s="17">
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C12" s="17">
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8308,16 +8377,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8325,43 +8394,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C14" s="17">
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C15" s="17">
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8373,16 +8442,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8394,16 +8463,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8411,43 +8480,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C18" s="17">
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C19" s="17">
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8459,79 +8528,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8539,106 +8608,106 @@
         <v>5</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C24" s="17">
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33"/>
       <c r="B25" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C25" s="17">
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8646,106 +8715,106 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C29" s="17">
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="33"/>
       <c r="B30" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C30" s="17">
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8757,16 +8826,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G34" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8774,106 +8843,106 @@
         <v>9</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C35" s="17">
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C36" s="17">
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8885,58 +8954,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G40" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -8944,106 +9013,106 @@
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C43" s="17">
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="25" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C44" s="17">
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9055,58 +9124,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G48" s="31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G49" s="28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9114,127 +9183,127 @@
         <v>11</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C51" s="17">
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="33"/>
       <c r="B52" s="31" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C52" s="17">
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G54" s="28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="33"/>
       <c r="B56" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C56" s="38">
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9246,16 +9315,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9263,141 +9332,184 @@
         <v>12</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C58" s="17">
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="33"/>
       <c r="B59" s="31" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C59" s="17">
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G60" s="28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="33"/>
       <c r="B62" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C62" s="38">
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:7">
+      <c r="A63" s="39">
+        <v>13</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="40"/>
+      <c r="B64" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="41"/>
+      <c r="B65" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="39"/>
-      <c r="B63" s="31"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="39"/>
-      <c r="B64" s="31"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="27"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
+      <c r="F65" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="27"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
     </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="27"/>
-      <c r="D67" s="34"/>
+    <row r="67" spans="3:7">
+      <c r="C67" s="38"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="27"/>
       <c r="G67" s="28"/>
@@ -10275,7 +10387,7 @@
       <c r="C192" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10289,13 +10401,14 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A65"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E57 E60 E61 E62 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E58:E59 E63:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E57 E60 E61 E62 E65 E66 E67 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E58:E59 E63:E64 E68:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F57 F60 F61 F62 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F58:F59 F63:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F57 F60 F61 F62 F65 F66 F67 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F58:F59 F63:F64 F68:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10328,21 +10441,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10351,15 +10464,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10368,15 +10481,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10388,12 +10501,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10402,10 +10515,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -244,6 +244,30 @@
     <t>金啡泰茶（宿州店）</t>
   </si>
   <si>
+    <t>滋食奇果</t>
+  </si>
+  <si>
+    <t>滋食奇果-便当</t>
+  </si>
+  <si>
+    <t>滋食奇果-果汁</t>
+  </si>
+  <si>
+    <t>广州新明伙餐饮管理有限公司-滷爺滷水</t>
+  </si>
+  <si>
+    <t>滷爺滷水</t>
+  </si>
+  <si>
+    <t>大滷爷</t>
+  </si>
+  <si>
+    <t>吕经理</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -283,16 +307,10 @@
     <t>装潢中</t>
   </si>
   <si>
-    <t>滋食奇果-便当</t>
-  </si>
-  <si>
     <t>连锁</t>
   </si>
   <si>
     <t>肖如梦</t>
-  </si>
-  <si>
-    <t>滋食奇果-果汁</t>
   </si>
   <si>
     <t>SAAS+微信+供应链</t>
@@ -411,13 +429,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +486,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -601,9 +625,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,8 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,138 +710,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,7 +728,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,10 +1255,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,137 +1267,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,6 +1515,27 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,31 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,10 +1560,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1575,10 +1596,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,8 +1950,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1943,593 +1964,593 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="53" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="68"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="71" t="s">
+      <c r="L2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="61">
+      <c r="A3" s="60">
         <v>12</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="61">
         <v>51</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="62">
         <v>1</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="62">
         <v>2</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="62">
         <v>2</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <v>0</v>
       </c>
-      <c r="J3" s="74">
+      <c r="J3" s="73">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="74">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="74">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="75">
         <f>L3/K3*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61">
         <v>52</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="62">
         <v>1</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="62">
         <v>2</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="62">
         <v>2</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="72">
         <v>0</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="73">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="74">
         <f>C4+G4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="74">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="75">
         <f>L4/K4*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="62">
         <v>1</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="62">
         <v>0</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="62">
         <v>3</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63">
         <f t="shared" ref="H4:H14" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="72">
         <v>0</v>
       </c>
-      <c r="J5" s="74" t="e">
-        <f t="shared" ref="J5:J14" si="1">I5/L5*100%</f>
+      <c r="J5" s="73" t="e">
+        <f t="shared" ref="J5:J15" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="74">
         <f>C5+G5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="74">
         <f t="shared" ref="L4:L14" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="76">
-        <f t="shared" ref="M4:M14" si="3">L5/K5*100%</f>
+      <c r="M5" s="75">
+        <f t="shared" ref="M4:M15" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65">
         <v>2</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <v>1</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="62">
         <v>0</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="62">
         <f>C6-D6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="72">
         <v>0</v>
       </c>
-      <c r="J6" s="74" t="e">
+      <c r="J6" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="74">
         <f t="shared" ref="K4:K14" si="4">C6+G6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65">
         <v>3</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="62">
         <v>0</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="62">
         <v>0</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="62">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>0</v>
       </c>
-      <c r="J7" s="74" t="e">
+      <c r="J7" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="76" t="e">
+      <c r="M7" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="65">
+      <c r="A8" s="64">
         <v>2</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="65">
         <v>4</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <v>0</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="62">
         <v>2</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>2</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="72">
         <v>0</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="74">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="76" t="e">
+      <c r="M8" s="75" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65">
         <v>5</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>1</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <v>1</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <v>5</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <v>0</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65">
         <v>6</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>1</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>1</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>6</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="72">
         <v>0</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65">
         <v>9</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>1</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="62">
         <v>0</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <v>0</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="72">
         <v>0</v>
       </c>
-      <c r="J11" s="74" t="e">
+      <c r="J11" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="75">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="65">
+      <c r="A12" s="64">
         <v>3</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="61">
         <v>10</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="62">
         <v>1</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="62">
         <v>0</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>0</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64">
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="72">
         <v>0</v>
       </c>
-      <c r="J12" s="74" t="e">
+      <c r="J12" s="73" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="76">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="65"/>
-      <c r="B13" s="62">
+      <c r="A13" s="64"/>
+      <c r="B13" s="61">
         <v>11</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="62">
         <v>1</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="62">
         <v>1</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="62">
         <v>7</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="72">
         <v>0</v>
       </c>
-      <c r="J13" s="74">
-        <f>I13/L13*100%</f>
+      <c r="J13" s="73">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="65"/>
-      <c r="B14" s="62">
+      <c r="A14" s="64"/>
+      <c r="B14" s="61">
         <v>12</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="62">
         <v>1</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="62">
         <v>1</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="62">
         <v>6</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64">
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="72">
         <v>0</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="65"/>
-      <c r="B15" s="49">
+      <c r="A15" s="64"/>
+      <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="62">
         <v>3</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="62">
+        <v>5</v>
+      </c>
+      <c r="E15" s="62">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="72">
         <v>2</v>
       </c>
-      <c r="E15" s="63">
-        <v>3</v>
-      </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="73">
-        <v>2</v>
-      </c>
-      <c r="J15" s="74">
-        <f>I15/L15*100%</f>
+      <c r="J15" s="73">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="74">
+        <v>5</v>
+      </c>
+      <c r="L15" s="74">
+        <v>5</v>
+      </c>
+      <c r="M15" s="76">
+        <f t="shared" si="3"/>
         <v>1</v>
-      </c>
-      <c r="K15" s="75">
-        <v>5</v>
-      </c>
-      <c r="L15" s="75">
-        <v>2</v>
-      </c>
-      <c r="M15" s="77">
-        <f>L15/K15*100%</f>
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -2551,14 +2572,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2572,50 +2593,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2659,7 +2680,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="51">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2704,7 +2725,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="52">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2715,7 +2736,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2760,7 +2781,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3189,7 +3210,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="49">
+      <c r="A17" s="46">
         <v>13</v>
       </c>
       <c r="B17" s="14">
@@ -3236,7 +3257,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="49"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="14">
         <v>43185</v>
       </c>
@@ -3281,55 +3302,139 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="50"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="14">
+        <v>43187</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76118117</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1">
+        <v>13451825178</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="14">
+        <v>43187</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1">
+        <v>76118257</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="1">
+        <v>13451825178</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="14">
+        <v>43187</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76150913</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="1">
+        <v>18913027512</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="13"/>
@@ -8062,7 +8167,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8079,7 +8184,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B19:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B6 B22:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8090,7 +8195,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8112,19 +8217,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8138,16 +8243,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8159,16 +8264,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8176,22 +8281,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8203,16 +8308,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8220,43 +8325,43 @@
         <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C6" s="17">
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17">
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8264,43 +8369,43 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C8" s="17">
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C9" s="17">
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8312,16 +8417,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8329,43 +8434,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C11" s="17">
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="33"/>
       <c r="B12" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C12" s="17">
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8377,16 +8482,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8394,43 +8499,43 @@
         <v>3</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C14" s="17">
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C15" s="17">
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8442,16 +8547,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8463,16 +8568,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8480,43 +8585,43 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C18" s="17">
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F18" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33"/>
       <c r="B19" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C19" s="17">
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F19" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8528,79 +8633,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8608,106 +8713,106 @@
         <v>5</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C24" s="17">
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F24" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="33"/>
       <c r="B25" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C25" s="17">
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F25" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8715,106 +8820,106 @@
         <v>6</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C29" s="17">
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F29" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="33"/>
       <c r="B30" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C30" s="17">
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F30" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8826,16 +8931,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8843,106 +8948,106 @@
         <v>9</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C35" s="17">
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F35" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="33"/>
       <c r="B36" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C36" s="17">
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F36" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8954,58 +9059,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -9013,106 +9118,106 @@
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C43" s="17">
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F43" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="33"/>
       <c r="B44" s="25" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C44" s="17">
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F44" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9124,58 +9229,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9183,106 +9288,106 @@
         <v>11</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C51" s="17">
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F51" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="33"/>
       <c r="B52" s="31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C52" s="17">
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F52" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9294,16 +9399,16 @@
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="28" t="s">
         <v>111</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9315,16 +9420,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9332,85 +9437,85 @@
         <v>12</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C58" s="17">
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F58" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="33"/>
       <c r="B59" s="31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C59" s="17">
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F59" s="27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9422,86 +9527,47 @@
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="39">
-        <v>13</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="17">
-        <v>43094</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>90</v>
-      </c>
+      <c r="A63" s="32"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="40"/>
-      <c r="B64" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="17">
-        <v>43459</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>90</v>
-      </c>
+      <c r="A64" s="33"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="41"/>
-      <c r="B65" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="17">
-        <v>43158</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>105</v>
-      </c>
+      <c r="A65" s="10"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="31"/>
-      <c r="C66" s="17"/>
       <c r="D66" s="34"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
@@ -9509,7 +9575,6 @@
     </row>
     <row r="67" spans="3:7">
       <c r="C67" s="38"/>
-      <c r="D67" s="18"/>
       <c r="E67" s="1"/>
       <c r="F67" s="27"/>
       <c r="G67" s="28"/>
@@ -10441,21 +10506,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10464,15 +10529,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10481,15 +10546,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10501,12 +10566,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10515,10 +10580,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>负责人</t>
+  </si>
+  <si>
+    <t>江苏福客多餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>福客多</t>
+  </si>
+  <si>
+    <t>福客多中式快餐</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -429,10 +438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -510,29 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -587,6 +573,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,27 +636,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,30 +719,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -788,12 +773,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -825,6 +804,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,16 +1159,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1175,21 +1184,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1200,6 +1194,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,21 +1248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1255,10 +1264,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,91 +1276,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1363,37 +1372,37 @@
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1542,11 +1551,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1951,7 +1960,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2527,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="62">
         <v>0</v>
@@ -2540,13 +2549,13 @@
       </c>
       <c r="J15" s="73">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K15" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" si="3"/>
@@ -2573,7 +2582,7 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3392,7 +3401,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="48"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="14">
         <v>43187</v>
       </c>
@@ -3402,7 +3411,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="48" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3411,7 +3420,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="48" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3437,21 +3446,49 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="14">
+        <v>43187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76133055</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="1">
+        <v>13357838381</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13"/>
@@ -8167,7 +8204,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8184,7 +8221,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B22:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B23:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8217,19 +8254,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8243,16 +8280,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8264,16 +8301,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8281,22 +8318,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8308,16 +8345,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8331,16 +8368,16 @@
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
@@ -8352,16 +8389,16 @@
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8375,16 +8412,16 @@
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8396,16 +8433,16 @@
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8417,16 +8454,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8440,16 +8477,16 @@
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8461,16 +8498,16 @@
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8482,16 +8519,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8505,16 +8542,16 @@
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8526,16 +8563,16 @@
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8547,16 +8584,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8568,16 +8605,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8591,16 +8628,16 @@
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8612,16 +8649,16 @@
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8633,79 +8670,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8719,16 +8756,16 @@
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8740,79 +8777,79 @@
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8826,16 +8863,16 @@
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8847,79 +8884,79 @@
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8931,16 +8968,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8954,16 +8991,16 @@
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8975,79 +9012,79 @@
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9059,58 +9096,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -9124,16 +9161,16 @@
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9145,79 +9182,79 @@
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9229,58 +9266,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9294,16 +9331,16 @@
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9315,79 +9352,79 @@
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9399,16 +9436,16 @@
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9420,16 +9457,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9443,16 +9480,16 @@
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9464,58 +9501,58 @@
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9527,22 +9564,21 @@
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
       <c r="A63" s="32"/>
       <c r="B63" s="36"/>
-      <c r="C63" s="17"/>
       <c r="D63" s="26"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
@@ -9551,7 +9587,6 @@
     <row r="64" spans="1:7">
       <c r="A64" s="33"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="17"/>
       <c r="D64" s="26"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -9560,7 +9595,6 @@
     <row r="65" spans="1:7">
       <c r="A65" s="10"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="17"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
       <c r="F65" s="27"/>
@@ -10506,21 +10540,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10529,15 +10563,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10546,15 +10580,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10566,12 +10600,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10580,10 +10614,10 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -391,6 +391,9 @@
     <t>远程装机，等待开业</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -431,6 +434,15 @@
   </si>
   <si>
     <t>驻店培训</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>大卤爷</t>
+  </si>
+  <si>
+    <t>营业驻店</t>
   </si>
 </sst>
 </file>
@@ -438,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -573,6 +585,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -612,30 +648,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +785,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -828,12 +846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,6 +1210,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1230,26 +1262,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1264,97 +1276,97 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1372,27 +1384,27 @@
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1406,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,6 +1536,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,17 +1560,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1973,591 +1979,591 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="60">
+      <c r="A3" s="58">
         <v>12</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="59">
         <v>51</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="60">
         <v>1</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="60">
         <v>2</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="60">
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="70">
         <v>0</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="71">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="72">
         <f>C3+G3</f>
         <v>1</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="72">
         <f>D3+G3</f>
         <v>2</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="73">
         <f>L3/K3*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59">
         <v>52</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="60">
         <v>2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>2</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63">
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="70">
         <v>0</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="71">
         <f>I4/L4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="72">
         <f>C4+G4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="72">
         <f>D4+G4</f>
         <v>2</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="73">
         <f>L4/K4*100%</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="64">
+      <c r="A5" s="62">
         <v>1</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="63">
         <v>1</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="60">
         <v>1</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="60">
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="60">
         <v>3</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63">
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61">
         <f t="shared" ref="H4:H14" si="0">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="70">
         <v>0</v>
       </c>
-      <c r="J5" s="73" t="e">
+      <c r="J5" s="71" t="e">
         <f t="shared" ref="J5:J15" si="1">I5/L5*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="72">
         <f>C5+G5</f>
         <v>1</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="72">
         <f t="shared" ref="L4:L14" si="2">D5+G5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="75">
+      <c r="M5" s="73">
         <f t="shared" ref="M4:M15" si="3">L5/K5*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63">
         <v>2</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="60">
         <v>1</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="60">
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="60">
         <f>C6-D6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="70">
         <v>0</v>
       </c>
-      <c r="J6" s="73" t="e">
+      <c r="J6" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="74">
+      <c r="K6" s="72">
         <f t="shared" ref="K4:K14" si="4">C6+G6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="75">
+      <c r="M6" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63">
         <v>3</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="60">
         <v>0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="60">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="70">
         <v>0</v>
       </c>
-      <c r="J7" s="73" t="e">
+      <c r="J7" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="74">
+      <c r="K7" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="75" t="e">
+      <c r="M7" s="73" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="64">
+      <c r="A8" s="62">
         <v>2</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>4</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="60">
         <v>0</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="60">
         <v>2</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="60">
         <v>2</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="70">
         <v>0</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="72">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="75" t="e">
+      <c r="M8" s="73" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63">
         <v>5</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="60">
         <v>1</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="60">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="60">
         <v>5</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="70">
         <v>0</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="73">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65">
+      <c r="A10" s="62"/>
+      <c r="B10" s="63">
         <v>6</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="60">
         <v>1</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="60">
         <v>1</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="60">
         <v>6</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63">
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="70">
         <v>0</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M10" s="75">
+      <c r="M10" s="73">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65">
+      <c r="A11" s="62"/>
+      <c r="B11" s="63">
         <v>9</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="60">
         <v>0</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="70">
         <v>0</v>
       </c>
-      <c r="J11" s="73" t="e">
+      <c r="J11" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="75">
+      <c r="M11" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="64">
+      <c r="A12" s="62">
         <v>3</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="59">
         <v>10</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="60">
         <v>1</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="60">
         <v>0</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="60">
         <v>0</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="70">
         <v>0</v>
       </c>
-      <c r="J12" s="73" t="e">
+      <c r="J12" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61">
+      <c r="A13" s="62"/>
+      <c r="B13" s="59">
         <v>11</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="60">
         <v>1</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="60">
         <v>1</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="60">
         <v>7</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63">
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="70">
         <v>0</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="74">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="64"/>
-      <c r="B14" s="61">
+      <c r="A14" s="62"/>
+      <c r="B14" s="59">
         <v>12</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="60">
         <v>1</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="60">
         <v>1</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="60">
         <v>6</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="70">
         <v>0</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="72">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="74">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="64"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="13">
         <v>13</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="60">
         <v>3</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="60">
         <v>6</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="60">
         <v>0</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="72">
+      <c r="I15" s="70">
         <v>2</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="71">
         <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="72">
         <v>6</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="72">
         <v>6</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="74">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2581,14 +2587,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2602,50 +2608,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2689,7 +2695,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="49">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2734,7 +2740,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="52">
+      <c r="N3" s="50">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2745,7 +2751,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="46">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2790,7 +2796,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="45">
+      <c r="B5" s="46">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3219,7 +3225,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="46">
+      <c r="A17" s="32">
         <v>13</v>
       </c>
       <c r="B17" s="14">
@@ -3266,7 +3272,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="47"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="14">
         <v>43185</v>
       </c>
@@ -3311,7 +3317,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="47"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="14">
         <v>43187</v>
       </c>
@@ -3356,7 +3362,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="47"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="14">
         <v>43187</v>
       </c>
@@ -3401,7 +3407,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="47"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="14">
         <v>43187</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3420,7 +3426,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3446,7 +3452,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="49"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="14">
         <v>43187</v>
       </c>
@@ -8221,7 +8227,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B23:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B6 B23:B1048576 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8232,7 +8238,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9577,15 +9583,19 @@
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="32"/>
-      <c r="B63" s="36"/>
+      <c r="A63" s="13">
+        <v>13</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>124</v>
+      </c>
       <c r="D63" s="26"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="33"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="31"/>
       <c r="D64" s="26"/>
       <c r="E64" s="27"/>
@@ -9593,7 +9603,7 @@
       <c r="G64" s="31"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="10"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
@@ -10486,7 +10496,7 @@
       <c r="C192" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10500,7 +10510,6 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A65"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
@@ -10522,8 +10531,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10540,21 +10549,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10563,15 +10572,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10580,15 +10589,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10600,12 +10609,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10614,17 +10623,28 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14">
+        <v>43190</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="13"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -450,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -526,6 +526,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,29 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -726,6 +726,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,30 +846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,6 +1171,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1182,15 +1206,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,21 +1260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1276,10 +1276,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,133 +1288,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2588,7 +2588,7 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -3497,8 +3497,12 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8227,7 +8231,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B6 B23:B1048576 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B24:B1048576 B6" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8237,8 +8241,8 @@
   <sheetPr/>
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9595,8 +9599,12 @@
       <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="39"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="13">
+        <v>15</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="D64" s="26"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -10532,7 +10540,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -277,6 +277,27 @@
     <t>福客多中式快餐</t>
   </si>
   <si>
+    <t>丼憩茶饮</t>
+  </si>
+  <si>
+    <t>井憩茶饮</t>
+  </si>
+  <si>
+    <t>荣旺酒家</t>
+  </si>
+  <si>
+    <t>南京青马餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>喜乐堂</t>
+  </si>
+  <si>
+    <t>天策金粮南京直营中心</t>
+  </si>
+  <si>
+    <t>可呦米</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -391,7 +412,13 @@
     <t>远程装机，等待开业</t>
   </si>
   <si>
-    <t>无</t>
+    <t>肥猫啵啵鱼</t>
+  </si>
+  <si>
+    <t>等待上线</t>
+  </si>
+  <si>
+    <t>川香味</t>
   </si>
   <si>
     <t>姓名</t>
@@ -524,13 +551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -585,13 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -633,13 +646,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -647,7 +653,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,15 +688,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +746,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,25 +764,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +812,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,67 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,8 +900,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1113,15 +1152,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1150,6 +1205,19 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1276,10 +1344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1288,137 +1356,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,6 +1604,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1563,6 +1637,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1599,49 +1676,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,7 +2073,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1979,600 +2086,346 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="58">
-        <v>12</v>
-      </c>
-      <c r="B3" s="59">
-        <v>51</v>
-      </c>
-      <c r="C3" s="60">
-        <v>1</v>
-      </c>
-      <c r="D3" s="60">
-        <v>2</v>
-      </c>
-      <c r="E3" s="60">
-        <v>2</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61">
+    <row r="3" ht="17" customHeight="1" spans="1:13">
+      <c r="A3" s="61">
+        <v>4</v>
+      </c>
+      <c r="B3" s="62">
+        <v>15</v>
+      </c>
+      <c r="C3" s="63">
+        <v>3</v>
+      </c>
+      <c r="D3" s="64">
+        <v>0</v>
+      </c>
+      <c r="E3" s="64">
+        <f>C3-D3</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="65">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="78">
         <v>0</v>
       </c>
-      <c r="J3" s="71">
+      <c r="J3" s="79" t="e">
         <f>I3/L3*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="80">
+        <f>C3+G3</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="81">
+        <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="72">
-        <f>C3+G3</f>
+      <c r="M3" s="82">
+        <f>L3/K3*100%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="67"/>
+      <c r="B4" s="62">
+        <v>16</v>
+      </c>
+      <c r="C4" s="63">
         <v>1</v>
       </c>
-      <c r="L3" s="72">
-        <f>D3+G3</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="73">
-        <f>L3/K3*100%</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59">
-        <v>52</v>
-      </c>
-      <c r="C4" s="60">
+      <c r="D4" s="64">
+        <v>0</v>
+      </c>
+      <c r="E4" s="64">
+        <f>C4-D4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="60">
-        <v>2</v>
-      </c>
-      <c r="E4" s="60">
-        <v>2</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61">
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="65">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="78">
+        <v>1</v>
+      </c>
+      <c r="J4" s="79" t="e">
+        <f>I4/L4*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="80">
+        <v>4</v>
+      </c>
+      <c r="L4" s="81">
+        <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="71">
-        <f>I4/L4*100%</f>
+      <c r="M4" s="82">
+        <f>L4/K4*100%</f>
         <v>0</v>
       </c>
-      <c r="K4" s="72">
-        <f>C4+G4</f>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69">
+        <v>17</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="64">
+        <v>4</v>
+      </c>
+      <c r="E5" s="64">
+        <v>2</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="65">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="78">
         <v>1</v>
       </c>
-      <c r="L4" s="72">
-        <f>D4+G4</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="73">
-        <f>L4/K4*100%</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="62">
-        <v>1</v>
-      </c>
-      <c r="B5" s="63">
-        <v>1</v>
-      </c>
-      <c r="C5" s="60">
-        <v>1</v>
-      </c>
-      <c r="D5" s="60">
-        <v>0</v>
-      </c>
-      <c r="E5" s="60">
-        <v>3</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61">
-        <f t="shared" ref="H4:H14" si="0">F5-G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="70">
-        <v>0</v>
-      </c>
-      <c r="J5" s="71" t="e">
-        <f t="shared" ref="J5:J15" si="1">I5/L5*100%</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="72">
-        <f>C5+G5</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="72">
-        <f t="shared" ref="L4:L14" si="2">D5+G5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="73">
-        <f t="shared" ref="M4:M15" si="3">L5/K5*100%</f>
-        <v>0</v>
+      <c r="J5" s="79">
+        <f>I5/L5*100%</f>
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="80">
+        <v>6</v>
+      </c>
+      <c r="L5" s="81">
+        <f>D5+G5</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="82">
+        <f>L5/K5*100%</f>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63">
-        <v>2</v>
-      </c>
-      <c r="C6" s="60">
-        <v>1</v>
-      </c>
-      <c r="D6" s="60">
-        <v>0</v>
-      </c>
-      <c r="E6" s="60">
-        <f>C6-D6</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="70">
-        <v>0</v>
-      </c>
-      <c r="J6" s="71" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="72">
-        <f t="shared" ref="K4:K14" si="4">C6+G6</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A6" s="70"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63">
-        <v>3</v>
-      </c>
-      <c r="C7" s="60">
-        <v>0</v>
-      </c>
-      <c r="D7" s="60">
-        <v>0</v>
-      </c>
-      <c r="E7" s="60">
-        <f>C7-D7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="70">
-        <v>0</v>
-      </c>
-      <c r="J7" s="71" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="62">
-        <v>2</v>
-      </c>
-      <c r="B8" s="63">
-        <v>4</v>
-      </c>
-      <c r="C8" s="60">
-        <v>0</v>
-      </c>
-      <c r="D8" s="60">
-        <v>2</v>
-      </c>
-      <c r="E8" s="60">
-        <v>2</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="70">
-        <v>0</v>
-      </c>
-      <c r="J8" s="71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="72">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="73" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A8" s="70"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63">
-        <v>5</v>
-      </c>
-      <c r="C9" s="60">
-        <v>1</v>
-      </c>
-      <c r="D9" s="60">
-        <v>1</v>
-      </c>
-      <c r="E9" s="60">
-        <v>5</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="70">
-        <v>0</v>
-      </c>
-      <c r="J9" s="71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="72">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="A9" s="70"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63">
-        <v>6</v>
-      </c>
-      <c r="C10" s="60">
-        <v>1</v>
-      </c>
-      <c r="D10" s="60">
-        <v>1</v>
-      </c>
-      <c r="E10" s="60">
-        <v>6</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="70">
-        <v>0</v>
-      </c>
-      <c r="J10" s="71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="72">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="A10" s="70"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63">
-        <v>9</v>
-      </c>
-      <c r="C11" s="60">
-        <v>1</v>
-      </c>
-      <c r="D11" s="60">
-        <v>0</v>
-      </c>
-      <c r="E11" s="60">
-        <v>0</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="70">
-        <v>0</v>
-      </c>
-      <c r="J11" s="71" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="62">
-        <v>3</v>
-      </c>
-      <c r="B12" s="59">
-        <v>10</v>
-      </c>
-      <c r="C12" s="60">
-        <v>1</v>
-      </c>
-      <c r="D12" s="60">
-        <v>0</v>
-      </c>
-      <c r="E12" s="60">
-        <v>0</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="70">
-        <v>0</v>
-      </c>
-      <c r="J12" s="71" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="72">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="70"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59">
-        <v>11</v>
-      </c>
-      <c r="C13" s="60">
-        <v>1</v>
-      </c>
-      <c r="D13" s="60">
-        <v>1</v>
-      </c>
-      <c r="E13" s="60">
-        <v>7</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="70">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="72">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="A13" s="70"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59">
-        <v>12</v>
-      </c>
-      <c r="C14" s="60">
-        <v>1</v>
-      </c>
-      <c r="D14" s="60">
-        <v>1</v>
-      </c>
-      <c r="E14" s="60">
-        <v>6</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="70">
-        <v>0</v>
-      </c>
-      <c r="J14" s="71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="72">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="A14" s="70"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="62"/>
-      <c r="B15" s="13">
-        <v>13</v>
-      </c>
-      <c r="C15" s="60">
-        <v>3</v>
-      </c>
-      <c r="D15" s="60">
-        <v>6</v>
-      </c>
-      <c r="E15" s="60">
-        <v>0</v>
-      </c>
+      <c r="A15" s="70"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="70">
-        <v>2</v>
-      </c>
-      <c r="J15" s="71">
-        <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K15" s="72">
-        <v>6</v>
-      </c>
-      <c r="L15" s="72">
-        <v>6</v>
-      </c>
-      <c r="M15" s="74">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
   </mergeCells>
@@ -2587,14 +2440,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2608,50 +2461,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2695,7 +2548,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="52">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2740,7 +2593,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="53">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2751,7 +2604,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2796,7 +2649,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3417,7 +3270,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="49" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3426,7 +3279,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="49" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3497,76 +3350,186 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="13">
-        <v>15</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="A23" s="39">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14">
+        <v>43213</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1">
+        <v>76158193</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="1">
+        <v>13404177973</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="14">
+        <v>43213</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1">
+        <v>76158202</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="1">
+        <v>15951760818</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="14">
+        <v>43214</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76161778</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="1">
+        <v>13912902936</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="14">
+        <v>43214</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1">
+        <v>76159155</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="1">
+        <v>15821227798</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="13"/>
@@ -8210,11 +8173,12 @@
       <c r="O299" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8231,7 +8195,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B24:B1048576 B6" listDataValidation="1"/>
+    <ignoredError sqref="B27:B1048576 B6 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8241,8 +8205,8 @@
   <sheetPr/>
   <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8264,19 +8228,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8290,16 +8254,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8311,16 +8275,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8328,22 +8292,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8355,16 +8319,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8378,16 +8342,16 @@
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
@@ -8399,16 +8363,16 @@
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8422,16 +8386,16 @@
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8443,16 +8407,16 @@
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8464,16 +8428,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8487,16 +8451,16 @@
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8508,16 +8472,16 @@
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8529,16 +8493,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8552,16 +8516,16 @@
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8573,16 +8537,16 @@
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8594,16 +8558,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8615,16 +8579,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8638,16 +8602,16 @@
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8659,16 +8623,16 @@
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8680,79 +8644,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8766,16 +8730,16 @@
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8787,79 +8751,79 @@
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8873,16 +8837,16 @@
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8894,79 +8858,79 @@
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8978,16 +8942,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -9001,16 +8965,16 @@
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9022,79 +8986,79 @@
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9106,58 +9070,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -9171,16 +9135,16 @@
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9192,79 +9156,79 @@
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9276,58 +9240,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9341,16 +9305,16 @@
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9362,79 +9326,79 @@
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9446,16 +9410,16 @@
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9467,16 +9431,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9490,16 +9454,16 @@
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9511,58 +9475,58 @@
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9574,44 +9538,64 @@
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:7">
+      <c r="A63" s="39">
+        <v>17</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="17">
+        <v>43213</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="13">
-        <v>13</v>
-      </c>
-      <c r="B63" s="36" t="s">
+      <c r="F63" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="13">
-        <v>15</v>
-      </c>
+      <c r="A64" s="40"/>
       <c r="B64" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="31"/>
+        <v>133</v>
+      </c>
+      <c r="C64" s="17">
+        <v>43209</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
@@ -10504,7 +10488,7 @@
       <c r="C192" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10518,6 +10502,7 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
@@ -10539,7 +10524,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10557,21 +10542,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10580,15 +10565,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10597,15 +10582,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10617,12 +10602,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10631,15 +10616,15 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -10648,10 +10633,10 @@
         <v>43190</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -477,11 +477,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -551,9 +551,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,9 +580,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,14 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -607,7 +604,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,9 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,28 +642,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,21 +673,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,13 +770,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,13 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,49 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,17 +1239,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,16 +1258,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,6 +1289,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1303,39 +1336,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1344,10 +1344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,16 +1356,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,119 +1374,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1604,12 +1604,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1636,9 +1630,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2086,341 +2077,341 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="61">
+      <c r="A3" s="58">
         <v>4</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="59">
         <v>15</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="60">
         <v>3</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <v>0</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="75">
         <v>0</v>
       </c>
-      <c r="J3" s="79" t="e">
+      <c r="J3" s="76" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="77">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="81">
+      <c r="L3" s="78">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="79">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="67"/>
-      <c r="B4" s="62">
+      <c r="A4" s="64"/>
+      <c r="B4" s="59">
         <v>16</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>0</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <f>C4-D4</f>
         <v>1</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="65">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="75">
         <v>1</v>
       </c>
-      <c r="J4" s="79" t="e">
+      <c r="J4" s="76" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="80">
+      <c r="K4" s="77">
         <v>4</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="78">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="79">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66">
         <v>17</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="60">
         <v>2</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="61">
         <v>4</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="61">
         <v>2</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="65">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <v>1</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="76">
         <f>I5/L5*100%</f>
         <v>0.25</v>
       </c>
-      <c r="K5" s="80">
+      <c r="K5" s="77">
         <v>6</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="78">
         <f>D5+G5</f>
         <v>4</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="79">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="70"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="70"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="70"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="70"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="70"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="70"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="87"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="84"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="70"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="87"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="70"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="87"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="70"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="87"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2447,7 +2438,7 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2461,50 +2452,50 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="42" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2548,7 +2539,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="49">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2593,7 +2584,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="50">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2604,7 +2595,7 @@
       <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="46">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2649,7 +2640,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="48">
+      <c r="B5" s="46">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3270,7 +3261,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="47" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3279,7 +3270,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3350,7 +3341,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="39">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3397,7 +3388,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="50"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3442,7 +3433,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="50"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3487,7 +3478,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -8195,7 +8186,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B27:B1048576 B6 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B6 B27:B1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9551,7 +9542,7 @@
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="39">
+      <c r="A63" s="32">
         <v>17</v>
       </c>
       <c r="B63" s="36" t="s">
@@ -9574,7 +9565,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="40"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="31" t="s">
         <v>133</v>
       </c>
@@ -9595,7 +9586,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="41"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -477,11 +477,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2190,14 +2190,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="61">
         <v>0</v>
       </c>
       <c r="E4" s="61">
         <f>C4-D4</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="62"/>
       <c r="G4" s="63"/>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="76" t="e">
         <f>I4/L4*100%</f>
@@ -2230,7 +2230,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="61">
         <v>4</v>
@@ -2245,11 +2245,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="76">
         <f>I5/L5*100%</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K5" s="77">
         <v>6</v>
@@ -2432,7 +2432,7 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -8186,7 +8186,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B6 B27:B1048576" listDataValidation="1"/>
+    <ignoredError sqref="B27:B1048576 B6 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -298,6 +298,12 @@
     <t>可呦米</t>
   </si>
   <si>
+    <t>肥猫啵啵鱼</t>
+  </si>
+  <si>
+    <t>川香味</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -412,13 +418,7 @@
     <t>远程装机，等待开业</t>
   </si>
   <si>
-    <t>肥猫啵啵鱼</t>
-  </si>
-  <si>
     <t>等待上线</t>
-  </si>
-  <si>
-    <t>川香味</t>
   </si>
   <si>
     <t>姓名</t>
@@ -552,14 +552,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,8 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +597,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -602,9 +612,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,8 +635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,22 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -671,9 +673,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,15 +689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,25 +770,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,78 +807,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +836,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,11 +1239,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,16 +1264,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,6 +1295,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1297,42 +1314,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,10 +1344,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,137 +1356,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +1627,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2077,341 +2092,341 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="56" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="58">
+      <c r="A3" s="63">
         <v>4</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="64">
         <v>15</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="65">
         <v>3</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="66">
         <v>0</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="66">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="67">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="80">
         <v>0</v>
       </c>
-      <c r="J3" s="76" t="e">
+      <c r="J3" s="81" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="82">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="83">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="84">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="64"/>
-      <c r="B4" s="59">
+      <c r="A4" s="69"/>
+      <c r="B4" s="64">
         <v>16</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="65">
         <v>4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="66">
         <v>0</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="66">
         <f>C4-D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="67">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="80">
         <v>0</v>
       </c>
-      <c r="J4" s="76" t="e">
+      <c r="J4" s="81" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="82">
         <v>4</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="83">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="84">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71">
         <v>17</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="65">
         <v>6</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="66">
         <v>4</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="66">
         <v>2</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62">
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="67">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="80">
         <v>0</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="81">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="82">
         <v>6</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="83">
         <f>D5+G5</f>
         <v>4</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="84">
         <f>L5/K5*100%</f>
         <v>0.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="83"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="67"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="67"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="67"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="67"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="67"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="67"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="84"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="89"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="67"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="84"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="67"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="84"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="67"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2431,8 +2446,8 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2477,7 +2492,7 @@
       <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="44" t="s">
@@ -2539,7 +2554,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="54">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2584,7 +2599,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="55">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3341,7 +3356,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="32">
+      <c r="A23" s="48">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3388,7 +3403,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3433,7 +3448,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3478,7 +3493,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -3523,38 +3538,94 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="14">
+        <v>43216</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>76162208</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="1">
+        <v>15996453948</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="14">
+        <v>43216</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1">
+        <v>76161176</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="1">
+        <v>13912978719</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="13"/>
@@ -8169,7 +8240,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8186,7 +8257,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B27:B1048576 B6 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B6 B29:B1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8219,19 +8290,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8245,16 +8316,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8266,16 +8337,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>100</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8283,22 +8354,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8310,16 +8381,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8333,16 +8404,16 @@
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
@@ -8354,16 +8425,16 @@
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8377,16 +8448,16 @@
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8398,16 +8469,16 @@
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8419,16 +8490,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8442,16 +8513,16 @@
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8463,16 +8534,16 @@
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8484,16 +8555,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8507,16 +8578,16 @@
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8528,16 +8599,16 @@
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8549,16 +8620,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8570,16 +8641,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8593,16 +8664,16 @@
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8614,16 +8685,16 @@
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8635,79 +8706,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8721,16 +8792,16 @@
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8742,79 +8813,79 @@
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8828,16 +8899,16 @@
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8849,79 +8920,79 @@
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8933,16 +9004,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -8956,16 +9027,16 @@
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8977,79 +9048,79 @@
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9061,58 +9132,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -9126,16 +9197,16 @@
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9147,79 +9218,79 @@
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9231,58 +9302,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9296,16 +9367,16 @@
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9317,79 +9388,79 @@
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9401,16 +9472,16 @@
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9422,16 +9493,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9445,16 +9516,16 @@
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9466,58 +9537,58 @@
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9529,16 +9600,16 @@
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
@@ -9546,43 +9617,43 @@
         <v>17</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C63" s="17">
         <v>43213</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="10"/>
       <c r="B64" s="31" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C64" s="17">
         <v>43209</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:7">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>远程装机，等待开业</t>
+  </si>
+  <si>
+    <t>熊牛日式炭烧肉</t>
   </si>
   <si>
     <t>等待上线</t>
@@ -477,11 +480,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -552,7 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,17 +563,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,9 +576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,16 +606,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,7 +639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,14 +650,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,6 +667,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -680,16 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,7 +773,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +839,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,79 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,13 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,6 +1242,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1257,6 +1275,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1264,16 +1291,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,30 +1339,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1344,10 +1347,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,137 +1359,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,21 +1630,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2079,7 +2067,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2092,341 +2080,341 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="56" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="63">
+      <c r="A3" s="58">
         <v>4</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="59">
         <v>15</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="60">
         <v>3</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="61">
         <v>0</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="61">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="67">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="75">
         <v>0</v>
       </c>
-      <c r="J3" s="81" t="e">
+      <c r="J3" s="76" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="77">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="83">
+      <c r="L3" s="78">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="79">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="69"/>
-      <c r="B4" s="64">
+      <c r="A4" s="64"/>
+      <c r="B4" s="59">
         <v>16</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="60">
         <v>4</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="61">
         <v>0</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="61">
         <f>C4-D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="67">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="75">
         <v>0</v>
       </c>
-      <c r="J4" s="81" t="e">
+      <c r="J4" s="76" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="77">
         <v>4</v>
       </c>
-      <c r="L4" s="83">
+      <c r="L4" s="78">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="79">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66">
         <v>17</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="60">
+        <v>7</v>
+      </c>
+      <c r="D5" s="61">
         <v>6</v>
       </c>
-      <c r="D5" s="66">
-        <v>4</v>
-      </c>
-      <c r="E5" s="66">
-        <v>2</v>
-      </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="67">
+      <c r="E5" s="61">
+        <v>1</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="75">
         <v>0</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="76">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="77">
+        <v>7</v>
+      </c>
+      <c r="L5" s="78">
+        <f>D5+G5</f>
         <v>6</v>
       </c>
-      <c r="L5" s="83">
-        <f>D5+G5</f>
-        <v>4</v>
-      </c>
-      <c r="M5" s="84">
+      <c r="M5" s="79">
         <f>L5/K5*100%</f>
-        <v>0.666666666666667</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="72"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="72"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="83"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="72"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="72"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="72"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="72"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="89"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="84"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="72"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="89"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="84"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="72"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="89"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="72"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="89"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2447,7 +2435,7 @@
   <dimension ref="A1:O299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2492,7 +2480,7 @@
       <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="48" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="44" t="s">
@@ -2554,7 +2542,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="49">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2599,7 +2587,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="50">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3356,7 +3344,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="48">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3403,7 +3391,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="49"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3448,7 +3436,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="49"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3493,7 +3481,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="49"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -3538,7 +3526,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="49"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="14">
         <v>43216</v>
       </c>
@@ -3583,17 +3571,17 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="50"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="14">
         <v>43216</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -8257,7 +8245,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B6 B29:B1048576" listDataValidation="1"/>
+    <ignoredError sqref="B29:B1048576 B6 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8265,10 +8253,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9617,13 +9605,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C63" s="17">
-        <v>43213</v>
+        <v>43209</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>101</v>
@@ -9632,47 +9620,33 @@
         <v>102</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="10"/>
-      <c r="B64" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="17">
-        <v>43209</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="39"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="31"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="31"/>
       <c r="D65" s="34"/>
       <c r="E65" s="1"/>
       <c r="F65" s="27"/>
       <c r="G65" s="28"/>
     </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="31"/>
-      <c r="D66" s="34"/>
+    <row r="66" spans="3:7">
+      <c r="C66" s="38"/>
       <c r="E66" s="1"/>
       <c r="F66" s="27"/>
       <c r="G66" s="28"/>
     </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="38"/>
+    <row r="67" spans="2:7">
+      <c r="B67" s="27"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="1"/>
       <c r="F67" s="27"/>
       <c r="G67" s="28"/>
@@ -10538,19 +10512,12 @@
       <c r="F190" s="27"/>
       <c r="G190" s="28"/>
     </row>
-    <row r="191" spans="2:7">
-      <c r="B191" s="27"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="28"/>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="10"/>
-      <c r="C192" s="38"/>
+    <row r="191" spans="1:3">
+      <c r="A191" s="10"/>
+      <c r="C191" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -10564,14 +10531,13 @@
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A51:A57"/>
     <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E57 E60 E61 E62 E65 E66 E67 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E58:E59 E63:E64 E68:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E10 E13 E16 E17 E20 E53 E54 E55 E56 E57 E60 E61 E62 E63 E64 E65 E66 E2:E3 E6:E7 E8:E9 E11:E12 E14:E15 E18:E19 E21:E23 E24:E25 E26:E28 E29:E30 E31:E32 E33:E34 E35:E36 E37:E38 E39:E40 E41:E42 E43:E44 E45:E46 E47:E48 E49:E50 E51:E52 E58:E59 E67:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F57 F60 F61 F62 F65 F66 F67 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F58:F59 F63:F64 F68:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F4 F5 F10 F13 F16 F17 F20 F53 F54 F55 F56 F57 F60 F61 F62 F63 F64 F65 F66 F2:F3 F6:F7 F8:F9 F11:F12 F14:F15 F18:F19 F21:F23 F24:F25 F26:F28 F29:F30 F31:F32 F33:F34 F35:F36 F37:F38 F39:F40 F41:F42 F43:F44 F45:F46 F47:F48 F49:F50 F51:F52 F58:F59 F67:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10587,7 +10553,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10604,21 +10570,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10627,15 +10593,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10644,15 +10610,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10664,12 +10630,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10678,15 +10644,15 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -10695,10 +10661,10 @@
         <v>43190</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:5">

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -304,6 +304,12 @@
     <t>川香味</t>
   </si>
   <si>
+    <t>熊牛日式炭烧肉</t>
+  </si>
+  <si>
+    <t>陈总</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -416,12 +422,6 @@
   </si>
   <si>
     <t>远程装机，等待开业</t>
-  </si>
-  <si>
-    <t>熊牛日式炭烧肉</t>
-  </si>
-  <si>
-    <t>等待上线</t>
   </si>
   <si>
     <t>姓名</t>
@@ -480,11 +480,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -555,29 +555,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,39 +606,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,30 +638,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,10 +670,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,9 +684,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +803,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +839,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,121 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,54 +1243,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1322,10 +1274,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1339,6 +1289,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1347,10 +1347,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,19 +1359,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,116 +1380,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,6 +1629,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2066,8 +2078,8 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2080,341 +2092,341 @@
     <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="55" customWidth="1"/>
     <col min="11" max="11" width="16" style="15" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="58">
+      <c r="A3" s="62">
         <v>4</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="63">
         <v>15</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="64">
         <v>3</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="65">
         <v>0</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="65">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62">
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="66">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="79">
         <v>0</v>
       </c>
-      <c r="J3" s="76" t="e">
+      <c r="J3" s="80" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="81">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="82">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="83">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="64"/>
-      <c r="B4" s="59">
+      <c r="A4" s="68"/>
+      <c r="B4" s="63">
         <v>16</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="64">
         <v>4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="65">
         <v>0</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="65">
         <f>C4-D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62">
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="66">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="79">
         <v>0</v>
       </c>
-      <c r="J4" s="76" t="e">
+      <c r="J4" s="80" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="81">
         <v>4</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="82">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="83">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70">
         <v>17</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="64">
         <v>7</v>
       </c>
-      <c r="D5" s="61">
-        <v>6</v>
-      </c>
-      <c r="E5" s="61">
-        <v>1</v>
-      </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62">
+      <c r="D5" s="65">
+        <v>7</v>
+      </c>
+      <c r="E5" s="65">
+        <v>0</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="66">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="79">
         <v>0</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="80">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="81">
         <v>7</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="82">
         <f>D5+G5</f>
-        <v>6</v>
-      </c>
-      <c r="M5" s="79">
+        <v>7</v>
+      </c>
+      <c r="M5" s="83">
         <f>L5/K5*100%</f>
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="83"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="67"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="67"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="67"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="67"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="67"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="67"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="84"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="67"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="84"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="88"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="67"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="84"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="67"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2434,8 +2446,8 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2480,7 +2492,7 @@
       <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="52" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="44" t="s">
@@ -2542,7 +2554,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="53">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2587,7 +2599,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="54">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3344,7 +3356,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="32">
+      <c r="A23" s="48">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3391,7 +3403,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3436,7 +3448,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3481,7 +3493,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -3526,7 +3538,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="14">
         <v>43216</v>
       </c>
@@ -3571,7 +3583,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="10"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="14">
         <v>43216</v>
       </c>
@@ -3616,21 +3628,49 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="14">
+        <v>43220</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1">
+        <v>76163061</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="1">
+        <v>15850562334</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="13"/>
@@ -8228,7 +8268,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8245,7 +8285,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B29:B1048576 B6 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B6 B30:B1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8256,7 +8296,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8278,19 +8318,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" spans="1:7">
@@ -8304,16 +8344,16 @@
         <v>43049</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" s="15" customFormat="1" spans="1:7">
@@ -8325,16 +8365,16 @@
         <v>43073</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="1" spans="1:7">
@@ -8342,22 +8382,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="17">
         <v>43084</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8369,16 +8409,16 @@
         <v>43073</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>102</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
@@ -8392,16 +8432,16 @@
         <v>43094</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="1" spans="1:7">
@@ -8413,16 +8453,16 @@
         <v>43459</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -8436,16 +8476,16 @@
         <v>43094</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8457,16 +8497,16 @@
         <v>43459</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8478,16 +8518,16 @@
         <v>43102</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -8501,16 +8541,16 @@
         <v>43094</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8522,16 +8562,16 @@
         <v>43459</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8543,16 +8583,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
@@ -8566,16 +8606,16 @@
         <v>43094</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8587,16 +8627,16 @@
         <v>43459</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8608,16 +8648,16 @@
         <v>43102</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8629,16 +8669,16 @@
         <v>43116</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
@@ -8652,16 +8692,16 @@
         <v>43094</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8673,16 +8713,16 @@
         <v>43459</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8694,79 +8734,79 @@
         <v>43102</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33"/>
       <c r="B21" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C21" s="17">
         <v>43459</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C22" s="17">
         <v>43461</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C23" s="17">
         <v>43115</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
@@ -8780,16 +8820,16 @@
         <v>43094</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -8801,79 +8841,79 @@
         <v>43459</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C26" s="17">
         <v>43459</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C27" s="17">
         <v>43461</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
       <c r="B28" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C28" s="17">
         <v>43115</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
@@ -8887,16 +8927,16 @@
         <v>43094</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8908,79 +8948,79 @@
         <v>43459</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="33"/>
       <c r="B31" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C31" s="17">
         <v>43459</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="33"/>
       <c r="B32" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17">
         <v>43461</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="33"/>
       <c r="B33" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C33" s="17">
         <v>43115</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8992,16 +9032,16 @@
         <v>43131</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
@@ -9015,16 +9055,16 @@
         <v>43094</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G35" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9036,79 +9076,79 @@
         <v>43459</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="33"/>
       <c r="B37" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" s="17">
         <v>43459</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="33"/>
       <c r="B38" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C38" s="17">
         <v>43461</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="33"/>
       <c r="B39" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39" s="17">
         <v>43115</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9120,58 +9160,58 @@
         <v>43131</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="33"/>
       <c r="B41" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="17">
         <v>43158</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
       <c r="B42" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C42" s="17">
         <v>43137</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
@@ -9185,16 +9225,16 @@
         <v>43094</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9206,79 +9246,79 @@
         <v>43459</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="33"/>
       <c r="B45" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C45" s="17">
         <v>43459</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="33"/>
       <c r="B46" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46" s="17">
         <v>43461</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="33"/>
       <c r="B47" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C47" s="17">
         <v>43115</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9290,58 +9330,58 @@
         <v>43131</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="33"/>
       <c r="B49" s="25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C49" s="17">
         <v>43158</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
       <c r="B50" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50" s="17">
         <v>43137</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
@@ -9355,16 +9395,16 @@
         <v>43094</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9376,79 +9416,79 @@
         <v>43459</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="33"/>
       <c r="B53" s="27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C53" s="17">
         <v>43461</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="33"/>
       <c r="B54" s="31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" s="17">
         <v>43158</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="33"/>
       <c r="B55" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="17">
         <v>43137</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9460,16 +9500,16 @@
         <v>43172</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9481,16 +9521,16 @@
         <v>43171</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
@@ -9504,16 +9544,16 @@
         <v>43094</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9525,58 +9565,58 @@
         <v>43459</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="33"/>
       <c r="B60" s="31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="17">
         <v>43158</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="33"/>
       <c r="B61" s="31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C61" s="17">
         <v>43137</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9588,40 +9628,26 @@
         <v>43172</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="32">
-        <v>17</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="17">
-        <v>43209</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>111</v>
-      </c>
+      <c r="A63" s="32"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="37"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="39"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>营业驻店</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>上线培训</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">井憩茶饮 </t>
+  </si>
+  <si>
+    <t>驻店</t>
   </si>
 </sst>
 </file>
@@ -480,11 +495,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -561,8 +576,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,23 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,30 +639,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,30 +654,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -670,8 +662,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,8 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +824,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,31 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,61 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,17 +1257,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,8 +1313,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1291,42 +1332,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,10 +1362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,137 +1374,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,6 +1550,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,18 +1652,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1704,7 +1710,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,361 +2085,359 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="55" customWidth="1"/>
-    <col min="11" max="11" width="16" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="16" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="52" customWidth="1"/>
+    <col min="11" max="11" width="16" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="62">
+      <c r="A3" s="59">
         <v>4</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="60">
         <v>15</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="61">
         <v>3</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="62">
         <v>0</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="62">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="66">
+      <c r="F3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="63">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="76">
         <v>0</v>
       </c>
-      <c r="J3" s="80" t="e">
+      <c r="J3" s="77" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="81">
+      <c r="K3" s="78">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="82">
+      <c r="L3" s="79">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="83">
+      <c r="M3" s="80">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68"/>
-      <c r="B4" s="63">
+      <c r="A4" s="65"/>
+      <c r="B4" s="60">
         <v>16</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>4</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="62">
         <v>0</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="62">
         <f>C4-D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="66">
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="63">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="76">
         <v>0</v>
       </c>
-      <c r="J4" s="80" t="e">
+      <c r="J4" s="77" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="78">
         <v>4</v>
       </c>
-      <c r="L4" s="82">
+      <c r="L4" s="79">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="83">
+      <c r="M4" s="80">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67">
         <v>17</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="61">
         <v>7</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <v>7</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <v>0</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="66">
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="76">
         <v>0</v>
       </c>
-      <c r="J5" s="80">
+      <c r="J5" s="77">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="78">
         <v>7</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="79">
         <f>D5+G5</f>
         <v>7</v>
       </c>
-      <c r="M5" s="83">
+      <c r="M5" s="80">
         <f>L5/K5*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="71"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="84"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="71"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="84"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="71"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="84"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="71"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="88"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="71"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="88"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="85"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="71"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="88"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="71"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="88"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2452,8 +2456,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="12.8416666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="42" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2467,55 +2471,55 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="41" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <v>51</v>
       </c>
       <c r="B2" s="14">
@@ -2554,7 +2558,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="50">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2572,7 +2576,7 @@
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2599,7 +2603,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="54">
+      <c r="N3" s="51">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2607,10 +2611,10 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="33">
+      <c r="A4" s="34">
         <v>52</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2655,7 +2659,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="46">
+      <c r="B5" s="47">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2762,7 +2766,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="14">
@@ -3084,7 +3088,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>13</v>
       </c>
       <c r="B17" s="14">
@@ -3131,7 +3135,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="14">
         <v>43185</v>
       </c>
@@ -3176,7 +3180,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="14">
         <v>43187</v>
       </c>
@@ -3221,7 +3225,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="14">
         <v>43187</v>
       </c>
@@ -3266,7 +3270,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="14">
         <v>43187</v>
       </c>
@@ -3276,7 +3280,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="48" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3285,7 +3289,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="48" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3356,7 +3360,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="48">
+      <c r="A23" s="33">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3403,7 +3407,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="49"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3448,7 +3452,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="49"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3493,7 +3497,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="49"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -3538,7 +3542,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="49"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="14">
         <v>43216</v>
       </c>
@@ -3583,7 +3587,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="49"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="14">
         <v>43216</v>
       </c>
@@ -3628,14 +3632,14 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="50"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="14">
         <v>43220</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="48" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -8285,7 +8289,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B6 B30:B1048576" listDataValidation="1"/>
+    <ignoredError sqref="B30:B1048576 B6 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8302,2245 +8306,2244 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="26.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" spans="1:7">
+    <row r="2" s="16" customFormat="1" spans="1:7">
       <c r="A2" s="13">
         <v>50</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="18">
         <v>43049</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" spans="1:7">
+    <row r="3" s="16" customFormat="1" spans="1:7">
       <c r="A3" s="13"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>43073</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" spans="1:7">
+    <row r="4" s="16" customFormat="1" spans="1:7">
       <c r="A4" s="13">
         <v>51</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>43084</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
+    <row r="5" s="16" customFormat="1" ht="14.25" spans="1:7">
       <c r="A5" s="13"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>43073</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
+    <row r="6" s="16" customFormat="1" ht="14.25" spans="1:7">
       <c r="A6" s="13">
         <v>52</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>43094</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" spans="1:7">
+    <row r="7" s="16" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>43459</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>43094</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>43459</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>43102</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="32">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>43094</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <v>43459</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="18">
         <v>43102</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="18">
         <v>43094</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="33"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="18">
         <v>43459</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="33"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="18">
         <v>43102</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="18">
         <v>43116</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="18">
         <v>43094</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="33"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="18">
         <v>43459</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="33"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="18">
         <v>43102</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="33"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="18">
         <v>43459</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="18">
         <v>43461</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="18">
         <v>43115</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>5</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="18">
         <v>43094</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="18">
         <v>43459</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="18">
         <v>43459</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="18">
         <v>43461</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="18">
         <v>43115</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="32">
+      <c r="A29" s="33">
         <v>6</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="18">
         <v>43094</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="33"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="18">
         <v>43459</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="18">
         <v>43459</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="18">
         <v>43461</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="18">
         <v>43115</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10"/>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="18">
         <v>43131</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="32">
+      <c r="A35" s="33">
         <v>9</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="18">
         <v>43094</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="18">
         <v>43459</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="33"/>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="18">
         <v>43459</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="33"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="18">
         <v>43461</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="33"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="18">
         <v>43115</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="33"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="18">
         <v>43131</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="33"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="18">
         <v>43158</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="35" t="s">
         <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="18">
         <v>43137</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="32">
+      <c r="A43" s="33">
         <v>10</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="18">
         <v>43094</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="33"/>
-      <c r="B44" s="25" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="18">
         <v>43459</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="33"/>
-      <c r="B45" s="25" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="18">
         <v>43459</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="35" t="s">
         <v>129</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="33"/>
-      <c r="B46" s="27" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="18">
         <v>43461</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="35" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="33"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="18">
         <v>43115</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="35" t="s">
         <v>129</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G47" s="31" t="s">
+      <c r="G47" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="33"/>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="18">
         <v>43131</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="31" t="s">
+      <c r="G48" s="32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="33"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="18">
         <v>43158</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="18">
         <v>43137</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="32">
+      <c r="A51" s="33">
         <v>11</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="18">
         <v>43094</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="33"/>
-      <c r="B52" s="31" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="18">
         <v>43459</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="33"/>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="18">
         <v>43461</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="35" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="33"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="18">
         <v>43158</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="33"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="18">
         <v>43137</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="28" t="s">
+      <c r="G55" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="33"/>
-      <c r="B56" s="16" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="39">
         <v>43172</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="19" t="s">
         <v>131</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10"/>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="18">
         <v>43171</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="32">
+      <c r="A58" s="33">
         <v>12</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="18">
         <v>43094</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="18">
         <v>43459</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="31" t="s">
+      <c r="G59" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="33"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="18">
         <v>43158</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="35" t="s">
         <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="33"/>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="18">
         <v>43137</v>
       </c>
-      <c r="D61" s="34" t="s">
+      <c r="D61" s="35" t="s">
         <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="33"/>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62" s="39">
         <v>43172</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>131</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G62" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="32"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="37"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="37"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="38"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="39"/>
-      <c r="B64" s="31"/>
-      <c r="D64" s="34"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="32"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="31"/>
-      <c r="D65" s="34"/>
+      <c r="B65" s="32"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="38"/>
+      <c r="C66" s="39"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="27"/>
-      <c r="D67" s="34"/>
+      <c r="B67" s="28"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="27"/>
-      <c r="D68" s="34"/>
+      <c r="B68" s="28"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="27"/>
-      <c r="D69" s="34"/>
+      <c r="B69" s="28"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="27"/>
-      <c r="D70" s="34"/>
+      <c r="B70" s="28"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="27"/>
-      <c r="D71" s="34"/>
+      <c r="B71" s="28"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="27"/>
-      <c r="D72" s="34"/>
+      <c r="B72" s="28"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="27"/>
-      <c r="D73" s="34"/>
+      <c r="B73" s="28"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="27"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="28"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="27"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="28"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="27"/>
-      <c r="D76" s="34"/>
+      <c r="B76" s="28"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="27"/>
-      <c r="D77" s="34"/>
+      <c r="B77" s="28"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="27"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="28"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="27"/>
-      <c r="D79" s="34"/>
+      <c r="B79" s="28"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="27"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="28"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="27"/>
-      <c r="D81" s="34"/>
+      <c r="B81" s="28"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="27"/>
-      <c r="D82" s="34"/>
+      <c r="B82" s="28"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="27"/>
-      <c r="D83" s="34"/>
+      <c r="B83" s="28"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="27"/>
-      <c r="D84" s="34"/>
+      <c r="B84" s="28"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="27"/>
-      <c r="D85" s="34"/>
+      <c r="B85" s="28"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="27"/>
-      <c r="D86" s="34"/>
+      <c r="B86" s="28"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="27"/>
-      <c r="D87" s="34"/>
+      <c r="B87" s="28"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="27"/>
-      <c r="D88" s="34"/>
+      <c r="B88" s="28"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="27"/>
-      <c r="D89" s="34"/>
+      <c r="B89" s="28"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="27"/>
-      <c r="D90" s="34"/>
+      <c r="B90" s="28"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="27"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="28"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="27"/>
-      <c r="D92" s="34"/>
+      <c r="B92" s="28"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="27"/>
-      <c r="D93" s="34"/>
+      <c r="B93" s="28"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="27"/>
-      <c r="D94" s="34"/>
+      <c r="B94" s="28"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="27"/>
-      <c r="D95" s="34"/>
+      <c r="B95" s="28"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="27"/>
-      <c r="D96" s="34"/>
+      <c r="B96" s="28"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="29"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="27"/>
-      <c r="D97" s="34"/>
+      <c r="B97" s="28"/>
+      <c r="D97" s="35"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="27"/>
-      <c r="D98" s="34"/>
+      <c r="B98" s="28"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="27"/>
-      <c r="D99" s="34"/>
+      <c r="B99" s="28"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="27"/>
-      <c r="D100" s="34"/>
+      <c r="B100" s="28"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="29"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="27"/>
-      <c r="D101" s="34"/>
+      <c r="B101" s="28"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="27"/>
-      <c r="D102" s="34"/>
+      <c r="B102" s="28"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="29"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="27"/>
-      <c r="D103" s="34"/>
+      <c r="B103" s="28"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="29"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="27"/>
-      <c r="D104" s="34"/>
+      <c r="B104" s="28"/>
+      <c r="D104" s="35"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="27"/>
-      <c r="D105" s="34"/>
+      <c r="B105" s="28"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="27"/>
-      <c r="D106" s="34"/>
+      <c r="B106" s="28"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="29"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="27"/>
-      <c r="D107" s="34"/>
+      <c r="B107" s="28"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="29"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="27"/>
-      <c r="D108" s="34"/>
+      <c r="B108" s="28"/>
+      <c r="D108" s="35"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="28"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="27"/>
-      <c r="D109" s="34"/>
+      <c r="B109" s="28"/>
+      <c r="D109" s="35"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="27"/>
-      <c r="D110" s="34"/>
+      <c r="B110" s="28"/>
+      <c r="D110" s="35"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="27"/>
-      <c r="D111" s="34"/>
+      <c r="B111" s="28"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="27"/>
-      <c r="D112" s="34"/>
+      <c r="B112" s="28"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="27"/>
-      <c r="D113" s="34"/>
+      <c r="B113" s="28"/>
+      <c r="D113" s="35"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="27"/>
-      <c r="D114" s="34"/>
+      <c r="B114" s="28"/>
+      <c r="D114" s="35"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="27"/>
-      <c r="D115" s="34"/>
+      <c r="B115" s="28"/>
+      <c r="D115" s="35"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="29"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="27"/>
-      <c r="D116" s="34"/>
+      <c r="B116" s="28"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="29"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="27"/>
-      <c r="D117" s="34"/>
+      <c r="B117" s="28"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="27"/>
-      <c r="D118" s="34"/>
+      <c r="B118" s="28"/>
+      <c r="D118" s="35"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="29"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="27"/>
-      <c r="D119" s="34"/>
+      <c r="B119" s="28"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="28"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="29"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="27"/>
-      <c r="D120" s="34"/>
+      <c r="B120" s="28"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="29"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="27"/>
-      <c r="D121" s="34"/>
+      <c r="B121" s="28"/>
+      <c r="D121" s="35"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="27"/>
-      <c r="D122" s="34"/>
+      <c r="B122" s="28"/>
+      <c r="D122" s="35"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="29"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="27"/>
-      <c r="D123" s="34"/>
+      <c r="B123" s="28"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="29"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="27"/>
-      <c r="D124" s="34"/>
+      <c r="B124" s="28"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="29"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="27"/>
-      <c r="D125" s="34"/>
+      <c r="B125" s="28"/>
+      <c r="D125" s="35"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="27"/>
-      <c r="D126" s="34"/>
+      <c r="B126" s="28"/>
+      <c r="D126" s="35"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="28"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="29"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="27"/>
-      <c r="D127" s="34"/>
+      <c r="B127" s="28"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="28"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="29"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="27"/>
-      <c r="D128" s="34"/>
+      <c r="B128" s="28"/>
+      <c r="D128" s="35"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="29"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="27"/>
-      <c r="D129" s="34"/>
+      <c r="B129" s="28"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="29"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="27"/>
-      <c r="D130" s="34"/>
+      <c r="B130" s="28"/>
+      <c r="D130" s="35"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="29"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="27"/>
-      <c r="D131" s="34"/>
+      <c r="B131" s="28"/>
+      <c r="D131" s="35"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="28"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="29"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="27"/>
-      <c r="D132" s="34"/>
+      <c r="B132" s="28"/>
+      <c r="D132" s="35"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="28"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="29"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="27"/>
-      <c r="D133" s="34"/>
+      <c r="B133" s="28"/>
+      <c r="D133" s="35"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="29"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="27"/>
-      <c r="D134" s="34"/>
+      <c r="B134" s="28"/>
+      <c r="D134" s="35"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="29"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="27"/>
-      <c r="D135" s="34"/>
+      <c r="B135" s="28"/>
+      <c r="D135" s="35"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="29"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="27"/>
-      <c r="D136" s="34"/>
+      <c r="B136" s="28"/>
+      <c r="D136" s="35"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="28"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="29"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="27"/>
-      <c r="D137" s="34"/>
+      <c r="B137" s="28"/>
+      <c r="D137" s="35"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="29"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="27"/>
-      <c r="D138" s="34"/>
+      <c r="B138" s="28"/>
+      <c r="D138" s="35"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="29"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="27"/>
-      <c r="D139" s="34"/>
+      <c r="B139" s="28"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="29"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="27"/>
-      <c r="D140" s="34"/>
+      <c r="B140" s="28"/>
+      <c r="D140" s="35"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="29"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="27"/>
-      <c r="D141" s="34"/>
+      <c r="B141" s="28"/>
+      <c r="D141" s="35"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="29"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="27"/>
-      <c r="D142" s="34"/>
+      <c r="B142" s="28"/>
+      <c r="D142" s="35"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="29"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="27"/>
-      <c r="D143" s="34"/>
+      <c r="B143" s="28"/>
+      <c r="D143" s="35"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="29"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="27"/>
-      <c r="D144" s="34"/>
+      <c r="B144" s="28"/>
+      <c r="D144" s="35"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="29"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="27"/>
-      <c r="D145" s="34"/>
+      <c r="B145" s="28"/>
+      <c r="D145" s="35"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="29"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="27"/>
-      <c r="D146" s="34"/>
+      <c r="B146" s="28"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="28"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="29"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="27"/>
-      <c r="D147" s="34"/>
+      <c r="B147" s="28"/>
+      <c r="D147" s="35"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="29"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="27"/>
-      <c r="D148" s="34"/>
+      <c r="B148" s="28"/>
+      <c r="D148" s="35"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="29"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="27"/>
-      <c r="D149" s="34"/>
+      <c r="B149" s="28"/>
+      <c r="D149" s="35"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="29"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="27"/>
-      <c r="D150" s="34"/>
+      <c r="B150" s="28"/>
+      <c r="D150" s="35"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="29"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="27"/>
-      <c r="D151" s="34"/>
+      <c r="B151" s="28"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="28"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="29"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="27"/>
-      <c r="D152" s="34"/>
+      <c r="B152" s="28"/>
+      <c r="D152" s="35"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="29"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="27"/>
-      <c r="D153" s="34"/>
+      <c r="B153" s="28"/>
+      <c r="D153" s="35"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="29"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="27"/>
-      <c r="D154" s="34"/>
+      <c r="B154" s="28"/>
+      <c r="D154" s="35"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="28"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="29"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="27"/>
-      <c r="D155" s="34"/>
+      <c r="B155" s="28"/>
+      <c r="D155" s="35"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="29"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="27"/>
-      <c r="D156" s="34"/>
+      <c r="B156" s="28"/>
+      <c r="D156" s="35"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="28"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="29"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="27"/>
-      <c r="D157" s="34"/>
+      <c r="B157" s="28"/>
+      <c r="D157" s="35"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="29"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="27"/>
-      <c r="D158" s="34"/>
+      <c r="B158" s="28"/>
+      <c r="D158" s="35"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="29"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="27"/>
-      <c r="D159" s="34"/>
+      <c r="B159" s="28"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="29"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="27"/>
-      <c r="D160" s="34"/>
+      <c r="B160" s="28"/>
+      <c r="D160" s="35"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="29"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="27"/>
-      <c r="D161" s="34"/>
+      <c r="B161" s="28"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="29"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="27"/>
-      <c r="D162" s="34"/>
+      <c r="B162" s="28"/>
+      <c r="D162" s="35"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="29"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="27"/>
-      <c r="D163" s="34"/>
+      <c r="B163" s="28"/>
+      <c r="D163" s="35"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="29"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="27"/>
-      <c r="D164" s="34"/>
+      <c r="B164" s="28"/>
+      <c r="D164" s="35"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="29"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="27"/>
-      <c r="D165" s="34"/>
+      <c r="B165" s="28"/>
+      <c r="D165" s="35"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="29"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="27"/>
-      <c r="D166" s="34"/>
+      <c r="B166" s="28"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="29"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="27"/>
-      <c r="D167" s="34"/>
+      <c r="B167" s="28"/>
+      <c r="D167" s="35"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="28"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="29"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="27"/>
-      <c r="D168" s="34"/>
+      <c r="B168" s="28"/>
+      <c r="D168" s="35"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="29"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="27"/>
-      <c r="D169" s="34"/>
+      <c r="B169" s="28"/>
+      <c r="D169" s="35"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="29"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="27"/>
-      <c r="D170" s="34"/>
+      <c r="B170" s="28"/>
+      <c r="D170" s="35"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="28"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="29"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="27"/>
-      <c r="D171" s="34"/>
+      <c r="B171" s="28"/>
+      <c r="D171" s="35"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="29"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="27"/>
-      <c r="D172" s="34"/>
+      <c r="B172" s="28"/>
+      <c r="D172" s="35"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="29"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="27"/>
-      <c r="D173" s="34"/>
+      <c r="B173" s="28"/>
+      <c r="D173" s="35"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="29"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="27"/>
-      <c r="D174" s="34"/>
+      <c r="B174" s="28"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="29"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="27"/>
-      <c r="D175" s="34"/>
+      <c r="B175" s="28"/>
+      <c r="D175" s="35"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="29"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="27"/>
-      <c r="D176" s="34"/>
+      <c r="B176" s="28"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="29"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="27"/>
-      <c r="D177" s="34"/>
+      <c r="B177" s="28"/>
+      <c r="D177" s="35"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="29"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="27"/>
-      <c r="D178" s="34"/>
+      <c r="B178" s="28"/>
+      <c r="D178" s="35"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="29"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="27"/>
-      <c r="D179" s="34"/>
+      <c r="B179" s="28"/>
+      <c r="D179" s="35"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="29"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="27"/>
-      <c r="D180" s="34"/>
+      <c r="B180" s="28"/>
+      <c r="D180" s="35"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="28"/>
+      <c r="F180" s="28"/>
+      <c r="G180" s="29"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="27"/>
-      <c r="D181" s="34"/>
+      <c r="B181" s="28"/>
+      <c r="D181" s="35"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="28"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="29"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="27"/>
-      <c r="D182" s="34"/>
+      <c r="B182" s="28"/>
+      <c r="D182" s="35"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="28"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="29"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="27"/>
-      <c r="D183" s="34"/>
+      <c r="B183" s="28"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="29"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="27"/>
-      <c r="D184" s="34"/>
+      <c r="B184" s="28"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="28"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="29"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="27"/>
-      <c r="D185" s="34"/>
+      <c r="B185" s="28"/>
+      <c r="D185" s="35"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="28"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="29"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="27"/>
-      <c r="D186" s="34"/>
+      <c r="B186" s="28"/>
+      <c r="D186" s="35"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="28"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="29"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="27"/>
-      <c r="D187" s="34"/>
+      <c r="B187" s="28"/>
+      <c r="D187" s="35"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="29"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="27"/>
-      <c r="D188" s="34"/>
+      <c r="B188" s="28"/>
+      <c r="D188" s="35"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="28"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="29"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="27"/>
-      <c r="D189" s="34"/>
+      <c r="B189" s="28"/>
+      <c r="D189" s="35"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="29"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="27"/>
-      <c r="D190" s="34"/>
+      <c r="B190" s="28"/>
+      <c r="D190" s="35"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="29"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="10"/>
-      <c r="C191" s="38"/>
+      <c r="C191" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10579,7 +10582,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10693,16 +10696,39 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="E8" s="13"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="14">
+        <v>43220</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43221</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="13"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -495,10 +495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -570,7 +570,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,22 +622,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,39 +660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,30 +684,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,15 +707,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,13 +788,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,25 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,85 +920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,19 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,6 +1257,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1275,38 +1305,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1332,25 +1341,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1362,10 +1362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,19 +1374,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,112 +1395,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2084,7 +2084,7 @@
   <sheetPr/>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2450,7 +2450,7 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -8289,7 +8289,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B30:B1048576 B6 B1" listDataValidation="1"/>
+    <ignoredError sqref="B1 B6 B30:B1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -10581,8 +10581,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10723,17 +10723,29 @@
       <c r="C8" s="14">
         <v>43221</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="13"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43225</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="13"/>

--- a/周数据/《个人上线率统计表》-陈乾维 .xlsx
+++ b/周数据/《个人上线率统计表》-陈乾维 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -310,6 +310,15 @@
     <t>陈总</t>
   </si>
   <si>
+    <t>南京市秦淮区初见茶余饮品店</t>
+  </si>
+  <si>
+    <t>初恋茶余</t>
+  </si>
+  <si>
+    <t>初见茶余瞻园路店</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
   </si>
   <si>
     <t>远程装机，等待开业</t>
+  </si>
+  <si>
+    <t>南京弹拨尔餐饮管理有限公司</t>
   </si>
   <si>
     <t>姓名</t>
@@ -496,9 +508,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="29">
@@ -570,51 +582,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,40 +604,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,16 +651,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,8 +687,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,7 +800,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,49 +902,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,37 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,54 +950,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1243,16 +1255,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,6 +1289,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,50 +1351,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1362,10 +1359,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,137 +1371,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,9 +1547,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1709,12 +1703,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1751,16 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2085,359 +2076,450 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="16" customWidth="1"/>
-    <col min="3" max="4" width="16.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="16" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5083333333333" style="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="16" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="52" customWidth="1"/>
-    <col min="11" max="11" width="16" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="16.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5083333333333" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="51" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:13">
-      <c r="A3" s="59">
+      <c r="A3" s="58">
         <v>4</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="59">
         <v>15</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="60">
         <v>3</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="61">
         <v>0</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <f>C3-D3</f>
         <v>3</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="63">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="77">
         <v>0</v>
       </c>
-      <c r="J3" s="77" t="e">
+      <c r="J3" s="78" t="e">
         <f>I3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="79">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <f>D3+G3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="80">
+      <c r="M3" s="81">
         <f>L3/K3*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="65"/>
-      <c r="B4" s="60">
+      <c r="A4" s="64"/>
+      <c r="B4" s="59">
         <v>16</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>4</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <v>0</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f>C4-D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="63">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62">
         <f>F4-G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="77">
         <v>0</v>
       </c>
-      <c r="J4" s="77" t="e">
+      <c r="J4" s="78" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="79">
         <v>4</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="80">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="81">
         <f>L4/K4*100%</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66">
         <v>17</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <v>7</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>7</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="61">
         <v>0</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63">
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62">
         <f>F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="77">
         <v>0</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="78">
         <f>I5/L5*100%</f>
         <v>0</v>
       </c>
-      <c r="K5" s="78">
+      <c r="K5" s="79">
         <v>7</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="80">
         <f>D5+G5</f>
         <v>7</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="81">
         <f>L5/K5*100%</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84"/>
+      <c r="A6" s="67">
+        <v>5</v>
+      </c>
+      <c r="B6" s="66">
+        <v>18</v>
+      </c>
+      <c r="C6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0</v>
+      </c>
+      <c r="E6" s="68">
+        <v>1</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="82">
+        <v>0</v>
+      </c>
+      <c r="J6" s="78" t="e">
+        <f t="shared" ref="J5:J15" si="0">I6/L6*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="83">
+        <v>1</v>
+      </c>
+      <c r="L6" s="83">
+        <v>0</v>
+      </c>
+      <c r="M6" s="81">
+        <f t="shared" ref="M6:M15" si="1">L6/K6*100%</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="66">
+        <v>19</v>
+      </c>
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="68">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68">
+        <v>1</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="82">
+        <v>0</v>
+      </c>
+      <c r="J7" s="78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="83">
+        <v>2</v>
+      </c>
+      <c r="L7" s="83">
+        <v>1</v>
+      </c>
+      <c r="M7" s="81">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
+      <c r="M8" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K9" s="83"/>
       <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
+      <c r="M9" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K10" s="83"/>
       <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
+      <c r="M10" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
+      <c r="M11" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="82"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
-      <c r="M12" s="85"/>
+      <c r="M12" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
-      <c r="M13" s="85"/>
+      <c r="M13" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
-      <c r="M14" s="85"/>
+      <c r="M14" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="78" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
-      <c r="M15" s="85"/>
+      <c r="M15" s="81" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2450,14 +2532,14 @@
   <sheetPr/>
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8416666666667" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="12.8416666666667" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="41" customWidth="1"/>
     <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -2471,55 +2553,55 @@
     <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="27" spans="1:15">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="40" customFormat="1" ht="27" spans="1:15">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>51</v>
       </c>
       <c r="B2" s="14">
@@ -2558,7 +2640,7 @@
       <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="49">
         <v>13851823460</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -2576,7 +2658,7 @@
       <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2603,7 +2685,7 @@
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="50">
         <v>18510837875</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2611,10 +2693,10 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>52</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>43457</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2659,7 +2741,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10"/>
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>43457</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2766,7 +2848,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>4</v>
       </c>
       <c r="B9" s="14">
@@ -3088,7 +3170,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>13</v>
       </c>
       <c r="B17" s="14">
@@ -3135,7 +3217,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="14">
         <v>43185</v>
       </c>
@@ -3180,7 +3262,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="14">
         <v>43187</v>
       </c>
@@ -3225,7 +3307,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="14">
         <v>43187</v>
       </c>
@@ -3270,7 +3352,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="14">
         <v>43187</v>
       </c>
@@ -3280,7 +3362,7 @@
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3289,7 +3371,7 @@
       <c r="G21" s="1">
         <v>76150913</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="47" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3360,7 +3442,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>17</v>
       </c>
       <c r="B23" s="14">
@@ -3407,7 +3489,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="14">
         <v>43213</v>
       </c>
@@ -3452,7 +3534,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="14">
         <v>43214</v>
       </c>
@@ -3497,7 +3579,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="14">
         <v>43214</v>
       </c>
@@ -3542,7 +3624,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="14">
         <v>43216</v>
       </c>
@@ -3587,7 +3669,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="34"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="14">
         <v>43216</v>
       </c>
@@ -3639,7 +3721,7 @@
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>95</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3677,21 +3759,51 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="13">
+        <v>19</v>
+      </c>
+      <c r="B30" s="14">
+        <v>43229</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1">
+        <v>76167635</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="1">
+        <v>17551039639</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="1">
+        <v>19951926016</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="13"/>
@@ -8289,7 +8401,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1 B6 B30:B1048576" listDataValidation="1"/>
+    <ignoredError sqref="B31:B1048576 B6 B1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8299,2251 +8411,2266 @@
   <sheetPr/>
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.625" style="13"/>
-    <col min="2" max="2" width="26.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" s="16" customFormat="1" spans="1:7">
+      <c r="E1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" s="15" customFormat="1" spans="1:7">
       <c r="A2" s="13">
         <v>50</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>43049</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" s="16" customFormat="1" spans="1:7">
+      <c r="E2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" s="15" customFormat="1" spans="1:7">
       <c r="A3" s="13"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>43073</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" s="16" customFormat="1" spans="1:7">
+      <c r="G3" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:7">
       <c r="A4" s="13">
         <v>51</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43084</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="18">
-        <v>43084</v>
-      </c>
-      <c r="D4" s="27" t="s">
+    </row>
+    <row r="5" s="15" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43073</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" s="16" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="13"/>
-      <c r="B5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="18">
-        <v>43073</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" s="16" customFormat="1" ht="14.25" spans="1:7">
+      <c r="G5" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" ht="14.25" spans="1:7">
       <c r="A6" s="13">
         <v>52</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>43094</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" s="16" customFormat="1" spans="1:7">
+      <c r="D6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="1:7">
       <c r="A7" s="13"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>43459</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>111</v>
+      <c r="D7" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>43094</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>111</v>
+      <c r="D8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>43459</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>111</v>
+      <c r="D9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>43102</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>109</v>
+      <c r="D10" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="32">
+        <v>2</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="E11" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="33">
-        <v>2</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>111</v>
+      <c r="F11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>43459</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>111</v>
+      <c r="D12" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>43102</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>109</v>
+      <c r="D13" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="32">
+        <v>3</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="33">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>111</v>
+      <c r="F14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="34"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>43459</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>111</v>
+      <c r="D15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="34"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>43102</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>109</v>
+      <c r="D16" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>43116</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>109</v>
+      <c r="D17" s="34" t="s">
+        <v>112</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:7">
+      <c r="A18" s="32">
+        <v>4</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="33"/>
+      <c r="B19" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="33"/>
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="17">
+        <v>43102</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33"/>
+      <c r="B21" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33"/>
+      <c r="B22" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="33">
-        <v>4</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="34"/>
-      <c r="B19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="34"/>
-      <c r="B20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="18">
-        <v>43102</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="34"/>
-      <c r="B21" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="18">
-        <v>43115</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>118</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="32">
+        <v>5</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="33">
-        <v>5</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="33"/>
+      <c r="B25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="33"/>
+      <c r="B26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33"/>
+      <c r="B27" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="18">
+      <c r="E28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="32">
+        <v>6</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="33"/>
+      <c r="B30" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="33"/>
+      <c r="B31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="33"/>
+      <c r="B32" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="33"/>
+      <c r="B33" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="17">
         <v>43115</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="33">
-        <v>6</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="34"/>
-      <c r="B31" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="D33" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="18">
-        <v>43115</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>119</v>
+      <c r="G33" s="31" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>43131</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="28" t="s">
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="32">
+        <v>9</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="32" t="s">
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="33"/>
+      <c r="B36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:7">
-      <c r="A35" s="33">
-        <v>9</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="28" t="s">
+      <c r="E36" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="33"/>
+      <c r="B37" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="33"/>
+      <c r="B38" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="34"/>
-      <c r="B37" s="26" t="s">
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="33"/>
+      <c r="B39" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="33"/>
+      <c r="B40" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="17">
+        <v>43131</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="34"/>
-      <c r="B38" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="34"/>
-      <c r="B39" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="18">
-        <v>43115</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="34"/>
-      <c r="B40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="18">
-        <v>43131</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="G40" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="34"/>
-      <c r="B41" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="18">
+      <c r="A41" s="33"/>
+      <c r="B41" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="17">
         <v>43158</v>
       </c>
-      <c r="D41" s="35" t="s">
-        <v>124</v>
+      <c r="D41" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="10"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="32">
+        <v>10</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="33"/>
+      <c r="B44" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="33"/>
+      <c r="B45" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="33"/>
+      <c r="B46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="33"/>
+      <c r="B47" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="17">
+        <v>43115</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="33"/>
+      <c r="B48" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="17">
+        <v>43131</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="33"/>
+      <c r="B49" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="18">
-        <v>43137</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="29" t="s">
+      <c r="C49" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G49" s="28" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" spans="1:7">
-      <c r="A43" s="33">
-        <v>10</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="34"/>
-      <c r="B44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="34"/>
-      <c r="B45" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="34"/>
-      <c r="B46" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="34"/>
-      <c r="B47" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="18">
-        <v>43115</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="34"/>
-      <c r="B48" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="18">
-        <v>43131</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="34"/>
-      <c r="B49" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="18">
-        <v>43158</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="10"/>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:7">
+      <c r="A51" s="32">
+        <v>11</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="33"/>
+      <c r="B52" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="33"/>
+      <c r="B53" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="17">
+        <v>43461</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="33"/>
+      <c r="B54" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C54" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="33"/>
+      <c r="B55" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="17">
         <v>43137</v>
       </c>
-      <c r="D50" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="29" t="s">
+      <c r="D55" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="33"/>
+      <c r="B56" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="38">
+        <v>43172</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="28" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" spans="1:7">
-      <c r="A51" s="33">
-        <v>11</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="34"/>
-      <c r="B52" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="18">
-        <v>43461</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="34"/>
-      <c r="B54" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="18">
-        <v>43158</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="34"/>
-      <c r="B55" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="18">
-        <v>43137</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="34"/>
-      <c r="B56" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="39">
-        <v>43172</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10"/>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>43171</v>
       </c>
-      <c r="D57" s="35" t="s">
-        <v>127</v>
+      <c r="D57" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:7">
+      <c r="A58" s="32">
+        <v>12</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="17">
+        <v>43094</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G57" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:7">
-      <c r="A58" s="33">
-        <v>12</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="18">
-        <v>43094</v>
-      </c>
-      <c r="D58" s="27" t="s">
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="33"/>
+      <c r="B59" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="17">
+        <v>43459</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="33"/>
+      <c r="B60" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="17">
+        <v>43158</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="33"/>
+      <c r="B61" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="17">
+        <v>43137</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="33"/>
+      <c r="B62" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="38">
+        <v>43172</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:7">
+      <c r="A63" s="32">
+        <v>19</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="17">
+        <v>43222</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="34"/>
-      <c r="B59" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="18">
-        <v>43459</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="34"/>
-      <c r="B60" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="18">
-        <v>43158</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="34"/>
-      <c r="B61" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="18">
-        <v>43137</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="34"/>
-      <c r="B62" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="39">
-        <v>43172</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:7">
-      <c r="A63" s="33"/>
-      <c r="B63" s="37"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="38"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="40"/>
-      <c r="B64" s="32"/>
-      <c r="D64" s="35"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="31"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="32"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="31"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="39"/>
+      <c r="C66" s="38"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="28"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="28"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="27"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="28"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="27"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="28"/>
-      <c r="D69" s="35"/>
+      <c r="B69" s="27"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="29"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="28"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="27"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="28"/>
-      <c r="D71" s="35"/>
+      <c r="B71" s="27"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="28"/>
-      <c r="D72" s="35"/>
+      <c r="B72" s="27"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="28"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="27"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="28"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="27"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="28"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="27"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="28"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="28"/>
-      <c r="D76" s="35"/>
+      <c r="B76" s="27"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="28"/>
-      <c r="D77" s="35"/>
+      <c r="B77" s="27"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="28"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="28"/>
-      <c r="D78" s="35"/>
+      <c r="B78" s="27"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="28"/>
-      <c r="D79" s="35"/>
+      <c r="B79" s="27"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="28"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="27"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="28"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="27"/>
+      <c r="D81" s="34"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="29"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="28"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="27"/>
+      <c r="D82" s="34"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="28"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="27"/>
+      <c r="D83" s="34"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="28"/>
-      <c r="D84" s="35"/>
+      <c r="B84" s="27"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="29"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="28"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="27"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="28"/>
-      <c r="D86" s="35"/>
+      <c r="B86" s="27"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="29"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="28"/>
-      <c r="D87" s="35"/>
+      <c r="B87" s="27"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="29"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="28"/>
-      <c r="D88" s="35"/>
+      <c r="B88" s="27"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="29"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="28"/>
-      <c r="D89" s="35"/>
+      <c r="B89" s="27"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="28"/>
-      <c r="D90" s="35"/>
+      <c r="B90" s="27"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="29"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="28"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="27"/>
+      <c r="D91" s="34"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="29"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="28"/>
-      <c r="D92" s="35"/>
+      <c r="B92" s="27"/>
+      <c r="D92" s="34"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="29"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="28"/>
-      <c r="D93" s="35"/>
+      <c r="B93" s="27"/>
+      <c r="D93" s="34"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="29"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="28"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="27"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="29"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="28"/>
-      <c r="D95" s="35"/>
+      <c r="B95" s="27"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="29"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="28"/>
-      <c r="D96" s="35"/>
+      <c r="B96" s="27"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="29"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="28"/>
-      <c r="D97" s="35"/>
+      <c r="B97" s="27"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="28"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="27"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="29"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="28"/>
-      <c r="D99" s="35"/>
+      <c r="B99" s="27"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="29"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="28"/>
-      <c r="D100" s="35"/>
+      <c r="B100" s="27"/>
+      <c r="D100" s="34"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="29"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="28"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="27"/>
+      <c r="D101" s="34"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="28"/>
-      <c r="D102" s="35"/>
+      <c r="B102" s="27"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="29"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="28"/>
-      <c r="D103" s="35"/>
+      <c r="B103" s="27"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="29"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="28"/>
-      <c r="D104" s="35"/>
+      <c r="B104" s="27"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="29"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="28"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="27"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="29"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="28"/>
-      <c r="D106" s="35"/>
+      <c r="B106" s="27"/>
+      <c r="D106" s="34"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="29"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="28"/>
-      <c r="D107" s="35"/>
+      <c r="B107" s="27"/>
+      <c r="D107" s="34"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="29"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="28"/>
-      <c r="D108" s="35"/>
+      <c r="B108" s="27"/>
+      <c r="D108" s="34"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="29"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="28"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="27"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="29"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="28"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="27"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="29"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="28"/>
-      <c r="D111" s="35"/>
+      <c r="B111" s="27"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="29"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="28"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="27"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="29"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="28"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="27"/>
+      <c r="D113" s="34"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="29"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="28"/>
-      <c r="D114" s="35"/>
+      <c r="B114" s="27"/>
+      <c r="D114" s="34"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="29"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="28"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="27"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="29"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="28"/>
-      <c r="D116" s="35"/>
+      <c r="B116" s="27"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="29"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="28"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="27"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="29"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="28"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="27"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="29"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="28"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="27"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="29"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="28"/>
-      <c r="D120" s="35"/>
+      <c r="B120" s="27"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="29"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="28"/>
-      <c r="D121" s="35"/>
+      <c r="B121" s="27"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="29"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="28"/>
-      <c r="D122" s="35"/>
+      <c r="B122" s="27"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="29"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="28"/>
-      <c r="D123" s="35"/>
+      <c r="B123" s="27"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="29"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="28"/>
-      <c r="D124" s="35"/>
+      <c r="B124" s="27"/>
+      <c r="D124" s="34"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="29"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="28"/>
-      <c r="D125" s="35"/>
+      <c r="B125" s="27"/>
+      <c r="D125" s="34"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="29"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="28"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="27"/>
+      <c r="D126" s="34"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="29"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="28"/>
-      <c r="D127" s="35"/>
+      <c r="B127" s="27"/>
+      <c r="D127" s="34"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="29"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="28"/>
-      <c r="D128" s="35"/>
+      <c r="B128" s="27"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="29"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="28"/>
-      <c r="D129" s="35"/>
+      <c r="B129" s="27"/>
+      <c r="D129" s="34"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="29"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="28"/>
-      <c r="D130" s="35"/>
+      <c r="B130" s="27"/>
+      <c r="D130" s="34"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="29"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="28"/>
-      <c r="D131" s="35"/>
+      <c r="B131" s="27"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="29"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="28"/>
-      <c r="D132" s="35"/>
+      <c r="B132" s="27"/>
+      <c r="D132" s="34"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="29"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="28"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="27"/>
+      <c r="D133" s="34"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="29"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="28"/>
-      <c r="D134" s="35"/>
+      <c r="B134" s="27"/>
+      <c r="D134" s="34"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="29"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="28"/>
-      <c r="D135" s="35"/>
+      <c r="B135" s="27"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="29"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="28"/>
-      <c r="D136" s="35"/>
+      <c r="B136" s="27"/>
+      <c r="D136" s="34"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="29"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="28"/>
-      <c r="D137" s="35"/>
+      <c r="B137" s="27"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="29"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="28"/>
-      <c r="D138" s="35"/>
+      <c r="B138" s="27"/>
+      <c r="D138" s="34"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="29"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="28"/>
-      <c r="D139" s="35"/>
+      <c r="B139" s="27"/>
+      <c r="D139" s="34"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="29"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="28"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="28"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="27"/>
+      <c r="D140" s="34"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="29"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="28"/>
-      <c r="D141" s="35"/>
+      <c r="B141" s="27"/>
+      <c r="D141" s="34"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="29"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="28"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="28"/>
-      <c r="D142" s="35"/>
+      <c r="B142" s="27"/>
+      <c r="D142" s="34"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="29"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="28"/>
-      <c r="D143" s="35"/>
+      <c r="B143" s="27"/>
+      <c r="D143" s="34"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="29"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="28"/>
-      <c r="D144" s="35"/>
+      <c r="B144" s="27"/>
+      <c r="D144" s="34"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="29"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="28"/>
-      <c r="D145" s="35"/>
+      <c r="B145" s="27"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="29"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="28"/>
-      <c r="D146" s="35"/>
+      <c r="B146" s="27"/>
+      <c r="D146" s="34"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="29"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="28"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="28"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="27"/>
+      <c r="D147" s="34"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="29"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="28"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="28"/>
-      <c r="D148" s="35"/>
+      <c r="B148" s="27"/>
+      <c r="D148" s="34"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="29"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="28"/>
-      <c r="D149" s="35"/>
+      <c r="B149" s="27"/>
+      <c r="D149" s="34"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="29"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="28"/>
-      <c r="D150" s="35"/>
+      <c r="B150" s="27"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="29"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="28"/>
-      <c r="D151" s="35"/>
+      <c r="B151" s="27"/>
+      <c r="D151" s="34"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="29"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="28"/>
-      <c r="D152" s="35"/>
+      <c r="B152" s="27"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="29"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="28"/>
-      <c r="D153" s="35"/>
+      <c r="B153" s="27"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="28"/>
-      <c r="G153" s="29"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="28"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="28"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="27"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="28"/>
-      <c r="G154" s="29"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="28"/>
-      <c r="D155" s="35"/>
+      <c r="B155" s="27"/>
+      <c r="D155" s="34"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="28"/>
-      <c r="G155" s="29"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="28"/>
-      <c r="D156" s="35"/>
+      <c r="B156" s="27"/>
+      <c r="D156" s="34"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="29"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="28"/>
-      <c r="D157" s="35"/>
+      <c r="B157" s="27"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="29"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="28"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="28"/>
-      <c r="D158" s="35"/>
+      <c r="B158" s="27"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="29"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="28"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="28"/>
-      <c r="D159" s="35"/>
+      <c r="B159" s="27"/>
+      <c r="D159" s="34"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="29"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="28"/>
-      <c r="D160" s="35"/>
+      <c r="B160" s="27"/>
+      <c r="D160" s="34"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="29"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="28"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="27"/>
+      <c r="D161" s="34"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="29"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="28"/>
-      <c r="D162" s="35"/>
+      <c r="B162" s="27"/>
+      <c r="D162" s="34"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="29"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="28"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="27"/>
+      <c r="D163" s="34"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="29"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="28"/>
-      <c r="D164" s="35"/>
+      <c r="B164" s="27"/>
+      <c r="D164" s="34"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="29"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="28"/>
-      <c r="D165" s="35"/>
+      <c r="B165" s="27"/>
+      <c r="D165" s="34"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="29"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="28"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="28"/>
-      <c r="D166" s="35"/>
+      <c r="B166" s="27"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="29"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="28"/>
-      <c r="D167" s="35"/>
+      <c r="B167" s="27"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="29"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="28"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="27"/>
+      <c r="D168" s="34"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="29"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="28"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="27"/>
+      <c r="D169" s="34"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="29"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="28"/>
-      <c r="D170" s="35"/>
+      <c r="B170" s="27"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="29"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="28"/>
-      <c r="D171" s="35"/>
+      <c r="B171" s="27"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="29"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="28"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="27"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="29"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="28"/>
-      <c r="D173" s="35"/>
+      <c r="B173" s="27"/>
+      <c r="D173" s="34"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="29"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="28"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="27"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="29"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="28"/>
-      <c r="D175" s="35"/>
+      <c r="B175" s="27"/>
+      <c r="D175" s="34"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="29"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="28"/>
-      <c r="D176" s="35"/>
+      <c r="B176" s="27"/>
+      <c r="D176" s="34"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="29"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="28"/>
-      <c r="D177" s="35"/>
+      <c r="B177" s="27"/>
+      <c r="D177" s="34"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="29"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="28"/>
-      <c r="D178" s="35"/>
+      <c r="B178" s="27"/>
+      <c r="D178" s="34"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="29"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="28"/>
-      <c r="D179" s="35"/>
+      <c r="B179" s="27"/>
+      <c r="D179" s="34"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="29"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="28"/>
-      <c r="D180" s="35"/>
+      <c r="B180" s="27"/>
+      <c r="D180" s="34"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="29"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="28"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="27"/>
+      <c r="D181" s="34"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="29"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="28"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="27"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="28"/>
-      <c r="G182" s="29"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="28"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="27"/>
+      <c r="D183" s="34"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="29"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="28"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="28"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="27"/>
+      <c r="D184" s="34"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="28"/>
-      <c r="G184" s="29"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="28"/>
-      <c r="D185" s="35"/>
+      <c r="B185" s="27"/>
+      <c r="D185" s="34"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="28"/>
-      <c r="G185" s="29"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="28"/>
-      <c r="D186" s="35"/>
+      <c r="B186" s="27"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="28"/>
-      <c r="G186" s="29"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="28"/>
-      <c r="D187" s="35"/>
+      <c r="B187" s="27"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="29"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="28"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="27"/>
+      <c r="D188" s="34"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="28"/>
-      <c r="G188" s="29"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="28"/>
-      <c r="D189" s="35"/>
+      <c r="B189" s="27"/>
+      <c r="D189" s="34"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="28"/>
-      <c r="G189" s="29"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="28"/>
-      <c r="D190" s="35"/>
+      <c r="B190" s="27"/>
+      <c r="D190" s="34"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="29"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="10"/>
-      <c r="C191" s="39"/>
+      <c r="C191" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10581,8 +10708,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10599,21 +10726,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>33</v>
@@ -10622,15 +10749,15 @@
         <v>43064</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -10639,15 +10766,15 @@
         <v>43085</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -10659,12 +10786,12 @@
         <v>42</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>33</v>
@@ -10673,15 +10800,15 @@
         <v>43128</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -10690,15 +10817,15 @@
         <v>43190</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>33</v>
@@ -10710,12 +10837,12 @@
         <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s